--- a/Results/Metro.xlsx
+++ b/Results/Metro.xlsx
@@ -105,7 +105,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3595209717478145"/>
+          <c:x val="0.35952097174781467"/>
           <c:y val="2.0878553073528511E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -748,604 +748,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>8.7659999999999995E-3</c:v>
+                  <c:v>6.241E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1610000000000007E-3</c:v>
+                  <c:v>6.3730000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2790000000000008E-3</c:v>
+                  <c:v>6.5380000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.469E-3</c:v>
+                  <c:v>6.6319999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.672E-3</c:v>
+                  <c:v>6.8729999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7660000000000004E-3</c:v>
+                  <c:v>6.9220000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9059999999999999E-3</c:v>
+                  <c:v>7.0419999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0074E-2</c:v>
+                  <c:v>7.2439999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.042E-2</c:v>
+                  <c:v>7.378E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0536E-2</c:v>
+                  <c:v>7.5339999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0729000000000001E-2</c:v>
+                  <c:v>7.5599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1154000000000001E-2</c:v>
+                  <c:v>7.8169999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1309E-2</c:v>
+                  <c:v>8.0269999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1638000000000001E-2</c:v>
+                  <c:v>8.1390000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1694E-2</c:v>
+                  <c:v>8.4799999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.174E-2</c:v>
+                  <c:v>8.5470000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2399E-2</c:v>
+                  <c:v>8.6309999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2579E-2</c:v>
+                  <c:v>8.8140000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2798E-2</c:v>
+                  <c:v>9.1459999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3010000000000001E-2</c:v>
+                  <c:v>9.1420000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3221999999999999E-2</c:v>
+                  <c:v>9.3430000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3356E-2</c:v>
+                  <c:v>9.4470000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3624000000000001E-2</c:v>
+                  <c:v>9.7890000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>9.9120000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0302E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0448000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0631E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0701E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1077999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1185E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1424E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1701E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.192E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2142999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2449E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2880000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2923E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3238E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3745E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3605000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3826E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>1.417E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4707E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4416E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5096E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5386E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.5606999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5792E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6123999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6674999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.7153999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.7295000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7644E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.77E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8082999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.8755000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.8787999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9345000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0274E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0015000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0785000000000001E-2</c:v>
+                  <c:v>1.4569E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1527999999999999E-2</c:v>
+                  <c:v>1.4962E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1531999999999999E-2</c:v>
+                  <c:v>1.5004E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2529E-2</c:v>
+                  <c:v>1.5601E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2248E-2</c:v>
+                  <c:v>1.5876999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3970999999999999E-2</c:v>
+                  <c:v>1.6274E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3646E-2</c:v>
+                  <c:v>1.6545000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4032999999999999E-2</c:v>
+                  <c:v>1.6816000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4729999999999999E-2</c:v>
+                  <c:v>1.7097000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4993000000000001E-2</c:v>
+                  <c:v>1.7330999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4354000000000001E-2</c:v>
+                  <c:v>1.7942E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.4544E-2</c:v>
+                  <c:v>1.8214999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6908000000000001E-2</c:v>
+                  <c:v>1.8519000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5127E-2</c:v>
+                  <c:v>1.9237000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.7845000000000002E-2</c:v>
+                  <c:v>1.9224000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9394E-2</c:v>
+                  <c:v>2.0257000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.7907999999999999E-2</c:v>
+                  <c:v>2.0173E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.8603E-2</c:v>
+                  <c:v>1.9879999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0124999999999999E-2</c:v>
+                  <c:v>2.0667999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0023000000000001E-2</c:v>
+                  <c:v>2.0996999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.9135000000000001E-2</c:v>
+                  <c:v>2.1292999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.1132E-2</c:v>
+                  <c:v>2.2993E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.2204999999999998E-2</c:v>
+                  <c:v>2.2304999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.3144E-2</c:v>
+                  <c:v>2.2599000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.3418999999999997E-2</c:v>
+                  <c:v>2.3310999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.4157E-2</c:v>
+                  <c:v>2.4379000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3663999999999999E-2</c:v>
+                  <c:v>2.4386000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.5161999999999999E-2</c:v>
+                  <c:v>2.5035999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.7622999999999997E-2</c:v>
+                  <c:v>2.6084E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.8144999999999998E-2</c:v>
+                  <c:v>2.5249000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.7615999999999997E-2</c:v>
+                  <c:v>2.7071999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.7782000000000003E-2</c:v>
+                  <c:v>2.8212000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.9244000000000001E-2</c:v>
+                  <c:v>2.6882E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8567999999999998E-2</c:v>
+                  <c:v>2.8462000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.4666000000000002E-2</c:v>
+                  <c:v>2.8271999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.9289999999999999E-2</c:v>
+                  <c:v>2.9189E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.4075000000000003E-2</c:v>
+                  <c:v>3.0006000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.5776999999999998E-2</c:v>
+                  <c:v>3.1382E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.6844999999999998E-2</c:v>
+                  <c:v>2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.4532000000000002E-2</c:v>
+                  <c:v>3.3346000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.6961000000000001E-2</c:v>
+                  <c:v>3.3087999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.6526999999999999E-2</c:v>
+                  <c:v>3.4223999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9620999999999998E-2</c:v>
+                  <c:v>3.4426999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9059999999999999E-2</c:v>
+                  <c:v>3.3978000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5487E-2</c:v>
+                  <c:v>3.4764999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.0880000000000002E-2</c:v>
+                  <c:v>3.7035999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.0245999999999999E-2</c:v>
+                  <c:v>3.3558999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.6745999999999998E-2</c:v>
+                  <c:v>3.7656000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.8554E-2</c:v>
+                  <c:v>4.2576000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.7724000000000003E-2</c:v>
+                  <c:v>4.0874000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.0868000000000002E-2</c:v>
+                  <c:v>3.882E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.9727000000000002E-2</c:v>
+                  <c:v>3.9763E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.4512000000000004E-2</c:v>
+                  <c:v>4.7161000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.3906000000000003E-2</c:v>
+                  <c:v>4.6718000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6401000000000002E-2</c:v>
+                  <c:v>4.2501999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.0035000000000003E-2</c:v>
+                  <c:v>4.3864E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.0897999999999999E-2</c:v>
+                  <c:v>4.4713999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.8099000000000002E-2</c:v>
+                  <c:v>5.1609000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.5292000000000001E-2</c:v>
+                  <c:v>4.5400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.2970000000000003E-2</c:v>
+                  <c:v>4.3973999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.1503999999999998E-2</c:v>
+                  <c:v>4.4803000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.7863000000000007E-2</c:v>
+                  <c:v>4.1005E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.1213999999999995E-2</c:v>
+                  <c:v>6.1171999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.9412999999999997E-2</c:v>
+                  <c:v>5.3814000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.127608</c:v>
+                  <c:v>4.6806E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.2320000000000004E-2</c:v>
+                  <c:v>4.2603000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.3886000000000002E-2</c:v>
+                  <c:v>4.6249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.9552999999999999E-2</c:v>
+                  <c:v>6.0990999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.5082000000000001E-2</c:v>
+                  <c:v>5.8164E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.9667000000000007E-2</c:v>
+                  <c:v>5.0874000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.8278999999999996E-2</c:v>
+                  <c:v>5.3975000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.11937</c:v>
+                  <c:v>6.8459999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>9.6957000000000002E-2</c:v>
+                  <c:v>7.1847999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.4952E-2</c:v>
+                  <c:v>5.9721000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6.5040000000000001E-2</c:v>
+                  <c:v>8.2550999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9.0541999999999997E-2</c:v>
+                  <c:v>4.8973999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.16564000000000001</c:v>
+                  <c:v>5.6121999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.100504</c:v>
+                  <c:v>7.8253000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.6121999999999995E-2</c:v>
+                  <c:v>8.5680000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.118245</c:v>
+                  <c:v>6.5019999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.6688000000000006E-2</c:v>
+                  <c:v>7.9829999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.23238500000000001</c:v>
+                  <c:v>6.8194000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7.4525999999999995E-2</c:v>
+                  <c:v>7.9423999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.3492999999999999E-2</c:v>
+                  <c:v>7.6864000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.0922000000000002E-2</c:v>
+                  <c:v>7.3913000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.2606999999999995E-2</c:v>
+                  <c:v>9.9459000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7.7953999999999996E-2</c:v>
+                  <c:v>5.5354E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.16861999999999999</c:v>
+                  <c:v>9.1215000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.40800399999999998</c:v>
+                  <c:v>6.8136000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.13892399999999999</c:v>
+                  <c:v>7.4355000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.7547999999999997E-2</c:v>
+                  <c:v>0.105341</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.25584699999999999</c:v>
+                  <c:v>9.0209999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.6718E-2</c:v>
+                  <c:v>0.111038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.7111000000000003E-2</c:v>
+                  <c:v>8.2442000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.175154</c:v>
+                  <c:v>9.8218E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.23116200000000001</c:v>
+                  <c:v>7.0168999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.14100499999999999</c:v>
+                  <c:v>7.6744000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.25270799999999999</c:v>
+                  <c:v>6.5119999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8.4095000000000003E-2</c:v>
+                  <c:v>6.3404000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9.6139000000000002E-2</c:v>
+                  <c:v>0.13031899999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.0704000000000001E-2</c:v>
+                  <c:v>0.22377</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.154419</c:v>
+                  <c:v>0.152446</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.9967999999999999E-2</c:v>
+                  <c:v>9.6878000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4.3837000000000001E-2</c:v>
+                  <c:v>0.106526</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.16015799999999999</c:v>
+                  <c:v>0.12318800000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.18679999999999999</c:v>
+                  <c:v>0.117746</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>8.566E-2</c:v>
+                  <c:v>6.4503000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>7.1794999999999998E-2</c:v>
+                  <c:v>0.12739400000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.12751999999999999</c:v>
+                  <c:v>0.16799900000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.34746899999999997</c:v>
+                  <c:v>0.225523</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.43384400000000001</c:v>
+                  <c:v>0.15412600000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.44575599999999999</c:v>
+                  <c:v>9.2590000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.48222399999999999</c:v>
+                  <c:v>0.16118099999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>9.7887000000000002E-2</c:v>
+                  <c:v>0.188996</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.22037000000000001</c:v>
+                  <c:v>0.17841899999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.19899700000000001</c:v>
+                  <c:v>0.325519</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24370600000000001</c:v>
+                  <c:v>0.115786</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.25178800000000001</c:v>
+                  <c:v>0.28072999999999998</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.33142899999999997</c:v>
+                  <c:v>0.18703</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.37012200000000001</c:v>
+                  <c:v>7.7021000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.33402700000000002</c:v>
+                  <c:v>8.0642000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.32316699999999998</c:v>
+                  <c:v>0.13130700000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>9.4405000000000003E-2</c:v>
+                  <c:v>8.4318000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.14339499999999999</c:v>
+                  <c:v>0.10938100000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.14741299999999999</c:v>
+                  <c:v>6.2377000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.205868</c:v>
+                  <c:v>0.123423</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.24291699999999999</c:v>
+                  <c:v>5.9623000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.1643999999999999E-2</c:v>
+                  <c:v>0.329488</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5.3504000000000003E-2</c:v>
+                  <c:v>0.44750899999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.0335999999999997E-2</c:v>
+                  <c:v>0.483844</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.101989</c:v>
+                  <c:v>0.37825999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.17732300000000001</c:v>
+                  <c:v>0.105198</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.19211800000000001</c:v>
+                  <c:v>0.12567400000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.14719399999999999</c:v>
+                  <c:v>0.387714</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.16826199999999999</c:v>
+                  <c:v>0.302977</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.30822899999999998</c:v>
+                  <c:v>5.4486E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.31675399999999998</c:v>
+                  <c:v>0.215836</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.375807</c:v>
+                  <c:v>0.241704</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.34361700000000001</c:v>
+                  <c:v>0.20783199999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.328592</c:v>
+                  <c:v>0.12137000000000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.37879200000000002</c:v>
+                  <c:v>9.5973000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.317965</c:v>
+                  <c:v>0.12587300000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.42882399999999998</c:v>
+                  <c:v>7.9960000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.34592400000000001</c:v>
+                  <c:v>8.1907999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.201656</c:v>
+                  <c:v>0.105208</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.26327699999999998</c:v>
+                  <c:v>8.0381999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.39025100000000001</c:v>
+                  <c:v>7.4917999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.39196999999999999</c:v>
+                  <c:v>5.4050000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.41111900000000001</c:v>
+                  <c:v>4.7233999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.42916900000000002</c:v>
+                  <c:v>7.2844000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.373892</c:v>
+                  <c:v>0.24468799999999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.316801</c:v>
+                  <c:v>0.35770000000000002</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.27513900000000002</c:v>
+                  <c:v>0.29311900000000002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.23686199999999999</c:v>
+                  <c:v>0.24459900000000001</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.15279599999999999</c:v>
+                  <c:v>0.36493199999999998</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.21054600000000001</c:v>
+                  <c:v>0.33846900000000002</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.190966</c:v>
+                  <c:v>0.33244200000000002</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.115451</c:v>
+                  <c:v>0.391648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,595 +1993,595 @@
                   <c:v>4.0340000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0559999999999998E-3</c:v>
+                  <c:v>9.0589999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6056999999999998E-2</c:v>
+                  <c:v>1.6060000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4996999999999998E-2</c:v>
+                  <c:v>2.4996000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5840999999999998E-2</c:v>
+                  <c:v>3.5839000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8523999999999998E-2</c:v>
+                  <c:v>4.8529000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2988000000000002E-2</c:v>
+                  <c:v>6.2990000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9195000000000002E-2</c:v>
+                  <c:v>7.9204999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7045999999999993E-2</c:v>
+                  <c:v>9.7030000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11644400000000001</c:v>
+                  <c:v>0.11641799999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.137294</c:v>
+                  <c:v>0.137318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.159548</c:v>
+                  <c:v>0.15953200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.183113</c:v>
+                  <c:v>0.18309600000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.207756</c:v>
+                  <c:v>0.20779800000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23354900000000001</c:v>
+                  <c:v>0.23361599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26028000000000001</c:v>
+                  <c:v>0.26030199999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28790399999999999</c:v>
+                  <c:v>0.28790300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.316299</c:v>
+                  <c:v>0.31620599999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.345221</c:v>
+                  <c:v>0.34515699999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37453500000000001</c:v>
+                  <c:v>0.37463400000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40457199999999999</c:v>
+                  <c:v>0.40448400000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43451299999999998</c:v>
+                  <c:v>0.43463499999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46483600000000003</c:v>
+                  <c:v>0.46489599999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49532500000000002</c:v>
+                  <c:v>0.495369</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.52575899999999998</c:v>
+                  <c:v>0.525729</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.55570799999999998</c:v>
+                  <c:v>0.55578099999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.585839</c:v>
+                  <c:v>0.585758</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.61548599999999998</c:v>
+                  <c:v>0.61568999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64470000000000005</c:v>
+                  <c:v>0.64489300000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.67343399999999998</c:v>
+                  <c:v>0.67339800000000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.701735</c:v>
+                  <c:v>0.70173200000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.729267</c:v>
+                  <c:v>0.72926100000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.75623499999999999</c:v>
+                  <c:v>0.75593699999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.78187399999999996</c:v>
+                  <c:v>0.78190400000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80743100000000001</c:v>
+                  <c:v>0.80738399999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.83171600000000001</c:v>
+                  <c:v>0.83157000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.854634</c:v>
+                  <c:v>0.85471399999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.87747299999999995</c:v>
+                  <c:v>0.87734500000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.89896399999999999</c:v>
+                  <c:v>0.89842299999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91945699999999997</c:v>
+                  <c:v>0.91913800000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.93801599999999996</c:v>
+                  <c:v>0.93853699999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.95626599999999995</c:v>
+                  <c:v>0.95641699999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.97382400000000002</c:v>
+                  <c:v>0.973472</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.98987800000000004</c:v>
+                  <c:v>0.98947600000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.004094</c:v>
+                  <c:v>1.0044630000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0176719999999999</c:v>
+                  <c:v>1.018035</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.029536</c:v>
+                  <c:v>1.030375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.041844</c:v>
+                  <c:v>1.042009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0533710000000001</c:v>
+                  <c:v>1.0524579999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0615950000000001</c:v>
+                  <c:v>1.0618300000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0692919999999999</c:v>
+                  <c:v>1.069993</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.076328</c:v>
+                  <c:v>1.0765279999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0817349999999999</c:v>
+                  <c:v>1.083234</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0882289999999999</c:v>
+                  <c:v>1.087971</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0905800000000001</c:v>
+                  <c:v>1.0916319999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.094309</c:v>
+                  <c:v>1.0947769999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0978250000000001</c:v>
+                  <c:v>1.096414</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0987499999999999</c:v>
+                  <c:v>1.0976140000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.097926</c:v>
+                  <c:v>1.097515</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.099613</c:v>
+                  <c:v>1.097378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0968169999999999</c:v>
+                  <c:v>1.095602</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0963210000000001</c:v>
+                  <c:v>1.0932550000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.090848</c:v>
+                  <c:v>1.089623</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0853649999999999</c:v>
+                  <c:v>1.085877</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0825709999999999</c:v>
+                  <c:v>1.0814459999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.077153</c:v>
+                  <c:v>1.077604</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.068573</c:v>
+                  <c:v>1.069922</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0657989999999999</c:v>
+                  <c:v>1.063234</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.056643</c:v>
+                  <c:v>1.0565089999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.047142</c:v>
+                  <c:v>1.0487919999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0420529999999999</c:v>
+                  <c:v>1.041066</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0301640000000001</c:v>
+                  <c:v>1.0312760000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.024383</c:v>
+                  <c:v>1.0240419999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0116350000000001</c:v>
+                  <c:v>1.0118480000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.001366</c:v>
+                  <c:v>1.004866</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99415500000000001</c:v>
+                  <c:v>0.99167400000000006</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.97939500000000002</c:v>
+                  <c:v>0.98238300000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.97439699999999996</c:v>
+                  <c:v>0.97025899999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.960059</c:v>
+                  <c:v>0.95947000000000005</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.94798199999999999</c:v>
+                  <c:v>0.94774499999999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.93740599999999996</c:v>
+                  <c:v>0.936033</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.92799399999999999</c:v>
+                  <c:v>0.92332700000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.91118399999999999</c:v>
+                  <c:v>0.90898100000000004</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90459199999999995</c:v>
+                  <c:v>0.89858400000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.88271200000000005</c:v>
+                  <c:v>0.887212</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.866205</c:v>
+                  <c:v>0.87387700000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.85997100000000004</c:v>
+                  <c:v>0.85621899999999995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.84748199999999996</c:v>
+                  <c:v>0.84733199999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.83139300000000005</c:v>
+                  <c:v>0.83132399999999995</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.81064400000000003</c:v>
+                  <c:v>0.81874599999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.81451099999999999</c:v>
+                  <c:v>0.80706900000000004</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.79144999999999999</c:v>
+                  <c:v>0.78970899999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.77908699999999997</c:v>
+                  <c:v>0.77842699999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.76003500000000002</c:v>
+                  <c:v>0.767424</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.75359100000000001</c:v>
+                  <c:v>0.75125500000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.73230499999999998</c:v>
+                  <c:v>0.73585500000000004</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.71475999999999995</c:v>
+                  <c:v>0.72548000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.71773100000000001</c:v>
+                  <c:v>0.71126</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.69966799999999996</c:v>
+                  <c:v>0.69792699999999996</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.69646200000000003</c:v>
+                  <c:v>0.68728199999999995</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.68157800000000002</c:v>
+                  <c:v>0.66937999999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.66116299999999995</c:v>
+                  <c:v>0.65727999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.63401099999999999</c:v>
+                  <c:v>0.65239000000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.63015299999999996</c:v>
+                  <c:v>0.63792300000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.62118600000000002</c:v>
+                  <c:v>0.62099599999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.60204500000000005</c:v>
+                  <c:v>0.61118700000000004</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.59393499999999999</c:v>
+                  <c:v>0.59781799999999996</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.58142300000000002</c:v>
+                  <c:v>0.58531999999999995</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.56491100000000005</c:v>
+                  <c:v>0.57506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.56275900000000001</c:v>
+                  <c:v>0.56337300000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.53075000000000006</c:v>
+                  <c:v>0.55396400000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.53915000000000002</c:v>
+                  <c:v>0.53667100000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.53959199999999996</c:v>
+                  <c:v>0.52472300000000005</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.510992</c:v>
+                  <c:v>0.51634500000000005</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.49443900000000002</c:v>
+                  <c:v>0.50681200000000004</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.49146099999999998</c:v>
+                  <c:v>0.48566500000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.467609</c:v>
+                  <c:v>0.47858600000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.47736899999999999</c:v>
+                  <c:v>0.46991300000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.48052499999999998</c:v>
+                  <c:v>0.45981</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.45071299999999997</c:v>
+                  <c:v>0.452739</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.43634800000000001</c:v>
+                  <c:v>0.43696099999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.42142499999999999</c:v>
+                  <c:v>0.42627999999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.39685599999999999</c:v>
+                  <c:v>0.41936899999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.43304700000000002</c:v>
+                  <c:v>0.41658099999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.39915899999999999</c:v>
+                  <c:v>0.40158199999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.37172500000000003</c:v>
+                  <c:v>0.388909</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.394009</c:v>
+                  <c:v>0.38471</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.38845600000000002</c:v>
+                  <c:v>0.37687700000000002</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.34068399999999999</c:v>
+                  <c:v>0.36701800000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.34123799999999999</c:v>
+                  <c:v>0.36231600000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.402563</c:v>
+                  <c:v>0.33946300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.34276499999999999</c:v>
+                  <c:v>0.338727</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.36119499999999999</c:v>
+                  <c:v>0.31851699999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.33949400000000002</c:v>
+                  <c:v>0.32761699999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.33530100000000002</c:v>
+                  <c:v>0.31159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.35402099999999997</c:v>
+                  <c:v>0.30959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.33339200000000002</c:v>
+                  <c:v>0.29120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.25474999999999998</c:v>
+                  <c:v>0.29195500000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.228575</c:v>
+                  <c:v>0.27740900000000002</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.22913600000000001</c:v>
+                  <c:v>0.274196</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.267818</c:v>
+                  <c:v>0.25493700000000002</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.25365199999999999</c:v>
+                  <c:v>0.27007300000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.21168400000000001</c:v>
+                  <c:v>0.26078400000000002</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.23908599999999999</c:v>
+                  <c:v>0.237618</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.232684</c:v>
+                  <c:v>0.244807</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.27102500000000002</c:v>
+                  <c:v>0.249218</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.27439599999999997</c:v>
+                  <c:v>0.21535799999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.22832</c:v>
+                  <c:v>0.243728</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.200185</c:v>
+                  <c:v>0.22722899999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.13514000000000001</c:v>
+                  <c:v>0.20876900000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.182722</c:v>
+                  <c:v>0.219667</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.16336000000000001</c:v>
+                  <c:v>0.20369200000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.193386</c:v>
+                  <c:v>0.18338599999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.26533099999999998</c:v>
+                  <c:v>0.17518300000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.22514200000000001</c:v>
+                  <c:v>0.18087400000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.205875</c:v>
+                  <c:v>0.17551</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.15088799999999999</c:v>
+                  <c:v>0.173043</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.12687100000000001</c:v>
+                  <c:v>0.16015299999999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.15127099999999999</c:v>
+                  <c:v>0.14269000000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.13245999999999999</c:v>
+                  <c:v>0.166689</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.14179600000000001</c:v>
+                  <c:v>0.15485299999999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.137541</c:v>
+                  <c:v>0.150755</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.183559</c:v>
+                  <c:v>0.16218199999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.167572</c:v>
+                  <c:v>0.14940999999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.14371900000000001</c:v>
+                  <c:v>0.16961899999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.183222</c:v>
+                  <c:v>0.13538500000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.17341799999999999</c:v>
+                  <c:v>0.152394</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.18488199999999999</c:v>
+                  <c:v>0.12968499999999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.167104</c:v>
+                  <c:v>0.101922</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.12681600000000001</c:v>
+                  <c:v>0.107809</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.132911</c:v>
+                  <c:v>0.130832</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.153285</c:v>
+                  <c:v>0.15070600000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.14760999999999999</c:v>
+                  <c:v>0.120868</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.117699</c:v>
+                  <c:v>8.8480000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.112193</c:v>
+                  <c:v>0.12361800000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.5459000000000002E-2</c:v>
+                  <c:v>0.101518</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>8.3940000000000001E-2</c:v>
+                  <c:v>7.7987000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>6.9248000000000004E-2</c:v>
+                  <c:v>0.10757</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.1013</c:v>
+                  <c:v>8.7623000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.12617500000000001</c:v>
+                  <c:v>6.4845E-2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>7.4746999999999994E-2</c:v>
+                  <c:v>4.1633000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7.0079000000000002E-2</c:v>
+                  <c:v>4.3947E-2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.12590799999999999</c:v>
+                  <c:v>3.9101999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.137766</c:v>
+                  <c:v>6.6646999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.13903099999999999</c:v>
+                  <c:v>8.4420999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.15892600000000001</c:v>
+                  <c:v>7.4425000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.15909699999999999</c:v>
+                  <c:v>6.6716999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.159223</c:v>
+                  <c:v>5.7158E-2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.125412</c:v>
+                  <c:v>9.1150999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>7.3335999999999998E-2</c:v>
+                  <c:v>6.6826999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>9.4702999999999996E-2</c:v>
+                  <c:v>5.4737000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>7.7007999999999993E-2</c:v>
+                  <c:v>8.4756999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>9.1177999999999995E-2</c:v>
+                  <c:v>7.0821999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>8.4071999999999994E-2</c:v>
+                  <c:v>7.8898999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.11396199999999999</c:v>
+                  <c:v>8.1522999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.11842999999999999</c:v>
+                  <c:v>6.7309999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.10234</c:v>
+                  <c:v>6.1331999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>8.4571999999999994E-2</c:v>
+                  <c:v>6.0734999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,614 +3220,614 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>7.6000000000000004E-5</c:v>
+                  <c:v>5.5000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0029999999999999E-2</c:v>
+                  <c:v>-2.0008999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0205999999999999E-2</c:v>
+                  <c:v>-4.0030000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.0358000000000002E-2</c:v>
+                  <c:v>-6.0229999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0361000000000002E-2</c:v>
+                  <c:v>-8.0072000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.100138</c:v>
+                  <c:v>-0.10002800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.119964</c:v>
+                  <c:v>-0.119966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.139741</c:v>
+                  <c:v>-0.13980200000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.159329</c:v>
+                  <c:v>-0.15954299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.178846</c:v>
+                  <c:v>-0.17901300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.19848299999999999</c:v>
+                  <c:v>-0.19835</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.217555</c:v>
+                  <c:v>-0.21750800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.23663500000000001</c:v>
+                  <c:v>-0.23655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.25544299999999998</c:v>
+                  <c:v>-0.25559399999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.27415200000000001</c:v>
+                  <c:v>-0.274092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.292767</c:v>
+                  <c:v>-0.29264200000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.311025</c:v>
+                  <c:v>-0.31092700000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.329125</c:v>
+                  <c:v>-0.32903199999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.34678500000000001</c:v>
+                  <c:v>-0.34672999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.36417500000000003</c:v>
+                  <c:v>-0.364396</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.38148900000000002</c:v>
+                  <c:v>-0.38164700000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.39881499999999998</c:v>
+                  <c:v>-0.398677</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.415491</c:v>
+                  <c:v>-0.41550500000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.43213299999999999</c:v>
+                  <c:v>-0.431946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.44812299999999999</c:v>
+                  <c:v>-0.44818400000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.464113</c:v>
+                  <c:v>-0.46406599999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.47976999999999997</c:v>
+                  <c:v>-0.47959299999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.49515399999999998</c:v>
+                  <c:v>-0.49512800000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.51013600000000003</c:v>
+                  <c:v>-0.51015100000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.52479399999999998</c:v>
+                  <c:v>-0.52468599999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.53919099999999998</c:v>
+                  <c:v>-0.53908400000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.55326900000000001</c:v>
+                  <c:v>-0.55337599999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.56701400000000002</c:v>
+                  <c:v>-0.56706999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.58048900000000003</c:v>
+                  <c:v>-0.58054799999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.59372999999999998</c:v>
+                  <c:v>-0.59379599999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.60677099999999995</c:v>
+                  <c:v>-0.60662199999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.61913799999999997</c:v>
+                  <c:v>-0.61908099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.63122800000000001</c:v>
+                  <c:v>-0.63141000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.64345200000000002</c:v>
+                  <c:v>-0.643401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.654918</c:v>
+                  <c:v>-0.65499600000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.666238</c:v>
+                  <c:v>-0.66635100000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.67712600000000001</c:v>
+                  <c:v>-0.67727000000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.68815199999999999</c:v>
+                  <c:v>-0.687998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.69861200000000001</c:v>
+                  <c:v>-0.69851600000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.70851299999999995</c:v>
+                  <c:v>-0.708646</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.71828400000000003</c:v>
+                  <c:v>-0.71851399999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.72813099999999997</c:v>
+                  <c:v>-0.728047</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.73747399999999996</c:v>
+                  <c:v>-0.73736800000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.74670499999999995</c:v>
+                  <c:v>-0.74646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.75524400000000003</c:v>
+                  <c:v>-0.755216</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.76340699999999995</c:v>
+                  <c:v>-0.76369299999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.77195899999999995</c:v>
+                  <c:v>-0.77189799999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.78007800000000005</c:v>
+                  <c:v>-0.77990300000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.78784500000000002</c:v>
+                  <c:v>-0.78778800000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.79547400000000001</c:v>
+                  <c:v>-0.79513199999999995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.80244400000000005</c:v>
+                  <c:v>-0.80246600000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.80976999999999999</c:v>
+                  <c:v>-0.80954000000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.81651099999999999</c:v>
+                  <c:v>-0.81634799999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.82278899999999999</c:v>
+                  <c:v>-0.82297500000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.82909999999999995</c:v>
+                  <c:v>-0.82935300000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.83546900000000002</c:v>
+                  <c:v>-0.83557800000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.84108899999999998</c:v>
+                  <c:v>-0.84144099999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.84704999999999997</c:v>
+                  <c:v>-0.84723999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.85230499999999998</c:v>
+                  <c:v>-0.85283500000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.85810799999999998</c:v>
+                  <c:v>-0.85830300000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.863541</c:v>
+                  <c:v>-0.86347399999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.868313</c:v>
+                  <c:v>-0.86845300000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.87316300000000002</c:v>
+                  <c:v>-0.87311899999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.87820500000000001</c:v>
+                  <c:v>-0.87801300000000004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.88224100000000005</c:v>
+                  <c:v>-0.88255399999999995</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.88682799999999995</c:v>
+                  <c:v>-0.88685800000000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.89127900000000004</c:v>
+                  <c:v>-0.89106600000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.89498599999999995</c:v>
+                  <c:v>-0.89508699999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.89922999999999997</c:v>
+                  <c:v>-0.89912300000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.902644</c:v>
+                  <c:v>-0.90268000000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.90660600000000002</c:v>
+                  <c:v>-0.90659800000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.91014700000000004</c:v>
+                  <c:v>-0.90980799999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.91321699999999995</c:v>
+                  <c:v>-0.91347500000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.91686699999999999</c:v>
+                  <c:v>-0.91658200000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.91944800000000004</c:v>
+                  <c:v>-0.91980700000000004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.92273499999999997</c:v>
+                  <c:v>-0.92280700000000004</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.92571800000000004</c:v>
+                  <c:v>-0.92573099999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.92842599999999997</c:v>
+                  <c:v>-0.92852599999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.93093000000000004</c:v>
+                  <c:v>-0.93129300000000004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.93389299999999997</c:v>
+                  <c:v>-0.93406100000000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.93593000000000004</c:v>
+                  <c:v>-0.93640699999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.93906800000000001</c:v>
+                  <c:v>-0.93872199999999995</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.94167000000000001</c:v>
+                  <c:v>-0.94110400000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.94342199999999998</c:v>
+                  <c:v>-0.943693</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.94555800000000001</c:v>
+                  <c:v>-0.94556499999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.94782599999999995</c:v>
+                  <c:v>-0.94783499999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.95033999999999996</c:v>
+                  <c:v>-0.94979899999999995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.95114600000000005</c:v>
+                  <c:v>-0.95162599999999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.95363100000000001</c:v>
+                  <c:v>-0.95373699999999995</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.95535099999999995</c:v>
+                  <c:v>-0.95539700000000005</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.95742000000000005</c:v>
+                  <c:v>-0.95697299999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.95865999999999996</c:v>
+                  <c:v>-0.95880299999999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.96071600000000001</c:v>
+                  <c:v>-0.960511</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.962476</c:v>
+                  <c:v>-0.96189100000000005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.96305399999999997</c:v>
+                  <c:v>-0.96340999999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.96474000000000004</c:v>
+                  <c:v>-0.964839</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.96560000000000001</c:v>
+                  <c:v>-0.96606599999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.96702100000000002</c:v>
+                  <c:v>-0.967638</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.96865999999999997</c:v>
+                  <c:v>-0.96885299999999996</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.97056900000000002</c:v>
+                  <c:v>-0.96967899999999996</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.97131299999999998</c:v>
+                  <c:v>-0.97093300000000005</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.97225499999999998</c:v>
+                  <c:v>-0.97225600000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.97363599999999995</c:v>
+                  <c:v>-0.97321899999999995</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.97446999999999995</c:v>
+                  <c:v>-0.97429900000000003</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.97547600000000001</c:v>
+                  <c:v>-0.97531000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.97662400000000005</c:v>
+                  <c:v>-0.976186</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.97713300000000003</c:v>
+                  <c:v>-0.97709800000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.97884400000000005</c:v>
+                  <c:v>-0.97788900000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.978877</c:v>
+                  <c:v>-0.97897699999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.97922100000000001</c:v>
+                  <c:v>-0.97980900000000004</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.980688</c:v>
+                  <c:v>-0.98048199999999996</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.98165000000000002</c:v>
+                  <c:v>-0.98117699999999997</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.98206700000000002</c:v>
+                  <c:v>-0.98228300000000002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.98324500000000004</c:v>
+                  <c:v>-0.98283900000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.98316700000000001</c:v>
+                  <c:v>-0.98343899999999995</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.98333000000000004</c:v>
+                  <c:v>-0.98406800000000005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.98464300000000005</c:v>
+                  <c:v>-0.98456999999999995</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.98538099999999995</c:v>
+                  <c:v>-0.98536199999999996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.98612</c:v>
+                  <c:v>-0.98595299999999997</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.98714500000000005</c:v>
+                  <c:v>-0.98640600000000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.98617699999999997</c:v>
+                  <c:v>-0.98671200000000003</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.98747799999999997</c:v>
+                  <c:v>-0.98739900000000003</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.988533</c:v>
+                  <c:v>-0.98799300000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.98802100000000004</c:v>
+                  <c:v>-0.98830899999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.98837399999999997</c:v>
+                  <c:v>-0.98872400000000005</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.98997900000000005</c:v>
+                  <c:v>-0.98919199999999996</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.99011099999999996</c:v>
+                  <c:v>-0.98948999999999998</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.988483</c:v>
+                  <c:v>-0.99031100000000005</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.99035799999999996</c:v>
+                  <c:v>-0.99047499999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.98998200000000003</c:v>
+                  <c:v>-0.99118200000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.99073199999999995</c:v>
+                  <c:v>-0.99106099999999997</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.990977</c:v>
+                  <c:v>-0.99162600000000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.99060700000000002</c:v>
+                  <c:v>-0.99180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.99128899999999998</c:v>
+                  <c:v>-0.99240200000000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.99345899999999998</c:v>
+                  <c:v>-0.99249100000000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.99421899999999996</c:v>
+                  <c:v>-0.99297000000000002</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.994286</c:v>
+                  <c:v>-0.99314899999999995</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.99340300000000004</c:v>
+                  <c:v>-0.99372400000000005</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.99384099999999997</c:v>
+                  <c:v>-0.99343899999999996</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.99494000000000005</c:v>
+                  <c:v>-0.99375400000000003</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.99435799999999996</c:v>
+                  <c:v>-0.99439200000000005</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-0.99458500000000005</c:v>
+                  <c:v>-0.99429800000000002</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.99376699999999996</c:v>
+                  <c:v>-0.99427299999999996</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.99377499999999996</c:v>
+                  <c:v>-0.99512299999999998</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-0.99489499999999997</c:v>
+                  <c:v>-0.99454799999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-0.99558800000000003</c:v>
+                  <c:v>-0.99498699999999995</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.99706899999999998</c:v>
+                  <c:v>-0.99545700000000004</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.99607900000000005</c:v>
+                  <c:v>-0.99528099999999997</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.99654200000000004</c:v>
+                  <c:v>-0.99568299999999998</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.99595599999999995</c:v>
+                  <c:v>-0.996166</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.99451000000000001</c:v>
+                  <c:v>-0.99638499999999997</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.99540600000000001</c:v>
+                  <c:v>-0.99631499999999995</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.99585500000000005</c:v>
+                  <c:v>-0.99646900000000005</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.99700500000000003</c:v>
+                  <c:v>-0.99656299999999998</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.99751500000000004</c:v>
+                  <c:v>-0.99685999999999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.99707199999999996</c:v>
+                  <c:v>-0.99723799999999996</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.99746900000000005</c:v>
+                  <c:v>-0.996811</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.99732200000000004</c:v>
+                  <c:v>-0.99707500000000004</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.99743499999999996</c:v>
+                  <c:v>-0.99718799999999996</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.996614</c:v>
+                  <c:v>-0.99700900000000003</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.99694799999999995</c:v>
+                  <c:v>-0.99728000000000006</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.99741500000000005</c:v>
+                  <c:v>-0.99694700000000003</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.99673999999999996</c:v>
+                  <c:v>-0.99759399999999998</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.99695199999999995</c:v>
+                  <c:v>-0.99732299999999996</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.99678800000000001</c:v>
+                  <c:v>-0.99775000000000003</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.99713200000000002</c:v>
+                  <c:v>-0.99825299999999995</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.99785100000000004</c:v>
+                  <c:v>-0.99817400000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.99777300000000002</c:v>
+                  <c:v>-0.99780800000000003</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.99746000000000001</c:v>
+                  <c:v>-0.99750300000000003</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.997583</c:v>
+                  <c:v>-0.99802199999999996</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.99809499999999995</c:v>
+                  <c:v>-0.99856900000000004</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.99820500000000001</c:v>
+                  <c:v>-0.99802199999999996</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.99848999999999999</c:v>
+                  <c:v>-0.99839500000000003</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.99868900000000005</c:v>
+                  <c:v>-0.99878100000000003</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.99892999999999998</c:v>
+                  <c:v>-0.99833700000000003</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.99845099999999998</c:v>
+                  <c:v>-0.99865999999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.99809099999999995</c:v>
+                  <c:v>-0.99902000000000002</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.99888299999999997</c:v>
+                  <c:v>-0.99937799999999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.99896399999999996</c:v>
+                  <c:v>-0.99935099999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.99815600000000004</c:v>
+                  <c:v>-0.99942900000000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.998004</c:v>
+                  <c:v>-0.99903600000000004</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.99800699999999998</c:v>
+                  <c:v>-0.99879099999999998</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.99774600000000002</c:v>
+                  <c:v>-0.998946</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.99776699999999996</c:v>
+                  <c:v>-0.99906499999999998</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.99778900000000004</c:v>
+                  <c:v>-0.99920799999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.998278</c:v>
+                  <c:v>-0.998749</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.999004</c:v>
+                  <c:v>-0.99909300000000001</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.99872700000000003</c:v>
+                  <c:v>-0.99926499999999996</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.99897599999999998</c:v>
+                  <c:v>-0.99887300000000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.99880000000000002</c:v>
+                  <c:v>-0.99906799999999996</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.99890500000000004</c:v>
+                  <c:v>-0.99897199999999997</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.99853000000000003</c:v>
+                  <c:v>-0.99894899999999998</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.99848800000000004</c:v>
+                  <c:v>-0.99914099999999995</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.99870599999999998</c:v>
+                  <c:v>-0.99922500000000003</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.998942</c:v>
+                  <c:v>-0.99924000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72644480"/>
-        <c:axId val="72659328"/>
+        <c:axId val="60272000"/>
+        <c:axId val="53262208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72644480"/>
+        <c:axId val="60272000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3853,12 +3853,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72659328"/>
+        <c:crossAx val="53262208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72659328"/>
+        <c:axId val="53262208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3886,7 +3886,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72644480"/>
+        <c:crossAx val="60272000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3929,7 +3929,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3546227616523856"/>
+          <c:x val="0.35462276165238571"/>
           <c:y val="2.5054263688234216E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -7647,11 +7647,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72952064"/>
-        <c:axId val="72892800"/>
+        <c:axId val="58187776"/>
+        <c:axId val="58189696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72952064"/>
+        <c:axId val="58187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7673,16 +7673,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72892800"/>
+        <c:crossAx val="58189696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72892800"/>
+        <c:axId val="58189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7706,18 +7705,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72952064"/>
+        <c:crossAx val="58187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7749,7 +7746,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.36224977960042087"/>
-          <c:y val="2.7142118995587067E-2"/>
+          <c:y val="2.7142118995587071E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -11466,11 +11463,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73009408"/>
-        <c:axId val="73019776"/>
+        <c:axId val="59551744"/>
+        <c:axId val="59553664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73009408"/>
+        <c:axId val="59551744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11492,16 +11489,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73019776"/>
+        <c:crossAx val="59553664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73019776"/>
+        <c:axId val="59553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -11525,18 +11521,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73009408"/>
+        <c:crossAx val="59551744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -15285,11 +15279,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73279744"/>
-        <c:axId val="73294208"/>
+        <c:axId val="59789312"/>
+        <c:axId val="59791232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73279744"/>
+        <c:axId val="59789312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -15311,16 +15305,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73294208"/>
+        <c:crossAx val="59791232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73294208"/>
+        <c:axId val="59791232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -15344,18 +15337,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73279744"/>
+        <c:crossAx val="59789312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -19104,11 +19095,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70457984"/>
-        <c:axId val="69817088"/>
+        <c:axId val="59817344"/>
+        <c:axId val="59844096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70457984"/>
+        <c:axId val="59817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19129,16 +19120,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69817088"/>
+        <c:crossAx val="59844096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69817088"/>
+        <c:axId val="59844096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -19161,18 +19151,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70457984"/>
+        <c:crossAx val="59817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -19661,7 +19649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -19684,13 +19674,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.7659999999999995E-3</v>
+        <v>6.241E-3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.6000000000000004E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -19698,13 +19688,13 @@
         <v>2.0101000000000001E-2</v>
       </c>
       <c r="B3">
-        <v>9.1610000000000007E-3</v>
+        <v>6.3730000000000002E-3</v>
       </c>
       <c r="C3">
         <v>1.01E-3</v>
       </c>
       <c r="D3">
-        <v>-2.0029999999999999E-2</v>
+        <v>-2.0008999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -19712,13 +19702,13 @@
         <v>4.0201000000000001E-2</v>
       </c>
       <c r="B4">
-        <v>9.2790000000000008E-3</v>
+        <v>6.5380000000000004E-3</v>
       </c>
       <c r="C4">
         <v>4.0340000000000003E-3</v>
       </c>
       <c r="D4">
-        <v>-4.0205999999999999E-2</v>
+        <v>-4.0030000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19726,13 +19716,13 @@
         <v>6.0302000000000001E-2</v>
       </c>
       <c r="B5">
-        <v>9.469E-3</v>
+        <v>6.6319999999999999E-3</v>
       </c>
       <c r="C5">
-        <v>9.0559999999999998E-3</v>
+        <v>9.0589999999999993E-3</v>
       </c>
       <c r="D5">
-        <v>-6.0358000000000002E-2</v>
+        <v>-6.0229999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -19740,13 +19730,13 @@
         <v>8.0402000000000001E-2</v>
       </c>
       <c r="B6">
-        <v>9.672E-3</v>
+        <v>6.8729999999999998E-3</v>
       </c>
       <c r="C6">
-        <v>1.6056999999999998E-2</v>
+        <v>1.6060000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>-8.0361000000000002E-2</v>
+        <v>-8.0072000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -19754,13 +19744,13 @@
         <v>0.100503</v>
       </c>
       <c r="B7">
-        <v>9.7660000000000004E-3</v>
+        <v>6.9220000000000002E-3</v>
       </c>
       <c r="C7">
-        <v>2.4996999999999998E-2</v>
+        <v>2.4996000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>-0.100138</v>
+        <v>-0.10002800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -19768,13 +19758,13 @@
         <v>0.120603</v>
       </c>
       <c r="B8">
-        <v>9.9059999999999999E-3</v>
+        <v>7.0419999999999996E-3</v>
       </c>
       <c r="C8">
-        <v>3.5840999999999998E-2</v>
+        <v>3.5839000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>-0.119964</v>
+        <v>-0.119966</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19782,13 +19772,13 @@
         <v>0.140704</v>
       </c>
       <c r="B9">
-        <v>1.0074E-2</v>
+        <v>7.2439999999999996E-3</v>
       </c>
       <c r="C9">
-        <v>4.8523999999999998E-2</v>
+        <v>4.8529000000000003E-2</v>
       </c>
       <c r="D9">
-        <v>-0.139741</v>
+        <v>-0.13980200000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -19796,13 +19786,13 @@
         <v>0.160804</v>
       </c>
       <c r="B10">
-        <v>1.042E-2</v>
+        <v>7.378E-3</v>
       </c>
       <c r="C10">
-        <v>6.2988000000000002E-2</v>
+        <v>6.2990000000000004E-2</v>
       </c>
       <c r="D10">
-        <v>-0.159329</v>
+        <v>-0.15954299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -19810,13 +19800,13 @@
         <v>0.18090500000000001</v>
       </c>
       <c r="B11">
-        <v>1.0536E-2</v>
+        <v>7.5339999999999999E-3</v>
       </c>
       <c r="C11">
-        <v>7.9195000000000002E-2</v>
+        <v>7.9204999999999998E-2</v>
       </c>
       <c r="D11">
-        <v>-0.178846</v>
+        <v>-0.17901300000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19824,13 +19814,13 @@
         <v>0.20100499999999999</v>
       </c>
       <c r="B12">
-        <v>1.0729000000000001E-2</v>
+        <v>7.5599999999999999E-3</v>
       </c>
       <c r="C12">
-        <v>9.7045999999999993E-2</v>
+        <v>9.7030000000000005E-2</v>
       </c>
       <c r="D12">
-        <v>-0.19848299999999999</v>
+        <v>-0.19835</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19838,13 +19828,13 @@
         <v>0.221106</v>
       </c>
       <c r="B13">
-        <v>1.1154000000000001E-2</v>
+        <v>7.8169999999999993E-3</v>
       </c>
       <c r="C13">
-        <v>0.11644400000000001</v>
+        <v>0.11641799999999999</v>
       </c>
       <c r="D13">
-        <v>-0.217555</v>
+        <v>-0.21750800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -19852,13 +19842,13 @@
         <v>0.241206</v>
       </c>
       <c r="B14">
-        <v>1.1309E-2</v>
+        <v>8.0269999999999994E-3</v>
       </c>
       <c r="C14">
-        <v>0.137294</v>
+        <v>0.137318</v>
       </c>
       <c r="D14">
-        <v>-0.23663500000000001</v>
+        <v>-0.23655999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -19866,13 +19856,13 @@
         <v>0.26130700000000001</v>
       </c>
       <c r="B15">
-        <v>1.1638000000000001E-2</v>
+        <v>8.1390000000000004E-3</v>
       </c>
       <c r="C15">
-        <v>0.159548</v>
+        <v>0.15953200000000001</v>
       </c>
       <c r="D15">
-        <v>-0.25544299999999998</v>
+        <v>-0.25559399999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -19880,13 +19870,13 @@
         <v>0.28140700000000002</v>
       </c>
       <c r="B16">
-        <v>1.1694E-2</v>
+        <v>8.4799999999999997E-3</v>
       </c>
       <c r="C16">
-        <v>0.183113</v>
+        <v>0.18309600000000001</v>
       </c>
       <c r="D16">
-        <v>-0.27415200000000001</v>
+        <v>-0.274092</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19894,13 +19884,13 @@
         <v>0.301508</v>
       </c>
       <c r="B17">
-        <v>1.174E-2</v>
+        <v>8.5470000000000008E-3</v>
       </c>
       <c r="C17">
-        <v>0.207756</v>
+        <v>0.20779800000000001</v>
       </c>
       <c r="D17">
-        <v>-0.292767</v>
+        <v>-0.29264200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19908,13 +19898,13 @@
         <v>0.321608</v>
       </c>
       <c r="B18">
-        <v>1.2399E-2</v>
+        <v>8.6309999999999998E-3</v>
       </c>
       <c r="C18">
-        <v>0.23354900000000001</v>
+        <v>0.23361599999999999</v>
       </c>
       <c r="D18">
-        <v>-0.311025</v>
+        <v>-0.31092700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -19922,13 +19912,13 @@
         <v>0.34170899999999998</v>
       </c>
       <c r="B19">
-        <v>1.2579E-2</v>
+        <v>8.8140000000000007E-3</v>
       </c>
       <c r="C19">
-        <v>0.26028000000000001</v>
+        <v>0.26030199999999998</v>
       </c>
       <c r="D19">
-        <v>-0.329125</v>
+        <v>-0.32903199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -19936,13 +19926,13 @@
         <v>0.36180899999999999</v>
       </c>
       <c r="B20">
-        <v>1.2798E-2</v>
+        <v>9.1459999999999996E-3</v>
       </c>
       <c r="C20">
-        <v>0.28790399999999999</v>
+        <v>0.28790300000000002</v>
       </c>
       <c r="D20">
-        <v>-0.34678500000000001</v>
+        <v>-0.34672999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -19950,13 +19940,13 @@
         <v>0.38191000000000003</v>
       </c>
       <c r="B21">
-        <v>1.3010000000000001E-2</v>
+        <v>9.1420000000000008E-3</v>
       </c>
       <c r="C21">
-        <v>0.316299</v>
+        <v>0.31620599999999999</v>
       </c>
       <c r="D21">
-        <v>-0.36417500000000003</v>
+        <v>-0.364396</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -19964,13 +19954,13 @@
         <v>0.40200999999999998</v>
       </c>
       <c r="B22">
-        <v>1.3221999999999999E-2</v>
+        <v>9.3430000000000006E-3</v>
       </c>
       <c r="C22">
-        <v>0.345221</v>
+        <v>0.34515699999999999</v>
       </c>
       <c r="D22">
-        <v>-0.38148900000000002</v>
+        <v>-0.38164700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -19978,13 +19968,13 @@
         <v>0.42211100000000001</v>
       </c>
       <c r="B23">
-        <v>1.3356E-2</v>
+        <v>9.4470000000000005E-3</v>
       </c>
       <c r="C23">
-        <v>0.37453500000000001</v>
+        <v>0.37463400000000002</v>
       </c>
       <c r="D23">
-        <v>-0.39881499999999998</v>
+        <v>-0.398677</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19992,13 +19982,13 @@
         <v>0.44221100000000002</v>
       </c>
       <c r="B24">
-        <v>1.3624000000000001E-2</v>
+        <v>9.7890000000000008E-3</v>
       </c>
       <c r="C24">
-        <v>0.40457199999999999</v>
+        <v>0.40448400000000001</v>
       </c>
       <c r="D24">
-        <v>-0.415491</v>
+        <v>-0.41550500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -20006,13 +19996,13 @@
         <v>0.462312</v>
       </c>
       <c r="B25">
-        <v>1.417E-2</v>
+        <v>9.9120000000000007E-3</v>
       </c>
       <c r="C25">
-        <v>0.43451299999999998</v>
+        <v>0.43463499999999999</v>
       </c>
       <c r="D25">
-        <v>-0.43213299999999999</v>
+        <v>-0.431946</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -20020,13 +20010,13 @@
         <v>0.48241200000000001</v>
       </c>
       <c r="B26">
-        <v>1.4707E-2</v>
+        <v>1.0302E-2</v>
       </c>
       <c r="C26">
-        <v>0.46483600000000003</v>
+        <v>0.46489599999999998</v>
       </c>
       <c r="D26">
-        <v>-0.44812299999999999</v>
+        <v>-0.44818400000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -20034,13 +20024,13 @@
         <v>0.50251299999999999</v>
       </c>
       <c r="B27">
-        <v>1.4416E-2</v>
+        <v>1.0448000000000001E-2</v>
       </c>
       <c r="C27">
-        <v>0.49532500000000002</v>
+        <v>0.495369</v>
       </c>
       <c r="D27">
-        <v>-0.464113</v>
+        <v>-0.46406599999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -20048,13 +20038,13 @@
         <v>0.52261299999999999</v>
       </c>
       <c r="B28">
-        <v>1.5096E-2</v>
+        <v>1.0631E-2</v>
       </c>
       <c r="C28">
-        <v>0.52575899999999998</v>
+        <v>0.525729</v>
       </c>
       <c r="D28">
-        <v>-0.47976999999999997</v>
+        <v>-0.47959299999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -20062,13 +20052,13 @@
         <v>0.54271400000000003</v>
       </c>
       <c r="B29">
-        <v>1.5386E-2</v>
+        <v>1.0701E-2</v>
       </c>
       <c r="C29">
-        <v>0.55570799999999998</v>
+        <v>0.55578099999999997</v>
       </c>
       <c r="D29">
-        <v>-0.49515399999999998</v>
+        <v>-0.49512800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -20076,13 +20066,13 @@
         <v>0.56281400000000004</v>
       </c>
       <c r="B30">
-        <v>1.5606999999999999E-2</v>
+        <v>1.1077999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>0.585839</v>
+        <v>0.585758</v>
       </c>
       <c r="D30">
-        <v>-0.51013600000000003</v>
+        <v>-0.51015100000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -20090,13 +20080,13 @@
         <v>0.58291499999999996</v>
       </c>
       <c r="B31">
-        <v>1.5792E-2</v>
+        <v>1.1185E-2</v>
       </c>
       <c r="C31">
-        <v>0.61548599999999998</v>
+        <v>0.61568999999999996</v>
       </c>
       <c r="D31">
-        <v>-0.52479399999999998</v>
+        <v>-0.52468599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -20104,13 +20094,13 @@
         <v>0.60301499999999997</v>
       </c>
       <c r="B32">
-        <v>1.6123999999999999E-2</v>
+        <v>1.1424E-2</v>
       </c>
       <c r="C32">
-        <v>0.64470000000000005</v>
+        <v>0.64489300000000005</v>
       </c>
       <c r="D32">
-        <v>-0.53919099999999998</v>
+        <v>-0.53908400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -20118,13 +20108,13 @@
         <v>0.623116</v>
       </c>
       <c r="B33">
-        <v>1.6674999999999999E-2</v>
+        <v>1.1701E-2</v>
       </c>
       <c r="C33">
-        <v>0.67343399999999998</v>
+        <v>0.67339800000000005</v>
       </c>
       <c r="D33">
-        <v>-0.55326900000000001</v>
+        <v>-0.55337599999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -20132,13 +20122,13 @@
         <v>0.64321600000000001</v>
       </c>
       <c r="B34">
-        <v>1.7153999999999999E-2</v>
+        <v>1.192E-2</v>
       </c>
       <c r="C34">
-        <v>0.701735</v>
+        <v>0.70173200000000002</v>
       </c>
       <c r="D34">
-        <v>-0.56701400000000002</v>
+        <v>-0.56706999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -20146,13 +20136,13 @@
         <v>0.66331700000000005</v>
       </c>
       <c r="B35">
-        <v>1.7295000000000001E-2</v>
+        <v>1.2142999999999999E-2</v>
       </c>
       <c r="C35">
-        <v>0.729267</v>
+        <v>0.72926100000000005</v>
       </c>
       <c r="D35">
-        <v>-0.58048900000000003</v>
+        <v>-0.58054799999999995</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -20160,13 +20150,13 @@
         <v>0.68341700000000005</v>
       </c>
       <c r="B36">
-        <v>1.7644E-2</v>
+        <v>1.2449E-2</v>
       </c>
       <c r="C36">
-        <v>0.75623499999999999</v>
+        <v>0.75593699999999997</v>
       </c>
       <c r="D36">
-        <v>-0.59372999999999998</v>
+        <v>-0.59379599999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -20174,13 +20164,13 @@
         <v>0.70351799999999998</v>
       </c>
       <c r="B37">
-        <v>1.77E-2</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="C37">
-        <v>0.78187399999999996</v>
+        <v>0.78190400000000004</v>
       </c>
       <c r="D37">
-        <v>-0.60677099999999995</v>
+        <v>-0.60662199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -20188,13 +20178,13 @@
         <v>0.72361799999999998</v>
       </c>
       <c r="B38">
-        <v>1.8082999999999998E-2</v>
+        <v>1.2923E-2</v>
       </c>
       <c r="C38">
-        <v>0.80743100000000001</v>
+        <v>0.80738399999999999</v>
       </c>
       <c r="D38">
-        <v>-0.61913799999999997</v>
+        <v>-0.61908099999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -20202,13 +20192,13 @@
         <v>0.74371900000000002</v>
       </c>
       <c r="B39">
-        <v>1.8755000000000001E-2</v>
+        <v>1.3238E-2</v>
       </c>
       <c r="C39">
-        <v>0.83171600000000001</v>
+        <v>0.83157000000000003</v>
       </c>
       <c r="D39">
-        <v>-0.63122800000000001</v>
+        <v>-0.63141000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -20216,13 +20206,13 @@
         <v>0.76381900000000003</v>
       </c>
       <c r="B40">
-        <v>1.8787999999999999E-2</v>
+        <v>1.3745E-2</v>
       </c>
       <c r="C40">
-        <v>0.854634</v>
+        <v>0.85471399999999997</v>
       </c>
       <c r="D40">
-        <v>-0.64345200000000002</v>
+        <v>-0.643401</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -20230,13 +20220,13 @@
         <v>0.78391999999999995</v>
       </c>
       <c r="B41">
-        <v>1.9345000000000001E-2</v>
+        <v>1.3605000000000001E-2</v>
       </c>
       <c r="C41">
-        <v>0.87747299999999995</v>
+        <v>0.87734500000000004</v>
       </c>
       <c r="D41">
-        <v>-0.654918</v>
+        <v>-0.65499600000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -20244,13 +20234,13 @@
         <v>0.80401999999999996</v>
       </c>
       <c r="B42">
-        <v>2.0274E-2</v>
+        <v>1.3826E-2</v>
       </c>
       <c r="C42">
-        <v>0.89896399999999999</v>
+        <v>0.89842299999999997</v>
       </c>
       <c r="D42">
-        <v>-0.666238</v>
+        <v>-0.66635100000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -20258,13 +20248,13 @@
         <v>0.82412099999999999</v>
       </c>
       <c r="B43">
-        <v>2.0015000000000002E-2</v>
+        <v>1.417E-2</v>
       </c>
       <c r="C43">
-        <v>0.91945699999999997</v>
+        <v>0.91913800000000001</v>
       </c>
       <c r="D43">
-        <v>-0.67712600000000001</v>
+        <v>-0.67727000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -20272,13 +20262,13 @@
         <v>0.844221</v>
       </c>
       <c r="B44">
-        <v>2.0785000000000001E-2</v>
+        <v>1.4569E-2</v>
       </c>
       <c r="C44">
-        <v>0.93801599999999996</v>
+        <v>0.93853699999999995</v>
       </c>
       <c r="D44">
-        <v>-0.68815199999999999</v>
+        <v>-0.687998</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -20286,13 +20276,13 @@
         <v>0.86432200000000003</v>
       </c>
       <c r="B45">
-        <v>2.1527999999999999E-2</v>
+        <v>1.4962E-2</v>
       </c>
       <c r="C45">
-        <v>0.95626599999999995</v>
+        <v>0.95641699999999996</v>
       </c>
       <c r="D45">
-        <v>-0.69861200000000001</v>
+        <v>-0.69851600000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -20300,13 +20290,13 @@
         <v>0.88442200000000004</v>
       </c>
       <c r="B46">
-        <v>2.1531999999999999E-2</v>
+        <v>1.5004E-2</v>
       </c>
       <c r="C46">
-        <v>0.97382400000000002</v>
+        <v>0.973472</v>
       </c>
       <c r="D46">
-        <v>-0.70851299999999995</v>
+        <v>-0.708646</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -20314,13 +20304,13 @@
         <v>0.90452299999999997</v>
       </c>
       <c r="B47">
-        <v>2.2529E-2</v>
+        <v>1.5601E-2</v>
       </c>
       <c r="C47">
-        <v>0.98987800000000004</v>
+        <v>0.98947600000000002</v>
       </c>
       <c r="D47">
-        <v>-0.71828400000000003</v>
+        <v>-0.71851399999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -20328,13 +20318,13 @@
         <v>0.92462299999999997</v>
       </c>
       <c r="B48">
-        <v>2.2248E-2</v>
+        <v>1.5876999999999999E-2</v>
       </c>
       <c r="C48">
-        <v>1.004094</v>
+        <v>1.0044630000000001</v>
       </c>
       <c r="D48">
-        <v>-0.72813099999999997</v>
+        <v>-0.728047</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -20342,13 +20332,13 @@
         <v>0.94472400000000001</v>
       </c>
       <c r="B49">
-        <v>2.3970999999999999E-2</v>
+        <v>1.6274E-2</v>
       </c>
       <c r="C49">
-        <v>1.0176719999999999</v>
+        <v>1.018035</v>
       </c>
       <c r="D49">
-        <v>-0.73747399999999996</v>
+        <v>-0.73736800000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -20356,13 +20346,13 @@
         <v>0.96482400000000001</v>
       </c>
       <c r="B50">
-        <v>2.3646E-2</v>
+        <v>1.6545000000000001E-2</v>
       </c>
       <c r="C50">
-        <v>1.029536</v>
+        <v>1.030375</v>
       </c>
       <c r="D50">
-        <v>-0.74670499999999995</v>
+        <v>-0.74646000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -20370,13 +20360,13 @@
         <v>0.98492500000000005</v>
       </c>
       <c r="B51">
-        <v>2.4032999999999999E-2</v>
+        <v>1.6816000000000001E-2</v>
       </c>
       <c r="C51">
-        <v>1.041844</v>
+        <v>1.042009</v>
       </c>
       <c r="D51">
-        <v>-0.75524400000000003</v>
+        <v>-0.755216</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -20384,13 +20374,13 @@
         <v>1.0050250000000001</v>
       </c>
       <c r="B52">
-        <v>2.4729999999999999E-2</v>
+        <v>1.7097000000000001E-2</v>
       </c>
       <c r="C52">
-        <v>1.0533710000000001</v>
+        <v>1.0524579999999999</v>
       </c>
       <c r="D52">
-        <v>-0.76340699999999995</v>
+        <v>-0.76369299999999996</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -20398,13 +20388,13 @@
         <v>1.025126</v>
       </c>
       <c r="B53">
-        <v>2.4993000000000001E-2</v>
+        <v>1.7330999999999999E-2</v>
       </c>
       <c r="C53">
-        <v>1.0615950000000001</v>
+        <v>1.0618300000000001</v>
       </c>
       <c r="D53">
-        <v>-0.77195899999999995</v>
+        <v>-0.77189799999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -20412,13 +20402,13 @@
         <v>1.045226</v>
       </c>
       <c r="B54">
-        <v>2.4354000000000001E-2</v>
+        <v>1.7942E-2</v>
       </c>
       <c r="C54">
-        <v>1.0692919999999999</v>
+        <v>1.069993</v>
       </c>
       <c r="D54">
-        <v>-0.78007800000000005</v>
+        <v>-0.77990300000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -20426,13 +20416,13 @@
         <v>1.0653269999999999</v>
       </c>
       <c r="B55">
-        <v>2.4544E-2</v>
+        <v>1.8214999999999999E-2</v>
       </c>
       <c r="C55">
-        <v>1.076328</v>
+        <v>1.0765279999999999</v>
       </c>
       <c r="D55">
-        <v>-0.78784500000000002</v>
+        <v>-0.78778800000000004</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -20440,13 +20430,13 @@
         <v>1.0854269999999999</v>
       </c>
       <c r="B56">
-        <v>2.6908000000000001E-2</v>
+        <v>1.8519000000000001E-2</v>
       </c>
       <c r="C56">
-        <v>1.0817349999999999</v>
+        <v>1.083234</v>
       </c>
       <c r="D56">
-        <v>-0.79547400000000001</v>
+        <v>-0.79513199999999995</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -20454,13 +20444,13 @@
         <v>1.1055280000000001</v>
       </c>
       <c r="B57">
-        <v>2.5127E-2</v>
+        <v>1.9237000000000001E-2</v>
       </c>
       <c r="C57">
-        <v>1.0882289999999999</v>
+        <v>1.087971</v>
       </c>
       <c r="D57">
-        <v>-0.80244400000000005</v>
+        <v>-0.80246600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -20468,13 +20458,13 @@
         <v>1.1256280000000001</v>
       </c>
       <c r="B58">
-        <v>2.7845000000000002E-2</v>
+        <v>1.9224000000000002E-2</v>
       </c>
       <c r="C58">
-        <v>1.0905800000000001</v>
+        <v>1.0916319999999999</v>
       </c>
       <c r="D58">
-        <v>-0.80976999999999999</v>
+        <v>-0.80954000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -20482,13 +20472,13 @@
         <v>1.145729</v>
       </c>
       <c r="B59">
-        <v>2.9394E-2</v>
+        <v>2.0257000000000001E-2</v>
       </c>
       <c r="C59">
-        <v>1.094309</v>
+        <v>1.0947769999999999</v>
       </c>
       <c r="D59">
-        <v>-0.81651099999999999</v>
+        <v>-0.81634799999999996</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -20496,13 +20486,13 @@
         <v>1.165829</v>
       </c>
       <c r="B60">
-        <v>2.7907999999999999E-2</v>
+        <v>2.0173E-2</v>
       </c>
       <c r="C60">
-        <v>1.0978250000000001</v>
+        <v>1.096414</v>
       </c>
       <c r="D60">
-        <v>-0.82278899999999999</v>
+        <v>-0.82297500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -20510,13 +20500,13 @@
         <v>1.1859299999999999</v>
       </c>
       <c r="B61">
-        <v>2.8603E-2</v>
+        <v>1.9879999999999998E-2</v>
       </c>
       <c r="C61">
-        <v>1.0987499999999999</v>
+        <v>1.0976140000000001</v>
       </c>
       <c r="D61">
-        <v>-0.82909999999999995</v>
+        <v>-0.82935300000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -20524,13 +20514,13 @@
         <v>1.2060299999999999</v>
       </c>
       <c r="B62">
-        <v>3.0124999999999999E-2</v>
+        <v>2.0667999999999999E-2</v>
       </c>
       <c r="C62">
-        <v>1.097926</v>
+        <v>1.097515</v>
       </c>
       <c r="D62">
-        <v>-0.83546900000000002</v>
+        <v>-0.83557800000000004</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -20538,13 +20528,13 @@
         <v>1.2261310000000001</v>
       </c>
       <c r="B63">
-        <v>3.0023000000000001E-2</v>
+        <v>2.0996999999999998E-2</v>
       </c>
       <c r="C63">
-        <v>1.099613</v>
+        <v>1.097378</v>
       </c>
       <c r="D63">
-        <v>-0.84108899999999998</v>
+        <v>-0.84144099999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -20552,13 +20542,13 @@
         <v>1.2462310000000001</v>
       </c>
       <c r="B64">
-        <v>2.9135000000000001E-2</v>
+        <v>2.1292999999999999E-2</v>
       </c>
       <c r="C64">
-        <v>1.0968169999999999</v>
+        <v>1.095602</v>
       </c>
       <c r="D64">
-        <v>-0.84704999999999997</v>
+        <v>-0.84723999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -20566,13 +20556,13 @@
         <v>1.266332</v>
       </c>
       <c r="B65">
-        <v>3.1132E-2</v>
+        <v>2.2993E-2</v>
       </c>
       <c r="C65">
-        <v>1.0963210000000001</v>
+        <v>1.0932550000000001</v>
       </c>
       <c r="D65">
-        <v>-0.85230499999999998</v>
+        <v>-0.85283500000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -20580,13 +20570,13 @@
         <v>1.286432</v>
       </c>
       <c r="B66">
-        <v>3.2204999999999998E-2</v>
+        <v>2.2304999999999998E-2</v>
       </c>
       <c r="C66">
-        <v>1.090848</v>
+        <v>1.089623</v>
       </c>
       <c r="D66">
-        <v>-0.85810799999999998</v>
+        <v>-0.85830300000000004</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -20594,13 +20584,13 @@
         <v>1.3065329999999999</v>
       </c>
       <c r="B67">
-        <v>3.3144E-2</v>
+        <v>2.2599000000000001E-2</v>
       </c>
       <c r="C67">
-        <v>1.0853649999999999</v>
+        <v>1.085877</v>
       </c>
       <c r="D67">
-        <v>-0.863541</v>
+        <v>-0.86347399999999996</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -20608,13 +20598,13 @@
         <v>1.326633</v>
       </c>
       <c r="B68">
-        <v>3.3418999999999997E-2</v>
+        <v>2.3310999999999998E-2</v>
       </c>
       <c r="C68">
-        <v>1.0825709999999999</v>
+        <v>1.0814459999999999</v>
       </c>
       <c r="D68">
-        <v>-0.868313</v>
+        <v>-0.86845300000000003</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -20622,13 +20612,13 @@
         <v>1.3467340000000001</v>
       </c>
       <c r="B69">
-        <v>3.4157E-2</v>
+        <v>2.4379000000000001E-2</v>
       </c>
       <c r="C69">
-        <v>1.077153</v>
+        <v>1.077604</v>
       </c>
       <c r="D69">
-        <v>-0.87316300000000002</v>
+        <v>-0.87311899999999998</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -20636,13 +20626,13 @@
         <v>1.3668340000000001</v>
       </c>
       <c r="B70">
-        <v>3.3663999999999999E-2</v>
+        <v>2.4386000000000001E-2</v>
       </c>
       <c r="C70">
-        <v>1.068573</v>
+        <v>1.069922</v>
       </c>
       <c r="D70">
-        <v>-0.87820500000000001</v>
+        <v>-0.87801300000000004</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -20650,13 +20640,13 @@
         <v>1.386935</v>
       </c>
       <c r="B71">
-        <v>3.5161999999999999E-2</v>
+        <v>2.5035999999999999E-2</v>
       </c>
       <c r="C71">
-        <v>1.0657989999999999</v>
+        <v>1.063234</v>
       </c>
       <c r="D71">
-        <v>-0.88224100000000005</v>
+        <v>-0.88255399999999995</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -20664,13 +20654,13 @@
         <v>1.407035</v>
       </c>
       <c r="B72">
-        <v>3.7622999999999997E-2</v>
+        <v>2.6084E-2</v>
       </c>
       <c r="C72">
-        <v>1.056643</v>
+        <v>1.0565089999999999</v>
       </c>
       <c r="D72">
-        <v>-0.88682799999999995</v>
+        <v>-0.88685800000000004</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -20678,13 +20668,13 @@
         <v>1.427136</v>
       </c>
       <c r="B73">
-        <v>3.8144999999999998E-2</v>
+        <v>2.5249000000000001E-2</v>
       </c>
       <c r="C73">
-        <v>1.047142</v>
+        <v>1.0487919999999999</v>
       </c>
       <c r="D73">
-        <v>-0.89127900000000004</v>
+        <v>-0.89106600000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -20692,13 +20682,13 @@
         <v>1.447236</v>
       </c>
       <c r="B74">
-        <v>3.7615999999999997E-2</v>
+        <v>2.7071999999999999E-2</v>
       </c>
       <c r="C74">
-        <v>1.0420529999999999</v>
+        <v>1.041066</v>
       </c>
       <c r="D74">
-        <v>-0.89498599999999995</v>
+        <v>-0.89508699999999997</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -20706,13 +20696,13 @@
         <v>1.4673369999999999</v>
       </c>
       <c r="B75">
-        <v>3.7782000000000003E-2</v>
+        <v>2.8212000000000001E-2</v>
       </c>
       <c r="C75">
-        <v>1.0301640000000001</v>
+        <v>1.0312760000000001</v>
       </c>
       <c r="D75">
-        <v>-0.89922999999999997</v>
+        <v>-0.89912300000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -20720,13 +20710,13 @@
         <v>1.4874369999999999</v>
       </c>
       <c r="B76">
-        <v>3.9244000000000001E-2</v>
+        <v>2.6882E-2</v>
       </c>
       <c r="C76">
-        <v>1.024383</v>
+        <v>1.0240419999999999</v>
       </c>
       <c r="D76">
-        <v>-0.902644</v>
+        <v>-0.90268000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -20734,13 +20724,13 @@
         <v>1.507538</v>
       </c>
       <c r="B77">
-        <v>3.8567999999999998E-2</v>
+        <v>2.8462000000000001E-2</v>
       </c>
       <c r="C77">
-        <v>1.0116350000000001</v>
+        <v>1.0118480000000001</v>
       </c>
       <c r="D77">
-        <v>-0.90660600000000002</v>
+        <v>-0.90659800000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -20748,13 +20738,13 @@
         <v>1.5276380000000001</v>
       </c>
       <c r="B78">
-        <v>3.4666000000000002E-2</v>
+        <v>2.8271999999999999E-2</v>
       </c>
       <c r="C78">
-        <v>1.001366</v>
+        <v>1.004866</v>
       </c>
       <c r="D78">
-        <v>-0.91014700000000004</v>
+        <v>-0.90980799999999995</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -20762,13 +20752,13 @@
         <v>1.547739</v>
       </c>
       <c r="B79">
-        <v>3.9289999999999999E-2</v>
+        <v>2.9189E-2</v>
       </c>
       <c r="C79">
-        <v>0.99415500000000001</v>
+        <v>0.99167400000000006</v>
       </c>
       <c r="D79">
-        <v>-0.91321699999999995</v>
+        <v>-0.91347500000000004</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -20776,13 +20766,13 @@
         <v>1.567839</v>
       </c>
       <c r="B80">
-        <v>4.4075000000000003E-2</v>
+        <v>3.0006000000000001E-2</v>
       </c>
       <c r="C80">
-        <v>0.97939500000000002</v>
+        <v>0.98238300000000001</v>
       </c>
       <c r="D80">
-        <v>-0.91686699999999999</v>
+        <v>-0.91658200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -20790,13 +20780,13 @@
         <v>1.5879399999999999</v>
       </c>
       <c r="B81">
-        <v>4.5776999999999998E-2</v>
+        <v>3.1382E-2</v>
       </c>
       <c r="C81">
-        <v>0.97439699999999996</v>
+        <v>0.97025899999999998</v>
       </c>
       <c r="D81">
-        <v>-0.91944800000000004</v>
+        <v>-0.91980700000000004</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -20804,13 +20794,13 @@
         <v>1.6080399999999999</v>
       </c>
       <c r="B82">
-        <v>4.6844999999999998E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="C82">
-        <v>0.960059</v>
+        <v>0.95947000000000005</v>
       </c>
       <c r="D82">
-        <v>-0.92273499999999997</v>
+        <v>-0.92280700000000004</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -20818,13 +20808,13 @@
         <v>1.6281410000000001</v>
       </c>
       <c r="B83">
-        <v>4.4532000000000002E-2</v>
+        <v>3.3346000000000001E-2</v>
       </c>
       <c r="C83">
-        <v>0.94798199999999999</v>
+        <v>0.94774499999999995</v>
       </c>
       <c r="D83">
-        <v>-0.92571800000000004</v>
+        <v>-0.92573099999999997</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -20832,13 +20822,13 @@
         <v>1.6482410000000001</v>
       </c>
       <c r="B84">
-        <v>3.6961000000000001E-2</v>
+        <v>3.3087999999999999E-2</v>
       </c>
       <c r="C84">
-        <v>0.93740599999999996</v>
+        <v>0.936033</v>
       </c>
       <c r="D84">
-        <v>-0.92842599999999997</v>
+        <v>-0.92852599999999996</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -20846,13 +20836,13 @@
         <v>1.668342</v>
       </c>
       <c r="B85">
-        <v>4.6526999999999999E-2</v>
+        <v>3.4223999999999997E-2</v>
       </c>
       <c r="C85">
-        <v>0.92799399999999999</v>
+        <v>0.92332700000000001</v>
       </c>
       <c r="D85">
-        <v>-0.93093000000000004</v>
+        <v>-0.93129300000000004</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -20860,13 +20850,13 @@
         <v>1.688442</v>
       </c>
       <c r="B86">
-        <v>4.9620999999999998E-2</v>
+        <v>3.4426999999999999E-2</v>
       </c>
       <c r="C86">
-        <v>0.91118399999999999</v>
+        <v>0.90898100000000004</v>
       </c>
       <c r="D86">
-        <v>-0.93389299999999997</v>
+        <v>-0.93406100000000003</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -20874,13 +20864,13 @@
         <v>1.7085429999999999</v>
       </c>
       <c r="B87">
-        <v>4.9059999999999999E-2</v>
+        <v>3.3978000000000001E-2</v>
       </c>
       <c r="C87">
-        <v>0.90459199999999995</v>
+        <v>0.89858400000000005</v>
       </c>
       <c r="D87">
-        <v>-0.93593000000000004</v>
+        <v>-0.93640699999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -20888,13 +20878,13 @@
         <v>1.7286429999999999</v>
       </c>
       <c r="B88">
-        <v>4.5487E-2</v>
+        <v>3.4764999999999997E-2</v>
       </c>
       <c r="C88">
-        <v>0.88271200000000005</v>
+        <v>0.887212</v>
       </c>
       <c r="D88">
-        <v>-0.93906800000000001</v>
+        <v>-0.93872199999999995</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -20902,13 +20892,13 @@
         <v>1.7487440000000001</v>
       </c>
       <c r="B89">
-        <v>5.0880000000000002E-2</v>
+        <v>3.7035999999999999E-2</v>
       </c>
       <c r="C89">
-        <v>0.866205</v>
+        <v>0.87387700000000001</v>
       </c>
       <c r="D89">
-        <v>-0.94167000000000001</v>
+        <v>-0.94110400000000005</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -20916,13 +20906,13 @@
         <v>1.7688440000000001</v>
       </c>
       <c r="B90">
-        <v>5.0245999999999999E-2</v>
+        <v>3.3558999999999999E-2</v>
       </c>
       <c r="C90">
-        <v>0.85997100000000004</v>
+        <v>0.85621899999999995</v>
       </c>
       <c r="D90">
-        <v>-0.94342199999999998</v>
+        <v>-0.943693</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -20930,13 +20920,13 @@
         <v>1.788945</v>
       </c>
       <c r="B91">
-        <v>5.6745999999999998E-2</v>
+        <v>3.7656000000000002E-2</v>
       </c>
       <c r="C91">
-        <v>0.84748199999999996</v>
+        <v>0.84733199999999997</v>
       </c>
       <c r="D91">
-        <v>-0.94555800000000001</v>
+        <v>-0.94556499999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -20944,13 +20934,13 @@
         <v>1.809045</v>
       </c>
       <c r="B92">
-        <v>4.8554E-2</v>
+        <v>4.2576000000000003E-2</v>
       </c>
       <c r="C92">
-        <v>0.83139300000000005</v>
+        <v>0.83132399999999995</v>
       </c>
       <c r="D92">
-        <v>-0.94782599999999995</v>
+        <v>-0.94783499999999998</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -20958,13 +20948,13 @@
         <v>1.8291459999999999</v>
       </c>
       <c r="B93">
-        <v>4.7724000000000003E-2</v>
+        <v>4.0874000000000001E-2</v>
       </c>
       <c r="C93">
-        <v>0.81064400000000003</v>
+        <v>0.81874599999999997</v>
       </c>
       <c r="D93">
-        <v>-0.95033999999999996</v>
+        <v>-0.94979899999999995</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -20972,13 +20962,13 @@
         <v>1.8492459999999999</v>
       </c>
       <c r="B94">
-        <v>4.0868000000000002E-2</v>
+        <v>3.882E-2</v>
       </c>
       <c r="C94">
-        <v>0.81451099999999999</v>
+        <v>0.80706900000000004</v>
       </c>
       <c r="D94">
-        <v>-0.95114600000000005</v>
+        <v>-0.95162599999999997</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -20986,13 +20976,13 @@
         <v>1.8693470000000001</v>
       </c>
       <c r="B95">
-        <v>5.9727000000000002E-2</v>
+        <v>3.9763E-2</v>
       </c>
       <c r="C95">
-        <v>0.79144999999999999</v>
+        <v>0.78970899999999999</v>
       </c>
       <c r="D95">
-        <v>-0.95363100000000001</v>
+        <v>-0.95373699999999995</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -21000,13 +20990,13 @@
         <v>1.8894470000000001</v>
       </c>
       <c r="B96">
-        <v>8.4512000000000004E-2</v>
+        <v>4.7161000000000002E-2</v>
       </c>
       <c r="C96">
-        <v>0.77908699999999997</v>
+        <v>0.77842699999999998</v>
       </c>
       <c r="D96">
-        <v>-0.95535099999999995</v>
+        <v>-0.95539700000000005</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -21014,13 +21004,13 @@
         <v>1.909548</v>
       </c>
       <c r="B97">
-        <v>5.3906000000000003E-2</v>
+        <v>4.6718000000000003E-2</v>
       </c>
       <c r="C97">
-        <v>0.76003500000000002</v>
+        <v>0.767424</v>
       </c>
       <c r="D97">
-        <v>-0.95742000000000005</v>
+        <v>-0.95697299999999996</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -21028,13 +21018,13 @@
         <v>1.929648</v>
       </c>
       <c r="B98">
-        <v>6.6401000000000002E-2</v>
+        <v>4.2501999999999998E-2</v>
       </c>
       <c r="C98">
-        <v>0.75359100000000001</v>
+        <v>0.75125500000000001</v>
       </c>
       <c r="D98">
-        <v>-0.95865999999999996</v>
+        <v>-0.95880299999999996</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -21042,13 +21032,13 @@
         <v>1.949749</v>
       </c>
       <c r="B99">
-        <v>5.0035000000000003E-2</v>
+        <v>4.3864E-2</v>
       </c>
       <c r="C99">
-        <v>0.73230499999999998</v>
+        <v>0.73585500000000004</v>
       </c>
       <c r="D99">
-        <v>-0.96071600000000001</v>
+        <v>-0.960511</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -21056,13 +21046,13 @@
         <v>1.969849</v>
       </c>
       <c r="B100">
-        <v>5.0897999999999999E-2</v>
+        <v>4.4713999999999997E-2</v>
       </c>
       <c r="C100">
-        <v>0.71475999999999995</v>
+        <v>0.72548000000000001</v>
       </c>
       <c r="D100">
-        <v>-0.962476</v>
+        <v>-0.96189100000000005</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -21070,13 +21060,13 @@
         <v>1.9899500000000001</v>
       </c>
       <c r="B101">
-        <v>7.8099000000000002E-2</v>
+        <v>5.1609000000000002E-2</v>
       </c>
       <c r="C101">
-        <v>0.71773100000000001</v>
+        <v>0.71126</v>
       </c>
       <c r="D101">
-        <v>-0.96305399999999997</v>
+        <v>-0.96340999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -21084,13 +21074,13 @@
         <v>2.0100500000000001</v>
       </c>
       <c r="B102">
-        <v>5.5292000000000001E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="C102">
-        <v>0.69966799999999996</v>
+        <v>0.69792699999999996</v>
       </c>
       <c r="D102">
-        <v>-0.96474000000000004</v>
+        <v>-0.964839</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -21098,13 +21088,13 @@
         <v>2.030151</v>
       </c>
       <c r="B103">
-        <v>5.2970000000000003E-2</v>
+        <v>4.3973999999999999E-2</v>
       </c>
       <c r="C103">
-        <v>0.69646200000000003</v>
+        <v>0.68728199999999995</v>
       </c>
       <c r="D103">
-        <v>-0.96560000000000001</v>
+        <v>-0.96606599999999998</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -21112,13 +21102,13 @@
         <v>2.0502509999999998</v>
       </c>
       <c r="B104">
-        <v>7.1503999999999998E-2</v>
+        <v>4.4803000000000003E-2</v>
       </c>
       <c r="C104">
-        <v>0.68157800000000002</v>
+        <v>0.66937999999999998</v>
       </c>
       <c r="D104">
-        <v>-0.96702100000000002</v>
+        <v>-0.967638</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -21126,13 +21116,13 @@
         <v>2.0703520000000002</v>
       </c>
       <c r="B105">
-        <v>6.7863000000000007E-2</v>
+        <v>4.1005E-2</v>
       </c>
       <c r="C105">
-        <v>0.66116299999999995</v>
+        <v>0.65727999999999998</v>
       </c>
       <c r="D105">
-        <v>-0.96865999999999997</v>
+        <v>-0.96885299999999996</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -21140,13 +21130,13 @@
         <v>2.090452</v>
       </c>
       <c r="B106">
-        <v>8.1213999999999995E-2</v>
+        <v>6.1171999999999997E-2</v>
       </c>
       <c r="C106">
-        <v>0.63401099999999999</v>
+        <v>0.65239000000000003</v>
       </c>
       <c r="D106">
-        <v>-0.97056900000000002</v>
+        <v>-0.96967899999999996</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -21154,13 +21144,13 @@
         <v>2.1105529999999999</v>
       </c>
       <c r="B107">
-        <v>7.9412999999999997E-2</v>
+        <v>5.3814000000000001E-2</v>
       </c>
       <c r="C107">
-        <v>0.63015299999999996</v>
+        <v>0.63792300000000002</v>
       </c>
       <c r="D107">
-        <v>-0.97131299999999998</v>
+        <v>-0.97093300000000005</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -21168,13 +21158,13 @@
         <v>2.1306530000000001</v>
       </c>
       <c r="B108">
-        <v>0.127608</v>
+        <v>4.6806E-2</v>
       </c>
       <c r="C108">
-        <v>0.62118600000000002</v>
+        <v>0.62099599999999999</v>
       </c>
       <c r="D108">
-        <v>-0.97225499999999998</v>
+        <v>-0.97225600000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -21182,13 +21172,13 @@
         <v>2.1507540000000001</v>
       </c>
       <c r="B109">
-        <v>8.2320000000000004E-2</v>
+        <v>4.2603000000000002E-2</v>
       </c>
       <c r="C109">
-        <v>0.60204500000000005</v>
+        <v>0.61118700000000004</v>
       </c>
       <c r="D109">
-        <v>-0.97363599999999995</v>
+        <v>-0.97321899999999995</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -21196,13 +21186,13 @@
         <v>2.1708539999999998</v>
       </c>
       <c r="B110">
-        <v>8.3886000000000002E-2</v>
+        <v>4.6249999999999999E-2</v>
       </c>
       <c r="C110">
-        <v>0.59393499999999999</v>
+        <v>0.59781799999999996</v>
       </c>
       <c r="D110">
-        <v>-0.97446999999999995</v>
+        <v>-0.97429900000000003</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -21210,13 +21200,13 @@
         <v>2.1909550000000002</v>
       </c>
       <c r="B111">
-        <v>7.9552999999999999E-2</v>
+        <v>6.0990999999999997E-2</v>
       </c>
       <c r="C111">
-        <v>0.58142300000000002</v>
+        <v>0.58531999999999995</v>
       </c>
       <c r="D111">
-        <v>-0.97547600000000001</v>
+        <v>-0.97531000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -21224,13 +21214,13 @@
         <v>2.211055</v>
       </c>
       <c r="B112">
-        <v>6.5082000000000001E-2</v>
+        <v>5.8164E-2</v>
       </c>
       <c r="C112">
-        <v>0.56491100000000005</v>
+        <v>0.57506000000000002</v>
       </c>
       <c r="D112">
-        <v>-0.97662400000000005</v>
+        <v>-0.976186</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -21238,13 +21228,13 @@
         <v>2.2311559999999999</v>
       </c>
       <c r="B113">
-        <v>6.9667000000000007E-2</v>
+        <v>5.0874000000000003E-2</v>
       </c>
       <c r="C113">
-        <v>0.56275900000000001</v>
+        <v>0.56337300000000001</v>
       </c>
       <c r="D113">
-        <v>-0.97713300000000003</v>
+        <v>-0.97709800000000002</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -21252,13 +21242,13 @@
         <v>2.2512560000000001</v>
       </c>
       <c r="B114">
-        <v>8.8278999999999996E-2</v>
+        <v>5.3975000000000002E-2</v>
       </c>
       <c r="C114">
-        <v>0.53075000000000006</v>
+        <v>0.55396400000000001</v>
       </c>
       <c r="D114">
-        <v>-0.97884400000000005</v>
+        <v>-0.97788900000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -21266,13 +21256,13 @@
         <v>2.2713570000000001</v>
       </c>
       <c r="B115">
-        <v>0.11937</v>
+        <v>6.8459999999999993E-2</v>
       </c>
       <c r="C115">
-        <v>0.53915000000000002</v>
+        <v>0.53667100000000001</v>
       </c>
       <c r="D115">
-        <v>-0.978877</v>
+        <v>-0.97897699999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -21280,13 +21270,13 @@
         <v>2.2914569999999999</v>
       </c>
       <c r="B116">
-        <v>9.6957000000000002E-2</v>
+        <v>7.1847999999999995E-2</v>
       </c>
       <c r="C116">
-        <v>0.53959199999999996</v>
+        <v>0.52472300000000005</v>
       </c>
       <c r="D116">
-        <v>-0.97922100000000001</v>
+        <v>-0.97980900000000004</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -21294,13 +21284,13 @@
         <v>2.3115579999999998</v>
       </c>
       <c r="B117">
-        <v>8.4952E-2</v>
+        <v>5.9721000000000003E-2</v>
       </c>
       <c r="C117">
-        <v>0.510992</v>
+        <v>0.51634500000000005</v>
       </c>
       <c r="D117">
-        <v>-0.980688</v>
+        <v>-0.98048199999999996</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -21308,13 +21298,13 @@
         <v>2.331658</v>
       </c>
       <c r="B118">
-        <v>6.5040000000000001E-2</v>
+        <v>8.2550999999999999E-2</v>
       </c>
       <c r="C118">
-        <v>0.49443900000000002</v>
+        <v>0.50681200000000004</v>
       </c>
       <c r="D118">
-        <v>-0.98165000000000002</v>
+        <v>-0.98117699999999997</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -21322,13 +21312,13 @@
         <v>2.3517589999999999</v>
       </c>
       <c r="B119">
-        <v>9.0541999999999997E-2</v>
+        <v>4.8973999999999997E-2</v>
       </c>
       <c r="C119">
-        <v>0.49146099999999998</v>
+        <v>0.48566500000000001</v>
       </c>
       <c r="D119">
-        <v>-0.98206700000000002</v>
+        <v>-0.98228300000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -21336,13 +21326,13 @@
         <v>2.3718590000000002</v>
       </c>
       <c r="B120">
-        <v>0.16564000000000001</v>
+        <v>5.6121999999999998E-2</v>
       </c>
       <c r="C120">
-        <v>0.467609</v>
+        <v>0.47858600000000001</v>
       </c>
       <c r="D120">
-        <v>-0.98324500000000004</v>
+        <v>-0.98283900000000002</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -21350,13 +21340,13 @@
         <v>2.3919600000000001</v>
       </c>
       <c r="B121">
-        <v>0.100504</v>
+        <v>7.8253000000000003E-2</v>
       </c>
       <c r="C121">
-        <v>0.47736899999999999</v>
+        <v>0.46991300000000003</v>
       </c>
       <c r="D121">
-        <v>-0.98316700000000001</v>
+        <v>-0.98343899999999995</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -21364,13 +21354,13 @@
         <v>2.4120599999999999</v>
       </c>
       <c r="B122">
-        <v>7.6121999999999995E-2</v>
+        <v>8.5680000000000006E-2</v>
       </c>
       <c r="C122">
-        <v>0.48052499999999998</v>
+        <v>0.45981</v>
       </c>
       <c r="D122">
-        <v>-0.98333000000000004</v>
+        <v>-0.98406800000000005</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -21378,13 +21368,13 @@
         <v>2.4321609999999998</v>
       </c>
       <c r="B123">
-        <v>0.118245</v>
+        <v>6.5019999999999994E-2</v>
       </c>
       <c r="C123">
-        <v>0.45071299999999997</v>
+        <v>0.452739</v>
       </c>
       <c r="D123">
-        <v>-0.98464300000000005</v>
+        <v>-0.98456999999999995</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -21392,13 +21382,13 @@
         <v>2.452261</v>
       </c>
       <c r="B124">
-        <v>7.6688000000000006E-2</v>
+        <v>7.9829999999999998E-2</v>
       </c>
       <c r="C124">
-        <v>0.43634800000000001</v>
+        <v>0.43696099999999999</v>
       </c>
       <c r="D124">
-        <v>-0.98538099999999995</v>
+        <v>-0.98536199999999996</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -21406,13 +21396,13 @@
         <v>2.4723619999999999</v>
       </c>
       <c r="B125">
-        <v>0.23238500000000001</v>
+        <v>6.8194000000000005E-2</v>
       </c>
       <c r="C125">
-        <v>0.42142499999999999</v>
+        <v>0.42627999999999999</v>
       </c>
       <c r="D125">
-        <v>-0.98612</v>
+        <v>-0.98595299999999997</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -21420,13 +21410,13 @@
         <v>2.4924620000000002</v>
       </c>
       <c r="B126">
-        <v>7.4525999999999995E-2</v>
+        <v>7.9423999999999995E-2</v>
       </c>
       <c r="C126">
-        <v>0.39685599999999999</v>
+        <v>0.41936899999999999</v>
       </c>
       <c r="D126">
-        <v>-0.98714500000000005</v>
+        <v>-0.98640600000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -21434,13 +21424,13 @@
         <v>2.5125630000000001</v>
       </c>
       <c r="B127">
-        <v>5.3492999999999999E-2</v>
+        <v>7.6864000000000002E-2</v>
       </c>
       <c r="C127">
-        <v>0.43304700000000002</v>
+        <v>0.41658099999999998</v>
       </c>
       <c r="D127">
-        <v>-0.98617699999999997</v>
+        <v>-0.98671200000000003</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -21448,13 +21438,13 @@
         <v>2.5326629999999999</v>
       </c>
       <c r="B128">
-        <v>5.0922000000000002E-2</v>
+        <v>7.3913000000000006E-2</v>
       </c>
       <c r="C128">
-        <v>0.39915899999999999</v>
+        <v>0.40158199999999999</v>
       </c>
       <c r="D128">
-        <v>-0.98747799999999997</v>
+        <v>-0.98739900000000003</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -21462,13 +21452,13 @@
         <v>2.5527639999999998</v>
       </c>
       <c r="B129">
-        <v>9.2606999999999995E-2</v>
+        <v>9.9459000000000006E-2</v>
       </c>
       <c r="C129">
-        <v>0.37172500000000003</v>
+        <v>0.388909</v>
       </c>
       <c r="D129">
-        <v>-0.988533</v>
+        <v>-0.98799300000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -21476,13 +21466,13 @@
         <v>2.572864</v>
       </c>
       <c r="B130">
-        <v>7.7953999999999996E-2</v>
+        <v>5.5354E-2</v>
       </c>
       <c r="C130">
-        <v>0.394009</v>
+        <v>0.38471</v>
       </c>
       <c r="D130">
-        <v>-0.98802100000000004</v>
+        <v>-0.98830899999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -21490,13 +21480,13 @@
         <v>2.592965</v>
       </c>
       <c r="B131">
-        <v>0.16861999999999999</v>
+        <v>9.1215000000000004E-2</v>
       </c>
       <c r="C131">
-        <v>0.38845600000000002</v>
+        <v>0.37687700000000002</v>
       </c>
       <c r="D131">
-        <v>-0.98837399999999997</v>
+        <v>-0.98872400000000005</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21504,13 +21494,13 @@
         <v>2.6130650000000002</v>
       </c>
       <c r="B132">
-        <v>0.40800399999999998</v>
+        <v>6.8136000000000002E-2</v>
       </c>
       <c r="C132">
-        <v>0.34068399999999999</v>
+        <v>0.36701800000000001</v>
       </c>
       <c r="D132">
-        <v>-0.98997900000000005</v>
+        <v>-0.98919199999999996</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -21518,13 +21508,13 @@
         <v>2.6331660000000001</v>
       </c>
       <c r="B133">
-        <v>0.13892399999999999</v>
+        <v>7.4355000000000004E-2</v>
       </c>
       <c r="C133">
-        <v>0.34123799999999999</v>
+        <v>0.36231600000000003</v>
       </c>
       <c r="D133">
-        <v>-0.99011099999999996</v>
+        <v>-0.98948999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -21532,13 +21522,13 @@
         <v>2.6532659999999999</v>
       </c>
       <c r="B134">
-        <v>6.7547999999999997E-2</v>
+        <v>0.105341</v>
       </c>
       <c r="C134">
-        <v>0.402563</v>
+        <v>0.33946300000000001</v>
       </c>
       <c r="D134">
-        <v>-0.988483</v>
+        <v>-0.99031100000000005</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -21546,13 +21536,13 @@
         <v>2.6733669999999998</v>
       </c>
       <c r="B135">
-        <v>0.25584699999999999</v>
+        <v>9.0209999999999999E-2</v>
       </c>
       <c r="C135">
-        <v>0.34276499999999999</v>
+        <v>0.338727</v>
       </c>
       <c r="D135">
-        <v>-0.99035799999999996</v>
+        <v>-0.99047499999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -21560,13 +21550,13 @@
         <v>2.6934670000000001</v>
       </c>
       <c r="B136">
-        <v>6.6718E-2</v>
+        <v>0.111038</v>
       </c>
       <c r="C136">
-        <v>0.36119499999999999</v>
+        <v>0.31851699999999999</v>
       </c>
       <c r="D136">
-        <v>-0.98998200000000003</v>
+        <v>-0.99118200000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -21574,13 +21564,13 @@
         <v>2.713568</v>
       </c>
       <c r="B137">
-        <v>9.7111000000000003E-2</v>
+        <v>8.2442000000000001E-2</v>
       </c>
       <c r="C137">
-        <v>0.33949400000000002</v>
+        <v>0.32761699999999999</v>
       </c>
       <c r="D137">
-        <v>-0.99073199999999995</v>
+        <v>-0.99106099999999997</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -21588,13 +21578,13 @@
         <v>2.7336680000000002</v>
       </c>
       <c r="B138">
-        <v>0.175154</v>
+        <v>9.8218E-2</v>
       </c>
       <c r="C138">
-        <v>0.33530100000000002</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="D138">
-        <v>-0.990977</v>
+        <v>-0.99162600000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -21602,13 +21592,13 @@
         <v>2.7537690000000001</v>
       </c>
       <c r="B139">
-        <v>0.23116200000000001</v>
+        <v>7.0168999999999995E-2</v>
       </c>
       <c r="C139">
-        <v>0.35402099999999997</v>
+        <v>0.30959999999999999</v>
       </c>
       <c r="D139">
-        <v>-0.99060700000000002</v>
+        <v>-0.99180000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -21616,13 +21606,13 @@
         <v>2.7738689999999999</v>
       </c>
       <c r="B140">
-        <v>0.14100499999999999</v>
+        <v>7.6744000000000007E-2</v>
       </c>
       <c r="C140">
-        <v>0.33339200000000002</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="D140">
-        <v>-0.99128899999999998</v>
+        <v>-0.99240200000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -21630,13 +21620,13 @@
         <v>2.7939699999999998</v>
       </c>
       <c r="B141">
-        <v>0.25270799999999999</v>
+        <v>6.5119999999999997E-2</v>
       </c>
       <c r="C141">
-        <v>0.25474999999999998</v>
+        <v>0.29195500000000002</v>
       </c>
       <c r="D141">
-        <v>-0.99345899999999998</v>
+        <v>-0.99249100000000001</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -21644,13 +21634,13 @@
         <v>2.8140700000000001</v>
       </c>
       <c r="B142">
-        <v>8.4095000000000003E-2</v>
+        <v>6.3404000000000002E-2</v>
       </c>
       <c r="C142">
-        <v>0.228575</v>
+        <v>0.27740900000000002</v>
       </c>
       <c r="D142">
-        <v>-0.99421899999999996</v>
+        <v>-0.99297000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -21658,13 +21648,13 @@
         <v>2.834171</v>
       </c>
       <c r="B143">
-        <v>9.6139000000000002E-2</v>
+        <v>0.13031899999999999</v>
       </c>
       <c r="C143">
-        <v>0.22913600000000001</v>
+        <v>0.274196</v>
       </c>
       <c r="D143">
-        <v>-0.994286</v>
+        <v>-0.99314899999999995</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -21672,13 +21662,13 @@
         <v>2.8542709999999998</v>
       </c>
       <c r="B144">
-        <v>6.0704000000000001E-2</v>
+        <v>0.22377</v>
       </c>
       <c r="C144">
-        <v>0.267818</v>
+        <v>0.25493700000000002</v>
       </c>
       <c r="D144">
-        <v>-0.99340300000000004</v>
+        <v>-0.99372400000000005</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -21686,13 +21676,13 @@
         <v>2.8743720000000001</v>
       </c>
       <c r="B145">
-        <v>0.154419</v>
+        <v>0.152446</v>
       </c>
       <c r="C145">
-        <v>0.25365199999999999</v>
+        <v>0.27007300000000001</v>
       </c>
       <c r="D145">
-        <v>-0.99384099999999997</v>
+        <v>-0.99343899999999996</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -21700,13 +21690,13 @@
         <v>2.8944719999999999</v>
       </c>
       <c r="B146">
-        <v>4.9967999999999999E-2</v>
+        <v>9.6878000000000006E-2</v>
       </c>
       <c r="C146">
-        <v>0.21168400000000001</v>
+        <v>0.26078400000000002</v>
       </c>
       <c r="D146">
-        <v>-0.99494000000000005</v>
+        <v>-0.99375400000000003</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -21714,13 +21704,13 @@
         <v>2.9145729999999999</v>
       </c>
       <c r="B147">
-        <v>4.3837000000000001E-2</v>
+        <v>0.106526</v>
       </c>
       <c r="C147">
-        <v>0.23908599999999999</v>
+        <v>0.237618</v>
       </c>
       <c r="D147">
-        <v>-0.99435799999999996</v>
+        <v>-0.99439200000000005</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -21728,13 +21718,13 @@
         <v>2.9346730000000001</v>
       </c>
       <c r="B148">
-        <v>0.16015799999999999</v>
+        <v>0.12318800000000001</v>
       </c>
       <c r="C148">
-        <v>0.232684</v>
+        <v>0.244807</v>
       </c>
       <c r="D148">
-        <v>-0.99458500000000005</v>
+        <v>-0.99429800000000002</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -21742,13 +21732,13 @@
         <v>2.954774</v>
       </c>
       <c r="B149">
-        <v>0.18679999999999999</v>
+        <v>0.117746</v>
       </c>
       <c r="C149">
-        <v>0.27102500000000002</v>
+        <v>0.249218</v>
       </c>
       <c r="D149">
-        <v>-0.99376699999999996</v>
+        <v>-0.99427299999999996</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -21756,13 +21746,13 @@
         <v>2.9748739999999998</v>
       </c>
       <c r="B150">
-        <v>8.566E-2</v>
+        <v>6.4503000000000005E-2</v>
       </c>
       <c r="C150">
-        <v>0.27439599999999997</v>
+        <v>0.21535799999999999</v>
       </c>
       <c r="D150">
-        <v>-0.99377499999999996</v>
+        <v>-0.99512299999999998</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -21770,13 +21760,13 @@
         <v>2.9949750000000002</v>
       </c>
       <c r="B151">
-        <v>7.1794999999999998E-2</v>
+        <v>0.12739400000000001</v>
       </c>
       <c r="C151">
-        <v>0.22832</v>
+        <v>0.243728</v>
       </c>
       <c r="D151">
-        <v>-0.99489499999999997</v>
+        <v>-0.99454799999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -21784,13 +21774,13 @@
         <v>3.0150749999999999</v>
       </c>
       <c r="B152">
-        <v>0.12751999999999999</v>
+        <v>0.16799900000000001</v>
       </c>
       <c r="C152">
-        <v>0.200185</v>
+        <v>0.22722899999999999</v>
       </c>
       <c r="D152">
-        <v>-0.99558800000000003</v>
+        <v>-0.99498699999999995</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -21798,13 +21788,13 @@
         <v>3.0351759999999999</v>
       </c>
       <c r="B153">
-        <v>0.34746899999999997</v>
+        <v>0.225523</v>
       </c>
       <c r="C153">
-        <v>0.13514000000000001</v>
+        <v>0.20876900000000001</v>
       </c>
       <c r="D153">
-        <v>-0.99706899999999998</v>
+        <v>-0.99545700000000004</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -21812,13 +21802,13 @@
         <v>3.0552760000000001</v>
       </c>
       <c r="B154">
-        <v>0.43384400000000001</v>
+        <v>0.15412600000000001</v>
       </c>
       <c r="C154">
-        <v>0.182722</v>
+        <v>0.219667</v>
       </c>
       <c r="D154">
-        <v>-0.99607900000000005</v>
+        <v>-0.99528099999999997</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -21826,13 +21816,13 @@
         <v>3.075377</v>
       </c>
       <c r="B155">
-        <v>0.44575599999999999</v>
+        <v>9.2590000000000006E-2</v>
       </c>
       <c r="C155">
-        <v>0.16336000000000001</v>
+        <v>0.20369200000000001</v>
       </c>
       <c r="D155">
-        <v>-0.99654200000000004</v>
+        <v>-0.99568299999999998</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -21840,13 +21830,13 @@
         <v>3.0954769999999998</v>
       </c>
       <c r="B156">
-        <v>0.48222399999999999</v>
+        <v>0.16118099999999999</v>
       </c>
       <c r="C156">
-        <v>0.193386</v>
+        <v>0.18338599999999999</v>
       </c>
       <c r="D156">
-        <v>-0.99595599999999995</v>
+        <v>-0.996166</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -21854,13 +21844,13 @@
         <v>3.1155780000000002</v>
       </c>
       <c r="B157">
-        <v>9.7887000000000002E-2</v>
+        <v>0.188996</v>
       </c>
       <c r="C157">
-        <v>0.26533099999999998</v>
+        <v>0.17518300000000001</v>
       </c>
       <c r="D157">
-        <v>-0.99451000000000001</v>
+        <v>-0.99638499999999997</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -21868,13 +21858,13 @@
         <v>3.135678</v>
       </c>
       <c r="B158">
-        <v>0.22037000000000001</v>
+        <v>0.17841899999999999</v>
       </c>
       <c r="C158">
-        <v>0.22514200000000001</v>
+        <v>0.18087400000000001</v>
       </c>
       <c r="D158">
-        <v>-0.99540600000000001</v>
+        <v>-0.99631499999999995</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -21882,13 +21872,13 @@
         <v>3.1557789999999999</v>
       </c>
       <c r="B159">
-        <v>0.19899700000000001</v>
+        <v>0.325519</v>
       </c>
       <c r="C159">
-        <v>0.205875</v>
+        <v>0.17551</v>
       </c>
       <c r="D159">
-        <v>-0.99585500000000005</v>
+        <v>-0.99646900000000005</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -21896,13 +21886,13 @@
         <v>3.1758790000000001</v>
       </c>
       <c r="B160">
-        <v>0.24370600000000001</v>
+        <v>0.115786</v>
       </c>
       <c r="C160">
-        <v>0.15088799999999999</v>
+        <v>0.173043</v>
       </c>
       <c r="D160">
-        <v>-0.99700500000000003</v>
+        <v>-0.99656299999999998</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -21910,13 +21900,13 @@
         <v>3.19598</v>
       </c>
       <c r="B161">
-        <v>0.25178800000000001</v>
+        <v>0.28072999999999998</v>
       </c>
       <c r="C161">
-        <v>0.12687100000000001</v>
+        <v>0.16015299999999999</v>
       </c>
       <c r="D161">
-        <v>-0.99751500000000004</v>
+        <v>-0.99685999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -21924,13 +21914,13 @@
         <v>3.2160799999999998</v>
       </c>
       <c r="B162">
-        <v>0.33142899999999997</v>
+        <v>0.18703</v>
       </c>
       <c r="C162">
-        <v>0.15127099999999999</v>
+        <v>0.14269000000000001</v>
       </c>
       <c r="D162">
-        <v>-0.99707199999999996</v>
+        <v>-0.99723799999999996</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -21938,13 +21928,13 @@
         <v>3.2361810000000002</v>
       </c>
       <c r="B163">
-        <v>0.37012200000000001</v>
+        <v>7.7021000000000006E-2</v>
       </c>
       <c r="C163">
-        <v>0.13245999999999999</v>
+        <v>0.166689</v>
       </c>
       <c r="D163">
-        <v>-0.99746900000000005</v>
+        <v>-0.996811</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -21952,13 +21942,13 @@
         <v>3.256281</v>
       </c>
       <c r="B164">
-        <v>0.33402700000000002</v>
+        <v>8.0642000000000005E-2</v>
       </c>
       <c r="C164">
-        <v>0.14179600000000001</v>
+        <v>0.15485299999999999</v>
       </c>
       <c r="D164">
-        <v>-0.99732200000000004</v>
+        <v>-0.99707500000000004</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -21966,13 +21956,13 @@
         <v>3.2763819999999999</v>
       </c>
       <c r="B165">
-        <v>0.32316699999999998</v>
+        <v>0.13130700000000001</v>
       </c>
       <c r="C165">
-        <v>0.137541</v>
+        <v>0.150755</v>
       </c>
       <c r="D165">
-        <v>-0.99743499999999996</v>
+        <v>-0.99718799999999996</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -21980,13 +21970,13 @@
         <v>3.2964820000000001</v>
       </c>
       <c r="B166">
-        <v>9.4405000000000003E-2</v>
+        <v>8.4318000000000004E-2</v>
       </c>
       <c r="C166">
-        <v>0.183559</v>
+        <v>0.16218199999999999</v>
       </c>
       <c r="D166">
-        <v>-0.996614</v>
+        <v>-0.99700900000000003</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -21994,13 +21984,13 @@
         <v>3.3165830000000001</v>
       </c>
       <c r="B167">
-        <v>0.14339499999999999</v>
+        <v>0.10938100000000001</v>
       </c>
       <c r="C167">
-        <v>0.167572</v>
+        <v>0.14940999999999999</v>
       </c>
       <c r="D167">
-        <v>-0.99694799999999995</v>
+        <v>-0.99728000000000006</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -22008,13 +21998,13 @@
         <v>3.3366829999999998</v>
       </c>
       <c r="B168">
-        <v>0.14741299999999999</v>
+        <v>6.2377000000000002E-2</v>
       </c>
       <c r="C168">
-        <v>0.14371900000000001</v>
+        <v>0.16961899999999999</v>
       </c>
       <c r="D168">
-        <v>-0.99741500000000005</v>
+        <v>-0.99694700000000003</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -22022,13 +22012,13 @@
         <v>3.3567840000000002</v>
       </c>
       <c r="B169">
-        <v>0.205868</v>
+        <v>0.123423</v>
       </c>
       <c r="C169">
-        <v>0.183222</v>
+        <v>0.13538500000000001</v>
       </c>
       <c r="D169">
-        <v>-0.99673999999999996</v>
+        <v>-0.99759399999999998</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -22036,13 +22026,13 @@
         <v>3.376884</v>
       </c>
       <c r="B170">
-        <v>0.24291699999999999</v>
+        <v>5.9623000000000002E-2</v>
       </c>
       <c r="C170">
-        <v>0.17341799999999999</v>
+        <v>0.152394</v>
       </c>
       <c r="D170">
-        <v>-0.99695199999999995</v>
+        <v>-0.99732299999999996</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -22050,13 +22040,13 @@
         <v>3.3969849999999999</v>
       </c>
       <c r="B171">
-        <v>7.1643999999999999E-2</v>
+        <v>0.329488</v>
       </c>
       <c r="C171">
-        <v>0.18488199999999999</v>
+        <v>0.12968499999999999</v>
       </c>
       <c r="D171">
-        <v>-0.99678800000000001</v>
+        <v>-0.99775000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -22064,13 +22054,13 @@
         <v>3.4170850000000002</v>
       </c>
       <c r="B172">
-        <v>5.3504000000000003E-2</v>
+        <v>0.44750899999999999</v>
       </c>
       <c r="C172">
-        <v>0.167104</v>
+        <v>0.101922</v>
       </c>
       <c r="D172">
-        <v>-0.99713200000000002</v>
+        <v>-0.99825299999999995</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -22078,13 +22068,13 @@
         <v>3.4371860000000001</v>
       </c>
       <c r="B173">
-        <v>4.0335999999999997E-2</v>
+        <v>0.483844</v>
       </c>
       <c r="C173">
-        <v>0.12681600000000001</v>
+        <v>0.107809</v>
       </c>
       <c r="D173">
-        <v>-0.99785100000000004</v>
+        <v>-0.99817400000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -22092,13 +22082,13 @@
         <v>3.4572859999999999</v>
       </c>
       <c r="B174">
-        <v>0.101989</v>
+        <v>0.37825999999999999</v>
       </c>
       <c r="C174">
-        <v>0.132911</v>
+        <v>0.130832</v>
       </c>
       <c r="D174">
-        <v>-0.99777300000000002</v>
+        <v>-0.99780800000000003</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -22106,13 +22096,13 @@
         <v>3.4773869999999998</v>
       </c>
       <c r="B175">
-        <v>0.17732300000000001</v>
+        <v>0.105198</v>
       </c>
       <c r="C175">
-        <v>0.153285</v>
+        <v>0.15070600000000001</v>
       </c>
       <c r="D175">
-        <v>-0.99746000000000001</v>
+        <v>-0.99750300000000003</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -22120,13 +22110,13 @@
         <v>3.497487</v>
       </c>
       <c r="B176">
-        <v>0.19211800000000001</v>
+        <v>0.12567400000000001</v>
       </c>
       <c r="C176">
-        <v>0.14760999999999999</v>
+        <v>0.120868</v>
       </c>
       <c r="D176">
-        <v>-0.997583</v>
+        <v>-0.99802199999999996</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -22134,13 +22124,13 @@
         <v>3.5175879999999999</v>
       </c>
       <c r="B177">
-        <v>0.14719399999999999</v>
+        <v>0.387714</v>
       </c>
       <c r="C177">
-        <v>0.117699</v>
+        <v>8.8480000000000003E-2</v>
       </c>
       <c r="D177">
-        <v>-0.99809499999999995</v>
+        <v>-0.99856900000000004</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -22148,13 +22138,13 @@
         <v>3.5376880000000002</v>
       </c>
       <c r="B178">
-        <v>0.16826199999999999</v>
+        <v>0.302977</v>
       </c>
       <c r="C178">
-        <v>0.112193</v>
+        <v>0.12361800000000001</v>
       </c>
       <c r="D178">
-        <v>-0.99820500000000001</v>
+        <v>-0.99802199999999996</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -22162,13 +22152,13 @@
         <v>3.5577890000000001</v>
       </c>
       <c r="B179">
-        <v>0.30822899999999998</v>
+        <v>5.4486E-2</v>
       </c>
       <c r="C179">
-        <v>9.5459000000000002E-2</v>
+        <v>0.101518</v>
       </c>
       <c r="D179">
-        <v>-0.99848999999999999</v>
+        <v>-0.99839500000000003</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -22176,13 +22166,13 @@
         <v>3.5778889999999999</v>
       </c>
       <c r="B180">
-        <v>0.31675399999999998</v>
+        <v>0.215836</v>
       </c>
       <c r="C180">
-        <v>8.3940000000000001E-2</v>
+        <v>7.7987000000000001E-2</v>
       </c>
       <c r="D180">
-        <v>-0.99868900000000005</v>
+        <v>-0.99878100000000003</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -22190,13 +22180,13 @@
         <v>3.5979899999999998</v>
       </c>
       <c r="B181">
-        <v>0.375807</v>
+        <v>0.241704</v>
       </c>
       <c r="C181">
-        <v>6.9248000000000004E-2</v>
+        <v>0.10757</v>
       </c>
       <c r="D181">
-        <v>-0.99892999999999998</v>
+        <v>-0.99833700000000003</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -22204,13 +22194,13 @@
         <v>3.61809</v>
       </c>
       <c r="B182">
-        <v>0.34361700000000001</v>
+        <v>0.20783199999999999</v>
       </c>
       <c r="C182">
-        <v>0.1013</v>
+        <v>8.7623000000000006E-2</v>
       </c>
       <c r="D182">
-        <v>-0.99845099999999998</v>
+        <v>-0.99865999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -22218,13 +22208,13 @@
         <v>3.638191</v>
       </c>
       <c r="B183">
-        <v>0.328592</v>
+        <v>0.12137000000000001</v>
       </c>
       <c r="C183">
-        <v>0.12617500000000001</v>
+        <v>6.4845E-2</v>
       </c>
       <c r="D183">
-        <v>-0.99809099999999995</v>
+        <v>-0.99902000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -22232,13 +22222,13 @@
         <v>3.6582910000000002</v>
       </c>
       <c r="B184">
-        <v>0.37879200000000002</v>
+        <v>9.5973000000000003E-2</v>
       </c>
       <c r="C184">
-        <v>7.4746999999999994E-2</v>
+        <v>4.1633000000000003E-2</v>
       </c>
       <c r="D184">
-        <v>-0.99888299999999997</v>
+        <v>-0.99937799999999999</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -22246,13 +22236,13 @@
         <v>3.6783920000000001</v>
       </c>
       <c r="B185">
-        <v>0.317965</v>
+        <v>0.12587300000000001</v>
       </c>
       <c r="C185">
-        <v>7.0079000000000002E-2</v>
+        <v>4.3947E-2</v>
       </c>
       <c r="D185">
-        <v>-0.99896399999999996</v>
+        <v>-0.99935099999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -22260,13 +22250,13 @@
         <v>3.6984919999999999</v>
       </c>
       <c r="B186">
-        <v>0.42882399999999998</v>
+        <v>7.9960000000000003E-2</v>
       </c>
       <c r="C186">
-        <v>0.12590799999999999</v>
+        <v>3.9101999999999998E-2</v>
       </c>
       <c r="D186">
-        <v>-0.99815600000000004</v>
+        <v>-0.99942900000000001</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -22274,13 +22264,13 @@
         <v>3.7185929999999998</v>
       </c>
       <c r="B187">
-        <v>0.34592400000000001</v>
+        <v>8.1907999999999995E-2</v>
       </c>
       <c r="C187">
-        <v>0.137766</v>
+        <v>6.6646999999999998E-2</v>
       </c>
       <c r="D187">
-        <v>-0.998004</v>
+        <v>-0.99903600000000004</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -22288,13 +22278,13 @@
         <v>3.738693</v>
       </c>
       <c r="B188">
-        <v>0.201656</v>
+        <v>0.105208</v>
       </c>
       <c r="C188">
-        <v>0.13903099999999999</v>
+        <v>8.4420999999999996E-2</v>
       </c>
       <c r="D188">
-        <v>-0.99800699999999998</v>
+        <v>-0.99879099999999998</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -22302,13 +22292,13 @@
         <v>3.758794</v>
       </c>
       <c r="B189">
-        <v>0.26327699999999998</v>
+        <v>8.0381999999999995E-2</v>
       </c>
       <c r="C189">
-        <v>0.15892600000000001</v>
+        <v>7.4425000000000005E-2</v>
       </c>
       <c r="D189">
-        <v>-0.99774600000000002</v>
+        <v>-0.998946</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -22316,13 +22306,13 @@
         <v>3.7788940000000002</v>
       </c>
       <c r="B190">
-        <v>0.39025100000000001</v>
+        <v>7.4917999999999998E-2</v>
       </c>
       <c r="C190">
-        <v>0.15909699999999999</v>
+        <v>6.6716999999999999E-2</v>
       </c>
       <c r="D190">
-        <v>-0.99776699999999996</v>
+        <v>-0.99906499999999998</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -22330,13 +22320,13 @@
         <v>3.7989950000000001</v>
       </c>
       <c r="B191">
-        <v>0.39196999999999999</v>
+        <v>5.4050000000000001E-2</v>
       </c>
       <c r="C191">
-        <v>0.159223</v>
+        <v>5.7158E-2</v>
       </c>
       <c r="D191">
-        <v>-0.99778900000000004</v>
+        <v>-0.99920799999999999</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -22344,13 +22334,13 @@
         <v>3.8190949999999999</v>
       </c>
       <c r="B192">
-        <v>0.41111900000000001</v>
+        <v>4.7233999999999998E-2</v>
       </c>
       <c r="C192">
-        <v>0.125412</v>
+        <v>9.1150999999999996E-2</v>
       </c>
       <c r="D192">
-        <v>-0.998278</v>
+        <v>-0.998749</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -22358,13 +22348,13 @@
         <v>3.8391959999999998</v>
       </c>
       <c r="B193">
-        <v>0.42916900000000002</v>
+        <v>7.2844000000000006E-2</v>
       </c>
       <c r="C193">
-        <v>7.3335999999999998E-2</v>
+        <v>6.6826999999999998E-2</v>
       </c>
       <c r="D193">
-        <v>-0.999004</v>
+        <v>-0.99909300000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -22372,13 +22362,13 @@
         <v>3.8592960000000001</v>
       </c>
       <c r="B194">
-        <v>0.373892</v>
+        <v>0.24468799999999999</v>
       </c>
       <c r="C194">
-        <v>9.4702999999999996E-2</v>
+        <v>5.4737000000000001E-2</v>
       </c>
       <c r="D194">
-        <v>-0.99872700000000003</v>
+        <v>-0.99926499999999996</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -22386,13 +22376,13 @@
         <v>3.879397</v>
       </c>
       <c r="B195">
-        <v>0.316801</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="C195">
-        <v>7.7007999999999993E-2</v>
+        <v>8.4756999999999999E-2</v>
       </c>
       <c r="D195">
-        <v>-0.99897599999999998</v>
+        <v>-0.99887300000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -22400,13 +22390,13 @@
         <v>3.8994970000000002</v>
       </c>
       <c r="B196">
-        <v>0.27513900000000002</v>
+        <v>0.29311900000000002</v>
       </c>
       <c r="C196">
-        <v>9.1177999999999995E-2</v>
+        <v>7.0821999999999996E-2</v>
       </c>
       <c r="D196">
-        <v>-0.99880000000000002</v>
+        <v>-0.99906799999999996</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -22414,13 +22404,13 @@
         <v>3.9195980000000001</v>
       </c>
       <c r="B197">
-        <v>0.23686199999999999</v>
+        <v>0.24459900000000001</v>
       </c>
       <c r="C197">
-        <v>8.4071999999999994E-2</v>
+        <v>7.8898999999999997E-2</v>
       </c>
       <c r="D197">
-        <v>-0.99890500000000004</v>
+        <v>-0.99897199999999997</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -22428,13 +22418,13 @@
         <v>3.9396979999999999</v>
       </c>
       <c r="B198">
-        <v>0.15279599999999999</v>
+        <v>0.36493199999999998</v>
       </c>
       <c r="C198">
-        <v>0.11396199999999999</v>
+        <v>8.1522999999999998E-2</v>
       </c>
       <c r="D198">
-        <v>-0.99853000000000003</v>
+        <v>-0.99894899999999998</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -22442,13 +22432,13 @@
         <v>3.9597989999999998</v>
       </c>
       <c r="B199">
-        <v>0.21054600000000001</v>
+        <v>0.33846900000000002</v>
       </c>
       <c r="C199">
-        <v>0.11842999999999999</v>
+        <v>6.7309999999999995E-2</v>
       </c>
       <c r="D199">
-        <v>-0.99848800000000004</v>
+        <v>-0.99914099999999995</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -22456,13 +22446,13 @@
         <v>3.9798990000000001</v>
       </c>
       <c r="B200">
-        <v>0.190966</v>
+        <v>0.33244200000000002</v>
       </c>
       <c r="C200">
-        <v>0.10234</v>
+        <v>6.1331999999999998E-2</v>
       </c>
       <c r="D200">
-        <v>-0.99870599999999998</v>
+        <v>-0.99922500000000003</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -22470,13 +22460,13 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>0.115451</v>
+        <v>0.391648</v>
       </c>
       <c r="C201">
-        <v>8.4571999999999994E-2</v>
+        <v>6.0734999999999997E-2</v>
       </c>
       <c r="D201">
-        <v>-0.998942</v>
+        <v>-0.99924000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Metro.xlsx
+++ b/Results/Metro.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1D data" sheetId="2" r:id="rId1"/>
     <sheet name="2D data" sheetId="1" r:id="rId2"/>
     <sheet name="3D data" sheetId="6" r:id="rId3"/>
     <sheet name="4D data" sheetId="3" r:id="rId4"/>
-    <sheet name="trial data" sheetId="9" r:id="rId5"/>
-    <sheet name="1D chart" sheetId="5" r:id="rId6"/>
-    <sheet name="2D chart" sheetId="4" r:id="rId7"/>
-    <sheet name="3D chart" sheetId="7" r:id="rId8"/>
-    <sheet name="4D chart" sheetId="8" r:id="rId9"/>
+    <sheet name="1D chart" sheetId="5" r:id="rId5"/>
+    <sheet name="2D chart" sheetId="4" r:id="rId6"/>
+    <sheet name="3D chart" sheetId="7" r:id="rId7"/>
+    <sheet name="4D chart" sheetId="8" r:id="rId8"/>
+    <sheet name="trial data" sheetId="9" r:id="rId9"/>
     <sheet name="trial chart" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>beta</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Energy</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Magnetization</t>
+  </si>
+  <si>
+    <t>Heat capacity</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Energy^2</t>
   </si>
 </sst>
 </file>
@@ -105,7 +120,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35952097174781467"/>
+          <c:x val="0.35952097174781483"/>
           <c:y val="2.0878553073528511E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3823,11 +3838,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="60272000"/>
-        <c:axId val="53262208"/>
+        <c:axId val="58367360"/>
+        <c:axId val="57845632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60272000"/>
+        <c:axId val="58367360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3853,12 +3868,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53262208"/>
+        <c:crossAx val="57845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53262208"/>
+        <c:axId val="57845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3886,7 +3901,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60272000"/>
+        <c:crossAx val="58367360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3929,7 +3944,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35462276165238571"/>
+          <c:x val="0.35462276165238582"/>
           <c:y val="2.5054263688234216E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -11463,11 +11478,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59551744"/>
-        <c:axId val="59553664"/>
+        <c:axId val="58044416"/>
+        <c:axId val="58046336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59551744"/>
+        <c:axId val="58044416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11492,12 +11507,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59553664"/>
+        <c:crossAx val="58046336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59553664"/>
+        <c:axId val="58046336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -11524,7 +11539,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59551744"/>
+        <c:crossAx val="58044416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15279,11 +15294,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59789312"/>
-        <c:axId val="59791232"/>
+        <c:axId val="59199488"/>
+        <c:axId val="59201408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59789312"/>
+        <c:axId val="59199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -15308,12 +15323,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59791232"/>
+        <c:crossAx val="59201408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59791232"/>
+        <c:axId val="59201408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -15340,7 +15355,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59789312"/>
+        <c:crossAx val="59199488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15396,7 +15411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Magnetization</c:v>
+                  <c:v>Magnetization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16020,604 +16035,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>6.2319999999999997E-3</c:v>
+                  <c:v>4.9744999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3169999999999997E-3</c:v>
+                  <c:v>5.0506000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2300000000000003E-3</c:v>
+                  <c:v>5.0564999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6E-3</c:v>
+                  <c:v>5.1339999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6340000000000001E-3</c:v>
+                  <c:v>5.1608000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6889999999999996E-3</c:v>
+                  <c:v>5.2076999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.613E-3</c:v>
+                  <c:v>5.2819999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4729999999999996E-3</c:v>
+                  <c:v>5.3865999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0600000000000003E-3</c:v>
+                  <c:v>5.4547999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8490000000000001E-3</c:v>
+                  <c:v>5.5585000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9410000000000001E-3</c:v>
+                  <c:v>5.5239999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3309999999999998E-3</c:v>
+                  <c:v>5.5784E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7930000000000004E-3</c:v>
+                  <c:v>5.6169999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0800000000000004E-3</c:v>
+                  <c:v>5.7057999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8370000000000002E-3</c:v>
+                  <c:v>5.7008000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1339999999999997E-3</c:v>
+                  <c:v>5.8328999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7190000000000002E-3</c:v>
+                  <c:v>5.9145000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1069999999999996E-3</c:v>
+                  <c:v>6.1015E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.6150000000000002E-3</c:v>
+                  <c:v>6.0963000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7210000000000004E-3</c:v>
+                  <c:v>6.1682000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.672E-3</c:v>
+                  <c:v>6.4005999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9979999999999999E-3</c:v>
+                  <c:v>6.3027E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.979E-3</c:v>
+                  <c:v>6.4599000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8709999999999995E-3</c:v>
+                  <c:v>6.5484000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.2389999999999998E-3</c:v>
+                  <c:v>6.5740000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.4790000000000004E-3</c:v>
+                  <c:v>6.6383999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.5030000000000001E-3</c:v>
+                  <c:v>6.7926E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4790000000000004E-3</c:v>
+                  <c:v>6.8650000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7150000000000005E-3</c:v>
+                  <c:v>6.9973999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5259999999999997E-3</c:v>
+                  <c:v>7.0434999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.8699999999999994E-3</c:v>
+                  <c:v>7.1091000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.8950000000000001E-3</c:v>
+                  <c:v>7.1786000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.7679999999999998E-3</c:v>
+                  <c:v>7.4015999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.2090000000000002E-3</c:v>
+                  <c:v>7.4770000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.6109999999999998E-3</c:v>
+                  <c:v>7.6951000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.2549999999999993E-3</c:v>
+                  <c:v>7.7854000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0682000000000001E-2</c:v>
+                  <c:v>7.8806000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0545000000000001E-2</c:v>
+                  <c:v>8.0168000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1353E-2</c:v>
+                  <c:v>8.0934000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0600999999999999E-2</c:v>
+                  <c:v>8.1727999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0607999999999999E-2</c:v>
+                  <c:v>8.3463999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0305999999999999E-2</c:v>
+                  <c:v>8.7313000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.184E-2</c:v>
+                  <c:v>8.8120000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0477999999999999E-2</c:v>
+                  <c:v>8.9652999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1391999999999999E-2</c:v>
+                  <c:v>9.1619999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1629E-2</c:v>
+                  <c:v>9.3205999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1903E-2</c:v>
+                  <c:v>9.5061000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1953999999999999E-2</c:v>
+                  <c:v>9.7603999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2071E-2</c:v>
+                  <c:v>9.9820000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1351E-2</c:v>
+                  <c:v>0.10120899999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2751999999999999E-2</c:v>
+                  <c:v>0.103543</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4258E-2</c:v>
+                  <c:v>0.106174</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3887E-2</c:v>
+                  <c:v>0.109282</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4636E-2</c:v>
+                  <c:v>0.11165700000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4685999999999999E-2</c:v>
+                  <c:v>0.115577</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4285000000000001E-2</c:v>
+                  <c:v>0.11774800000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3627999999999999E-2</c:v>
+                  <c:v>0.120669</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5698E-2</c:v>
+                  <c:v>0.124052</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3434E-2</c:v>
+                  <c:v>0.12765899999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7564E-2</c:v>
+                  <c:v>0.13305700000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.5547999999999999E-2</c:v>
+                  <c:v>0.13800999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0084999999999999E-2</c:v>
+                  <c:v>0.139788</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.266E-2</c:v>
+                  <c:v>0.14564199999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6941000000000001E-2</c:v>
+                  <c:v>0.149641</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1203E-2</c:v>
+                  <c:v>0.155727</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0114E-2</c:v>
+                  <c:v>0.16327800000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0820000000000002E-2</c:v>
+                  <c:v>0.16922300000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9772000000000001E-2</c:v>
+                  <c:v>0.17529800000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.3306E-2</c:v>
+                  <c:v>0.18229500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4506E-2</c:v>
+                  <c:v>0.19395899999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4514000000000001E-2</c:v>
+                  <c:v>0.20377000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2383E-2</c:v>
+                  <c:v>0.212004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1315000000000003E-2</c:v>
+                  <c:v>0.22897999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.6335000000000001E-2</c:v>
+                  <c:v>0.23643400000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.6427000000000001E-2</c:v>
+                  <c:v>0.25381599999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.3156999999999999E-2</c:v>
+                  <c:v>0.27206999999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2428E-2</c:v>
+                  <c:v>0.29327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0035000000000001E-2</c:v>
+                  <c:v>0.31213299999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.8826000000000001E-2</c:v>
+                  <c:v>0.33904499999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5420000000000002E-2</c:v>
+                  <c:v>0.37000499999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9077999999999997E-2</c:v>
+                  <c:v>0.40549299999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.2029000000000001E-2</c:v>
+                  <c:v>0.44554199999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7128000000000003E-2</c:v>
+                  <c:v>0.47517300000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.2980999999999995E-2</c:v>
+                  <c:v>0.51553400000000005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.2662999999999995E-2</c:v>
+                  <c:v>0.56003400000000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.112966</c:v>
+                  <c:v>0.60723400000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.11325399999999999</c:v>
+                  <c:v>0.645845</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.18071200000000001</c:v>
+                  <c:v>0.69177999999999995</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.49498799999999998</c:v>
+                  <c:v>0.71967099999999995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.68122400000000005</c:v>
+                  <c:v>0.756081</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.75106399999999995</c:v>
+                  <c:v>0.78230699999999997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.79651099999999997</c:v>
+                  <c:v>0.80962500000000004</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.83145400000000003</c:v>
+                  <c:v>0.82977699999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.84159399999999995</c:v>
+                  <c:v>0.844279</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.863313</c:v>
+                  <c:v>0.85985199999999995</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.870618</c:v>
+                  <c:v>0.87214700000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.88267099999999998</c:v>
+                  <c:v>0.88277000000000005</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.88982499999999998</c:v>
+                  <c:v>0.89183699999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.90212300000000001</c:v>
+                  <c:v>0.90061400000000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.90761199999999997</c:v>
+                  <c:v>0.90779799999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.91572699999999996</c:v>
+                  <c:v>0.91486400000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.92175200000000002</c:v>
+                  <c:v>0.92030100000000004</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.92654899999999996</c:v>
+                  <c:v>0.92630999999999997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.93089100000000002</c:v>
+                  <c:v>0.93067999999999995</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.93507899999999999</c:v>
+                  <c:v>0.93564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.93893099999999996</c:v>
+                  <c:v>0.93979199999999996</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.943967</c:v>
+                  <c:v>0.94305000000000005</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.94582200000000005</c:v>
+                  <c:v>0.94705600000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.95046600000000003</c:v>
+                  <c:v>0.95024799999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.952955</c:v>
+                  <c:v>0.95258500000000002</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.95512300000000006</c:v>
+                  <c:v>0.95543199999999995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.95778300000000005</c:v>
+                  <c:v>0.95833100000000004</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.95999400000000001</c:v>
+                  <c:v>0.95969800000000005</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.96223400000000003</c:v>
+                  <c:v>0.96269099999999996</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.96489100000000005</c:v>
+                  <c:v>0.96440199999999998</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.96648800000000001</c:v>
+                  <c:v>0.96652300000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.96818199999999999</c:v>
+                  <c:v>0.96843900000000005</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.97003200000000001</c:v>
+                  <c:v>0.97001800000000005</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.97137700000000005</c:v>
+                  <c:v>0.97150000000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.97312100000000001</c:v>
+                  <c:v>0.97306999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.97439100000000001</c:v>
+                  <c:v>0.97426599999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.97563100000000003</c:v>
+                  <c:v>0.97585500000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.97664700000000004</c:v>
+                  <c:v>0.97661600000000004</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.97806499999999996</c:v>
+                  <c:v>0.97812100000000002</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.97949399999999998</c:v>
+                  <c:v>0.97911499999999996</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.98036800000000002</c:v>
+                  <c:v>0.98031400000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.98132799999999998</c:v>
+                  <c:v>0.98107299999999997</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.982402</c:v>
+                  <c:v>0.98228599999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.98316400000000004</c:v>
+                  <c:v>0.98330399999999996</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.98360899999999996</c:v>
+                  <c:v>0.98368</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.98446100000000003</c:v>
+                  <c:v>0.984595</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.98523000000000005</c:v>
+                  <c:v>0.985263</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.98608499999999999</c:v>
+                  <c:v>0.98610500000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.98690100000000003</c:v>
+                  <c:v>0.98677400000000004</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.98739500000000002</c:v>
+                  <c:v>0.98749100000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.98782199999999998</c:v>
+                  <c:v>0.98797400000000002</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.98852200000000001</c:v>
+                  <c:v>0.988205</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.98891099999999998</c:v>
+                  <c:v>0.98898900000000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.98974600000000001</c:v>
+                  <c:v>0.98931100000000005</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.99000100000000002</c:v>
+                  <c:v>0.99005900000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.99034599999999995</c:v>
+                  <c:v>0.99046299999999998</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.99100699999999997</c:v>
+                  <c:v>0.99094599999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.99126599999999998</c:v>
+                  <c:v>0.99121199999999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.99172800000000005</c:v>
+                  <c:v>0.99179700000000004</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.99204199999999998</c:v>
+                  <c:v>0.99216000000000004</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.99246599999999996</c:v>
+                  <c:v>0.99247099999999999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.99281799999999998</c:v>
+                  <c:v>0.992703</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.99318499999999998</c:v>
+                  <c:v>0.99316300000000002</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.99349799999999999</c:v>
+                  <c:v>0.99338400000000004</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.99377700000000002</c:v>
+                  <c:v>0.99379700000000004</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99396499999999999</c:v>
+                  <c:v>0.99402299999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.99418499999999999</c:v>
+                  <c:v>0.99439999999999995</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.994529</c:v>
+                  <c:v>0.99457200000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.99483500000000002</c:v>
+                  <c:v>0.99470700000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.99503799999999998</c:v>
+                  <c:v>0.99500999999999995</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.99519800000000003</c:v>
+                  <c:v>0.99531599999999998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.99540899999999999</c:v>
+                  <c:v>0.99537299999999995</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.99568699999999999</c:v>
+                  <c:v>0.99561299999999997</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.99573900000000004</c:v>
+                  <c:v>0.99584300000000003</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.99607999999999997</c:v>
+                  <c:v>0.99604700000000002</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.99611400000000005</c:v>
+                  <c:v>0.99609400000000003</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.99629699999999999</c:v>
+                  <c:v>0.996313</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99652600000000002</c:v>
+                  <c:v>0.99645600000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.99657600000000002</c:v>
+                  <c:v>0.99659500000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.99674600000000002</c:v>
+                  <c:v>0.99678800000000001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.99693200000000004</c:v>
+                  <c:v>0.99694400000000005</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.99697499999999994</c:v>
+                  <c:v>0.99702999999999997</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.997228</c:v>
+                  <c:v>0.99710900000000002</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.99728600000000001</c:v>
+                  <c:v>0.99739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.99741500000000005</c:v>
+                  <c:v>0.99738000000000004</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.99753199999999997</c:v>
+                  <c:v>0.99758100000000005</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.99762600000000001</c:v>
+                  <c:v>0.99763800000000002</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.99771699999999996</c:v>
+                  <c:v>0.99777400000000005</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.99778500000000003</c:v>
+                  <c:v>0.99780800000000003</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.99788900000000003</c:v>
+                  <c:v>0.99795900000000004</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.99801899999999999</c:v>
+                  <c:v>0.99795900000000004</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.99804999999999999</c:v>
+                  <c:v>0.99810299999999996</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.99814800000000004</c:v>
+                  <c:v>0.99818399999999996</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.99828499999999998</c:v>
+                  <c:v>0.99824199999999996</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.998309</c:v>
+                  <c:v>0.99831700000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.99840099999999998</c:v>
+                  <c:v>0.99834999999999996</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.99847900000000001</c:v>
+                  <c:v>0.99846900000000005</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.99848800000000004</c:v>
+                  <c:v>0.99858499999999994</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.99862300000000004</c:v>
+                  <c:v>0.99857600000000002</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.99866200000000005</c:v>
+                  <c:v>0.99867300000000003</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.99868100000000004</c:v>
+                  <c:v>0.99869600000000003</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.99870800000000004</c:v>
+                  <c:v>0.99872300000000003</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.998803</c:v>
+                  <c:v>0.99882499999999996</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.99884200000000001</c:v>
+                  <c:v>0.99878599999999995</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.99887999999999999</c:v>
+                  <c:v>0.99888900000000003</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.99894499999999997</c:v>
+                  <c:v>0.99897000000000002</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.99898600000000004</c:v>
+                  <c:v>0.99902299999999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.99902500000000005</c:v>
+                  <c:v>0.99906200000000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.99906799999999996</c:v>
+                  <c:v>0.99907299999999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.99911399999999995</c:v>
+                  <c:v>0.99909700000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.99913799999999997</c:v>
+                  <c:v>0.99913300000000005</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.999135</c:v>
+                  <c:v>0.99916899999999997</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.999224</c:v>
+                  <c:v>0.99921400000000005</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.999251</c:v>
+                  <c:v>0.99920200000000003</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.99929299999999999</c:v>
+                  <c:v>0.99932600000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16632,7 +16647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Heat capacity</c:v>
+                  <c:v>Heat capacity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17259,601 +17274,601 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26E-4</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0500000000000002E-4</c:v>
+                  <c:v>3.9999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1360000000000001E-3</c:v>
+                  <c:v>9.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0230000000000001E-3</c:v>
+                  <c:v>1.5999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1580000000000002E-3</c:v>
+                  <c:v>2.5000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5490000000000001E-3</c:v>
+                  <c:v>3.4999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1939999999999999E-3</c:v>
+                  <c:v>4.8999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0929999999999995E-3</c:v>
+                  <c:v>6.4999999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0240000000000001E-2</c:v>
+                  <c:v>8.0000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2652E-2</c:v>
+                  <c:v>9.8999999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5341E-2</c:v>
+                  <c:v>1.22E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8246999999999999E-2</c:v>
+                  <c:v>1.46E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1433000000000001E-2</c:v>
+                  <c:v>1.73E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4858000000000002E-2</c:v>
+                  <c:v>1.9599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8566999999999999E-2</c:v>
+                  <c:v>2.2599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2524999999999998E-2</c:v>
+                  <c:v>2.61E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6725000000000001E-2</c:v>
+                  <c:v>2.9500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1251000000000003E-2</c:v>
+                  <c:v>3.3100000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5964999999999999E-2</c:v>
+                  <c:v>3.7199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0970000000000001E-2</c:v>
+                  <c:v>4.2400000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6271000000000002E-2</c:v>
+                  <c:v>4.5199999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.1872000000000003E-2</c:v>
+                  <c:v>5.0600000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.7674999999999999E-2</c:v>
+                  <c:v>5.62E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3749999999999996E-2</c:v>
+                  <c:v>5.8600000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0093999999999999E-2</c:v>
+                  <c:v>6.5099999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6698999999999998E-2</c:v>
+                  <c:v>7.3099999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.3576000000000006E-2</c:v>
+                  <c:v>7.7999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.100816</c:v>
+                  <c:v>8.25E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.108336</c:v>
+                  <c:v>9.2000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.115943</c:v>
+                  <c:v>9.9200000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12405099999999999</c:v>
+                  <c:v>1.07E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.132355</c:v>
+                  <c:v>1.1640000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.14094499999999999</c:v>
+                  <c:v>1.222E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.149921</c:v>
+                  <c:v>1.3190000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.15895000000000001</c:v>
+                  <c:v>1.384E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.16849600000000001</c:v>
+                  <c:v>1.5139999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.178145</c:v>
+                  <c:v>1.609E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.18817700000000001</c:v>
+                  <c:v>1.6949999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.198542</c:v>
+                  <c:v>1.7619999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.20933499999999999</c:v>
+                  <c:v>1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21994900000000001</c:v>
+                  <c:v>2.0760000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.23102500000000001</c:v>
+                  <c:v>2.1220000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.24272299999999999</c:v>
+                  <c:v>2.2750000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25479299999999999</c:v>
+                  <c:v>2.3080000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26655899999999999</c:v>
+                  <c:v>2.568E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.27898200000000001</c:v>
+                  <c:v>2.6800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29156900000000002</c:v>
+                  <c:v>2.8660000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.30450199999999999</c:v>
+                  <c:v>3.0760000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31783499999999998</c:v>
+                  <c:v>3.2560000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33113999999999999</c:v>
+                  <c:v>3.395E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.345111</c:v>
+                  <c:v>3.6020000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.35881800000000003</c:v>
+                  <c:v>3.7799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3735</c:v>
+                  <c:v>3.999E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.38841100000000001</c:v>
+                  <c:v>4.1419999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.40303699999999998</c:v>
+                  <c:v>4.3579999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.418321</c:v>
+                  <c:v>4.6049999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.43345600000000001</c:v>
+                  <c:v>4.9290000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.449542</c:v>
+                  <c:v>5.1229999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.465613</c:v>
+                  <c:v>5.4489999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.48165400000000003</c:v>
+                  <c:v>5.8100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.49773600000000001</c:v>
+                  <c:v>5.9659999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.51405599999999996</c:v>
+                  <c:v>6.378E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.53135200000000005</c:v>
+                  <c:v>6.7140000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.54821699999999995</c:v>
+                  <c:v>7.012E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.565689</c:v>
+                  <c:v>7.3709999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.58298399999999995</c:v>
+                  <c:v>7.8200000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.59961399999999998</c:v>
+                  <c:v>8.1349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.61758100000000005</c:v>
+                  <c:v>8.5679999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.63518799999999997</c:v>
+                  <c:v>9.0069999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.65287499999999998</c:v>
+                  <c:v>9.6050000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.66944999999999999</c:v>
+                  <c:v>1.0366E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.68734799999999996</c:v>
+                  <c:v>1.0999E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.70340100000000005</c:v>
+                  <c:v>1.1802999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.721522</c:v>
+                  <c:v>1.2775E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.73888299999999996</c:v>
+                  <c:v>1.3462999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.75470400000000004</c:v>
+                  <c:v>1.4817E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.77107999999999999</c:v>
+                  <c:v>1.6206999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.78681100000000004</c:v>
+                  <c:v>1.7821E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.80104799999999998</c:v>
+                  <c:v>1.9037999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.81683399999999995</c:v>
+                  <c:v>2.1734E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.82804900000000004</c:v>
+                  <c:v>2.4133000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.84032700000000005</c:v>
+                  <c:v>2.5711000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.84830799999999995</c:v>
+                  <c:v>2.8532999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.85606499999999996</c:v>
+                  <c:v>2.9114000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.86363900000000005</c:v>
+                  <c:v>3.0963000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.863487</c:v>
+                  <c:v>3.0884999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.86628899999999998</c:v>
+                  <c:v>2.9472000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.83892299999999997</c:v>
+                  <c:v>2.9009E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.814272</c:v>
+                  <c:v>2.8166E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.79203400000000002</c:v>
+                  <c:v>2.5919000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77833200000000002</c:v>
+                  <c:v>2.3380999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.75409099999999996</c:v>
+                  <c:v>2.2334E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.74046699999999999</c:v>
+                  <c:v>2.0771000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.71264000000000005</c:v>
+                  <c:v>1.9702000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.70137499999999997</c:v>
+                  <c:v>1.7981E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.68714200000000003</c:v>
+                  <c:v>1.7528999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.66862699999999997</c:v>
+                  <c:v>1.5958E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.65010299999999999</c:v>
+                  <c:v>1.5339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.63567899999999999</c:v>
+                  <c:v>1.4621E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.61556200000000005</c:v>
+                  <c:v>1.3547E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.59958999999999996</c:v>
+                  <c:v>1.2914E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.58441299999999996</c:v>
+                  <c:v>1.2227999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.56967500000000004</c:v>
+                  <c:v>1.2036E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.55866899999999997</c:v>
+                  <c:v>1.1259999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.54283800000000004</c:v>
+                  <c:v>1.0829999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.52593000000000001</c:v>
+                  <c:v>1.0311000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.51716200000000001</c:v>
+                  <c:v>9.9159999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.49777700000000003</c:v>
+                  <c:v>9.4230000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.48757899999999998</c:v>
+                  <c:v>9.2899999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.47702800000000001</c:v>
+                  <c:v>8.7089999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.46205499999999999</c:v>
+                  <c:v>8.4919999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.45287300000000003</c:v>
+                  <c:v>8.3350000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.43766500000000003</c:v>
+                  <c:v>7.8849999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.42546699999999998</c:v>
+                  <c:v>7.3850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.41598000000000002</c:v>
+                  <c:v>6.986E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.404115</c:v>
+                  <c:v>6.8060000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.392453</c:v>
+                  <c:v>6.6340000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.38334800000000002</c:v>
+                  <c:v>6.3800000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.37081700000000001</c:v>
+                  <c:v>6.1130000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.362093</c:v>
+                  <c:v>5.9049999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.35238599999999998</c:v>
+                  <c:v>5.79E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.34577999999999998</c:v>
+                  <c:v>5.8380000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.33324799999999999</c:v>
+                  <c:v>5.4390000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.32146599999999997</c:v>
+                  <c:v>5.2570000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.31413099999999999</c:v>
+                  <c:v>4.875E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.30372300000000002</c:v>
+                  <c:v>4.9379999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.29401100000000002</c:v>
+                  <c:v>4.6730000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.28697499999999998</c:v>
+                  <c:v>4.4060000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.28427599999999997</c:v>
+                  <c:v>4.3870000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.276395</c:v>
+                  <c:v>4.3080000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.26721699999999998</c:v>
+                  <c:v>3.9909999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.25728699999999999</c:v>
+                  <c:v>3.9329999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.248054</c:v>
+                  <c:v>3.8070000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.243008</c:v>
+                  <c:v>3.5569999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.23866399999999999</c:v>
+                  <c:v>3.607E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.230603</c:v>
+                  <c:v>3.496E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.22584899999999999</c:v>
+                  <c:v>3.3449999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.214338</c:v>
+                  <c:v>3.248E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.211918</c:v>
+                  <c:v>3.1210000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.20810799999999999</c:v>
+                  <c:v>3.1129999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.19764000000000001</c:v>
+                  <c:v>2.8860000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.195379</c:v>
+                  <c:v>2.8939999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.188721</c:v>
+                  <c:v>2.7100000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.184391</c:v>
+                  <c:v>2.6090000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.177401</c:v>
+                  <c:v>2.5920000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.17233499999999999</c:v>
+                  <c:v>2.5249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.16597899999999999</c:v>
+                  <c:v>2.4229999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.16123299999999999</c:v>
+                  <c:v>2.3259999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.15671399999999999</c:v>
+                  <c:v>2.1849999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.15431800000000001</c:v>
+                  <c:v>2.1810000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.15137200000000001</c:v>
+                  <c:v>2.0720000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.144313</c:v>
+                  <c:v>2.0309999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.139045</c:v>
+                  <c:v>1.951E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.13548499999999999</c:v>
+                  <c:v>1.9090000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.13301399999999999</c:v>
+                  <c:v>1.8289999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.129465</c:v>
+                  <c:v>1.7849999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.12360500000000001</c:v>
+                  <c:v>1.6930000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.122197</c:v>
+                  <c:v>1.6490000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.11572300000000001</c:v>
+                  <c:v>1.658E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.115865</c:v>
+                  <c:v>1.603E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.112221</c:v>
+                  <c:v>1.554E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.10660500000000001</c:v>
+                  <c:v>1.487E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.106785</c:v>
+                  <c:v>1.4649999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.102634</c:v>
+                  <c:v>1.384E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>9.8288E-2</c:v>
+                  <c:v>1.3270000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>9.7832000000000002E-2</c:v>
+                  <c:v>1.348E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>9.1381000000000004E-2</c:v>
+                  <c:v>1.3159999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>9.0339000000000003E-2</c:v>
+                  <c:v>1.16E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8.7687000000000001E-2</c:v>
+                  <c:v>1.1739999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8.4357000000000001E-2</c:v>
+                  <c:v>1.1349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8.2487000000000005E-2</c:v>
+                  <c:v>1.147E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7.9977999999999994E-2</c:v>
+                  <c:v>1.0740000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>7.8714999999999993E-2</c:v>
+                  <c:v>1.062E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.5882000000000005E-2</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>7.2364999999999999E-2</c:v>
+                  <c:v>9.9799999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7.2214E-2</c:v>
+                  <c:v>9.2800000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>6.9585999999999995E-2</c:v>
+                  <c:v>9.3700000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>6.5215999999999996E-2</c:v>
+                  <c:v>8.5800000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>6.4920000000000005E-2</c:v>
+                  <c:v>8.6200000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>6.2170000000000003E-2</c:v>
+                  <c:v>8.5300000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5.9737999999999999E-2</c:v>
+                  <c:v>8.0699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>6.0225000000000001E-2</c:v>
+                  <c:v>7.6400000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5.5721E-2</c:v>
+                  <c:v>7.5000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>5.4604E-2</c:v>
+                  <c:v>7.0799999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>5.4421999999999998E-2</c:v>
+                  <c:v>7.1699999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5.4087000000000003E-2</c:v>
+                  <c:v>6.9499999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.0550999999999999E-2</c:v>
+                  <c:v>6.6200000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4.9451000000000002E-2</c:v>
+                  <c:v>6.7699999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4.8585999999999997E-2</c:v>
+                  <c:v>6.2799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4.6351000000000003E-2</c:v>
+                  <c:v>5.9100000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4.4859000000000003E-2</c:v>
+                  <c:v>5.5400000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4.3501999999999999E-2</c:v>
+                  <c:v>5.6899999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4.2070000000000003E-2</c:v>
+                  <c:v>5.5800000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4.0687000000000001E-2</c:v>
+                  <c:v>5.53E-4</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.9794000000000003E-2</c:v>
+                  <c:v>5.2499999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4.0658E-2</c:v>
+                  <c:v>5.0299999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.6721999999999998E-2</c:v>
+                  <c:v>4.8999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.5848999999999999E-2</c:v>
+                  <c:v>4.95E-4</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.4057999999999998E-2</c:v>
+                  <c:v>4.2200000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17868,7 +17883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Energy</c:v>
+                  <c:v>Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18492,616 +18507,617 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>-5.4900000000000001E-4</c:v>
+                  <c:v>-1.17E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.7990000000000004E-3</c:v>
+                  <c:v>-1.0378E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0088999999999999E-2</c:v>
+                  <c:v>-2.0376999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.0279E-2</c:v>
+                  <c:v>-3.0384000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9470999999999999E-2</c:v>
+                  <c:v>-4.0843999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.0291000000000002E-2</c:v>
+                  <c:v>-5.0284000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9757999999999999E-2</c:v>
+                  <c:v>-6.0342E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.1054999999999993E-2</c:v>
+                  <c:v>-7.0476999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.0987000000000003E-2</c:v>
+                  <c:v>-8.2292000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.0998999999999997E-2</c:v>
+                  <c:v>-9.1247999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.101312</c:v>
+                  <c:v>-0.101011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.11140899999999999</c:v>
+                  <c:v>-0.111147</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.121015</c:v>
+                  <c:v>-0.121973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.13175500000000001</c:v>
+                  <c:v>-0.13098099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.141732</c:v>
+                  <c:v>-0.142483</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.152279</c:v>
+                  <c:v>-0.15157499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.162827</c:v>
+                  <c:v>-0.16282199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.17297000000000001</c:v>
+                  <c:v>-0.17410500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.18289800000000001</c:v>
+                  <c:v>-0.182642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.19345300000000001</c:v>
+                  <c:v>-0.19431599999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.20464099999999999</c:v>
+                  <c:v>-0.204212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.21521299999999999</c:v>
+                  <c:v>-0.215888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.225575</c:v>
+                  <c:v>-0.226716</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.23724799999999999</c:v>
+                  <c:v>-0.235458</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.24802099999999999</c:v>
+                  <c:v>-0.247561</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.257546</c:v>
+                  <c:v>-0.25784099999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.26910400000000001</c:v>
+                  <c:v>-0.26975300000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.28051999999999999</c:v>
+                  <c:v>-0.27954800000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.28964600000000001</c:v>
+                  <c:v>-0.29123700000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.30226399999999998</c:v>
+                  <c:v>-0.30135899999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.312722</c:v>
+                  <c:v>-0.31266899999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.32465699999999997</c:v>
+                  <c:v>-0.324125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.33621699999999999</c:v>
+                  <c:v>-0.335231</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.34779100000000002</c:v>
+                  <c:v>-0.34600500000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.35936499999999999</c:v>
+                  <c:v>-0.36049399999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.37014200000000003</c:v>
+                  <c:v>-0.36971999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.38234699999999999</c:v>
+                  <c:v>-0.38236399999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.39443099999999998</c:v>
+                  <c:v>-0.39421699999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.40604499999999999</c:v>
+                  <c:v>-0.40665499999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.41933599999999999</c:v>
+                  <c:v>-0.41933100000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.43166199999999999</c:v>
+                  <c:v>-0.43025200000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.44312699999999999</c:v>
+                  <c:v>-0.44236900000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.455627</c:v>
+                  <c:v>-0.45587699999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.46873900000000002</c:v>
+                  <c:v>-0.46631299999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.48252099999999998</c:v>
+                  <c:v>-0.48129100000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.49385400000000002</c:v>
+                  <c:v>-0.49384800000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.50712599999999997</c:v>
+                  <c:v>-0.50490599999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.52033600000000002</c:v>
+                  <c:v>-0.51941099999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.53347299999999997</c:v>
+                  <c:v>-0.53318600000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.54740900000000003</c:v>
+                  <c:v>-0.54561899999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.56117499999999998</c:v>
+                  <c:v>-0.558975</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.57401500000000005</c:v>
+                  <c:v>-0.573245</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.58738999999999997</c:v>
+                  <c:v>-0.58769400000000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.60226999999999997</c:v>
+                  <c:v>-0.602302</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.61876699999999996</c:v>
+                  <c:v>-0.61857799999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.63261500000000004</c:v>
+                  <c:v>-0.632822</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.64682799999999996</c:v>
+                  <c:v>-0.64794399999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.66233799999999998</c:v>
+                  <c:v>-0.66162799999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.67744700000000002</c:v>
+                  <c:v>-0.67805199999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.69374400000000003</c:v>
+                  <c:v>-0.69418000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.70977299999999999</c:v>
+                  <c:v>-0.71186199999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.72665500000000005</c:v>
+                  <c:v>-0.72517200000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.73959699999999995</c:v>
+                  <c:v>-0.74248000000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.75876500000000002</c:v>
+                  <c:v>-0.75931199999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.77555300000000005</c:v>
+                  <c:v>-0.774281</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.79415100000000005</c:v>
+                  <c:v>-0.79423299999999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.81079199999999996</c:v>
+                  <c:v>-0.81256700000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.82876700000000003</c:v>
+                  <c:v>-0.830484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.84957199999999999</c:v>
+                  <c:v>-0.84848599999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.86654200000000003</c:v>
+                  <c:v>-0.86831700000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.88707499999999995</c:v>
+                  <c:v>-0.88949800000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.90590099999999996</c:v>
+                  <c:v>-0.90784399999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.92743100000000001</c:v>
+                  <c:v>-0.93040900000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.94738599999999995</c:v>
+                  <c:v>-0.95179199999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.96954499999999999</c:v>
+                  <c:v>-0.97657499999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.99544999999999995</c:v>
+                  <c:v>-0.99915500000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.016375</c:v>
+                  <c:v>-1.022864</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.042265</c:v>
+                  <c:v>-1.049938</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.062508</c:v>
+                  <c:v>-1.0795950000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.091121</c:v>
+                  <c:v>-1.1108130000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.1141799999999999</c:v>
+                  <c:v>-1.149152</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.145716</c:v>
+                  <c:v>-1.1830830000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.1681870000000001</c:v>
+                  <c:v>-1.2175800000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.21339</c:v>
+                  <c:v>-1.255233</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.245862</c:v>
+                  <c:v>-1.2992840000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.270575</c:v>
+                  <c:v>-1.345048</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.3097110000000001</c:v>
+                  <c:v>-1.3820749999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.3429070000000001</c:v>
+                  <c:v>-1.428223</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.4264399999999999</c:v>
+                  <c:v>-1.4601189999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.4858279999999999</c:v>
+                  <c:v>-1.5013339999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.5306489999999999</c:v>
+                  <c:v>-1.5352479999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.5589500000000001</c:v>
+                  <c:v>-1.5696380000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.5965100000000001</c:v>
+                  <c:v>-1.59632</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.618811</c:v>
+                  <c:v>-1.6223879999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.6499630000000001</c:v>
+                  <c:v>-1.644495</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.666752</c:v>
+                  <c:v>-1.668339</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.685845</c:v>
+                  <c:v>-1.686928</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.7041649999999999</c:v>
+                  <c:v>-1.705111</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.723393</c:v>
+                  <c:v>-1.72262</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.737519</c:v>
+                  <c:v>-1.737797</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.7543599999999999</c:v>
+                  <c:v>-1.7534270000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.767892</c:v>
+                  <c:v>-1.766016</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.7802659999999999</c:v>
+                  <c:v>-1.7795270000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.7916179999999999</c:v>
+                  <c:v>-1.790648</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.8012170000000001</c:v>
+                  <c:v>-1.80257</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.811966</c:v>
+                  <c:v>-1.812994</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-1.823237</c:v>
+                  <c:v>-1.8218920000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-1.830095</c:v>
+                  <c:v>-1.831523</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-1.8409530000000001</c:v>
+                  <c:v>-1.840822</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.847931</c:v>
+                  <c:v>-1.8473170000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-1.854568</c:v>
+                  <c:v>-1.8553139999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-1.8624540000000001</c:v>
+                  <c:v>-1.8635219999999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-1.8683270000000001</c:v>
+                  <c:v>-1.8675250000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-1.8756029999999999</c:v>
+                  <c:v>-1.876169</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.8820680000000001</c:v>
+                  <c:v>-1.8813880000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-1.8870709999999999</c:v>
+                  <c:v>-1.8874230000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-1.8925609999999999</c:v>
+                  <c:v>-1.8933720000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-1.8979790000000001</c:v>
+                  <c:v>-1.8981840000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-1.9023129999999999</c:v>
+                  <c:v>-1.9025479999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-1.907545</c:v>
+                  <c:v>-1.9074500000000001</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-1.91147</c:v>
+                  <c:v>-1.911025</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.9155759999999999</c:v>
+                  <c:v>-1.9159269999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-1.918755</c:v>
+                  <c:v>-1.918561</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-1.923257</c:v>
+                  <c:v>-1.923341</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.9275580000000001</c:v>
+                  <c:v>-1.9265699999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.930472</c:v>
+                  <c:v>-1.9304520000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.9339299999999999</c:v>
+                  <c:v>-1.9331640000000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.937311</c:v>
+                  <c:v>-1.937095</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.9398919999999999</c:v>
+                  <c:v>-1.9401550000000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.9414290000000001</c:v>
+                  <c:v>-1.9416389999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.9441139999999999</c:v>
+                  <c:v>-1.944564</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.9468760000000001</c:v>
+                  <c:v>-1.946898</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.949759</c:v>
+                  <c:v>-1.949705</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.9524490000000001</c:v>
+                  <c:v>-1.9518979999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-1.9541660000000001</c:v>
+                  <c:v>-1.9544060000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.955705</c:v>
+                  <c:v>-1.956064</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-1.9579789999999999</c:v>
+                  <c:v>-1.9569799999999999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-1.959449</c:v>
+                  <c:v>-1.959673</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-1.9622440000000001</c:v>
+                  <c:v>-1.960831</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1.963195</c:v>
+                  <c:v>-1.963436</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.9644010000000001</c:v>
+                  <c:v>-1.9649129999999999</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-1.96675</c:v>
+                  <c:v>-1.96652</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-1.967638</c:v>
+                  <c:v>-1.967436</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.9692529999999999</c:v>
+                  <c:v>-1.96943</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.970386</c:v>
+                  <c:v>-1.970764</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-1.9719409999999999</c:v>
+                  <c:v>-1.971919</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-1.9731639999999999</c:v>
+                  <c:v>-1.9727030000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.9745280000000001</c:v>
+                  <c:v>-1.974469</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-1.9756260000000001</c:v>
+                  <c:v>-1.9752749999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-1.9766509999999999</c:v>
+                  <c:v>-1.976745</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-1.977333</c:v>
+                  <c:v>-1.9775160000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-1.9780949999999999</c:v>
+                  <c:v>-1.9788859999999999</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-1.979401</c:v>
+                  <c:v>-1.9794480000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-1.9804569999999999</c:v>
+                  <c:v>-1.979984</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-1.9812190000000001</c:v>
+                  <c:v>-1.981133</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-1.981803</c:v>
+                  <c:v>-1.982283</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.9825550000000001</c:v>
+                  <c:v>-1.9824809999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-1.9835780000000001</c:v>
+                  <c:v>-1.9833890000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-1.9839089999999999</c:v>
+                  <c:v>-1.9842610000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.9850380000000001</c:v>
+                  <c:v>-1.984947</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.985193</c:v>
+                  <c:v>-1.985131</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-1.985859</c:v>
+                  <c:v>-1.9859500000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-1.986734</c:v>
+                  <c:v>-1.9864390000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-1.986893</c:v>
+                  <c:v>-1.9870380000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.9875499999999999</c:v>
+                  <c:v>-1.987708</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-1.9882390000000001</c:v>
+                  <c:v>-1.98827</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-1.9884219999999999</c:v>
+                  <c:v>-1.9886299999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.989344</c:v>
+                  <c:v>-1.9889019999999999</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.989582</c:v>
+                  <c:v>-1.9899720000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-1.9900340000000001</c:v>
+                  <c:v>-1.989959</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-1.990513</c:v>
+                  <c:v>-1.990691</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.9908459999999999</c:v>
+                  <c:v>-1.99092</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-1.991217</c:v>
+                  <c:v>-1.991433</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-1.991463</c:v>
+                  <c:v>-1.9915579999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-1.991868</c:v>
+                  <c:v>-1.992092</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1.9923470000000001</c:v>
+                  <c:v>-1.9921</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.992456</c:v>
+                  <c:v>-1.9926299999999999</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.9928189999999999</c:v>
+                  <c:v>-1.99298</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.9933479999999999</c:v>
+                  <c:v>-1.9932080000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.993449</c:v>
+                  <c:v>-1.993466</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-1.9938</c:v>
+                  <c:v>-1.9935970000000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-1.9941070000000001</c:v>
+                  <c:v>-1.9940640000000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.994129</c:v>
+                  <c:v>-1.9944999999999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.994637</c:v>
+                  <c:v>-1.9944299999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.9947980000000001</c:v>
+                  <c:v>-1.994823</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.9948710000000001</c:v>
+                  <c:v>-1.994936</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.994966</c:v>
+                  <c:v>-1.9950270000000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.9953419999999999</c:v>
+                  <c:v>-1.995409</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.99549</c:v>
+                  <c:v>-1.9952799999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.995625</c:v>
+                  <c:v>-1.9956590000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.995873</c:v>
+                  <c:v>-1.995984</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.996043</c:v>
+                  <c:v>-1.996184</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1.9962</c:v>
+                  <c:v>-1.9963409999999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.9963649999999999</c:v>
+                  <c:v>-1.9963979999999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.996529</c:v>
+                  <c:v>-1.9964500000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.9966349999999999</c:v>
+                  <c:v>-1.9965919999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.996605</c:v>
+                  <c:v>-1.996745</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.9969619999999999</c:v>
+                  <c:v>-1.9969030000000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.9970650000000001</c:v>
+                  <c:v>-1.9968699999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.9972369999999999</c:v>
+                  <c:v>-1.997344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59817344"/>
-        <c:axId val="59844096"/>
+        <c:axId val="59227520"/>
+        <c:axId val="59254272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59817344"/>
+        <c:axId val="59227520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -19120,15 +19136,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59844096"/>
+        <c:crossAx val="59254272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59844096"/>
+        <c:axId val="59254272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -19151,16 +19168,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59817344"/>
+        <c:crossAx val="59227520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -19171,7 +19190,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -19219,7 +19238,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -30964,23 +30983,26 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D201"/>
+      <selection sqref="A1:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -30988,13 +31010,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.2319999999999997E-3</v>
+        <v>4.9744999999999998E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-5.4900000000000001E-4</v>
+        <v>-1.17E-4</v>
+      </c>
+      <c r="E2">
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -31005,13 +31030,16 @@
         <v>5.025E-3</v>
       </c>
       <c r="B3">
-        <v>6.3169999999999997E-3</v>
+        <v>5.0506000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>1.26E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D3">
-        <v>-9.7990000000000004E-3</v>
+        <v>-1.0378E-2</v>
+      </c>
+      <c r="E3">
+        <v>7.8810000000000009E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -31019,13 +31047,16 @@
         <v>1.005E-2</v>
       </c>
       <c r="B4">
-        <v>6.2300000000000003E-3</v>
+        <v>5.0564999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>5.0500000000000002E-4</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D4">
-        <v>-2.0088999999999999E-2</v>
+        <v>-2.0376999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.1600000000000006E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -31033,13 +31064,16 @@
         <v>1.5075E-2</v>
       </c>
       <c r="B5">
-        <v>6.6E-3</v>
+        <v>5.1339999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>1.1360000000000001E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D5">
-        <v>-3.0279E-2</v>
+        <v>-3.0384000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.7659999999999995E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -31047,13 +31081,16 @@
         <v>2.0101000000000001E-2</v>
       </c>
       <c r="B6">
-        <v>6.6340000000000001E-3</v>
+        <v>5.1608000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>2.0230000000000001E-3</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="D6">
-        <v>-3.9470999999999999E-2</v>
+        <v>-4.0843999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>9.4800000000000006E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -31061,13 +31098,16 @@
         <v>2.5125999999999999E-2</v>
       </c>
       <c r="B7">
-        <v>6.6889999999999996E-3</v>
+        <v>5.2076999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>3.1580000000000002E-3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="D7">
-        <v>-5.0291000000000002E-2</v>
+        <v>-5.0284000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.0544E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -31075,13 +31115,16 @@
         <v>3.0151000000000001E-2</v>
       </c>
       <c r="B8">
-        <v>6.613E-3</v>
+        <v>5.2819999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>4.5490000000000001E-3</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="D8">
-        <v>-5.9757999999999999E-2</v>
+        <v>-6.0342E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.1372E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -31089,13 +31132,16 @@
         <v>3.5175999999999999E-2</v>
       </c>
       <c r="B9">
-        <v>6.4729999999999996E-3</v>
+        <v>5.3865999999999997E-2</v>
       </c>
       <c r="C9">
-        <v>6.1939999999999999E-3</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="D9">
-        <v>-7.1054999999999993E-2</v>
+        <v>-7.0476999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.2834E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -31103,13 +31149,16 @@
         <v>4.0201000000000001E-2</v>
       </c>
       <c r="B10">
-        <v>7.0600000000000003E-3</v>
+        <v>5.4547999999999999E-2</v>
       </c>
       <c r="C10">
-        <v>8.0929999999999995E-3</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="D10">
-        <v>-8.0987000000000003E-2</v>
+        <v>-8.2292000000000004E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.4795000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -31117,13 +31166,16 @@
         <v>4.5226000000000002E-2</v>
       </c>
       <c r="B11">
-        <v>6.8490000000000001E-3</v>
+        <v>5.5585000000000002E-2</v>
       </c>
       <c r="C11">
-        <v>1.0240000000000001E-2</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D11">
-        <v>-9.0998999999999997E-2</v>
+        <v>-9.1247999999999996E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.6149E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -31131,13 +31183,16 @@
         <v>5.0250999999999997E-2</v>
       </c>
       <c r="B12">
-        <v>6.9410000000000001E-3</v>
+        <v>5.5239999999999997E-2</v>
       </c>
       <c r="C12">
-        <v>1.2652E-2</v>
+        <v>9.8999999999999994E-5</v>
       </c>
       <c r="D12">
-        <v>-0.101312</v>
+        <v>-0.101011</v>
+      </c>
+      <c r="E12">
+        <v>1.8012E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -31145,13 +31200,16 @@
         <v>5.5275999999999999E-2</v>
       </c>
       <c r="B13">
-        <v>7.3309999999999998E-3</v>
+        <v>5.5784E-2</v>
       </c>
       <c r="C13">
-        <v>1.5341E-2</v>
+        <v>1.22E-4</v>
       </c>
       <c r="D13">
-        <v>-0.11140899999999999</v>
+        <v>-0.111147</v>
+      </c>
+      <c r="E13">
+        <v>2.034E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -31159,13 +31217,16 @@
         <v>6.0302000000000001E-2</v>
       </c>
       <c r="B14">
-        <v>6.7930000000000004E-3</v>
+        <v>5.6169999999999998E-2</v>
       </c>
       <c r="C14">
-        <v>1.8246999999999999E-2</v>
+        <v>1.46E-4</v>
       </c>
       <c r="D14">
-        <v>-0.121015</v>
+        <v>-0.121973</v>
+      </c>
+      <c r="E14">
+        <v>2.2901000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -31173,13 +31234,16 @@
         <v>6.5326999999999996E-2</v>
       </c>
       <c r="B15">
-        <v>7.0800000000000004E-3</v>
+        <v>5.7057999999999998E-2</v>
       </c>
       <c r="C15">
-        <v>2.1433000000000001E-2</v>
+        <v>1.73E-4</v>
       </c>
       <c r="D15">
-        <v>-0.13175500000000001</v>
+        <v>-0.13098099999999999</v>
+      </c>
+      <c r="E15">
+        <v>2.5283E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -31187,2603 +31251,3161 @@
         <v>7.0351999999999998E-2</v>
       </c>
       <c r="B16">
-        <v>6.8370000000000002E-3</v>
+        <v>5.7008000000000003E-2</v>
       </c>
       <c r="C16">
-        <v>2.4858000000000002E-2</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="D16">
-        <v>-0.141732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.142483</v>
+      </c>
+      <c r="E16">
+        <v>2.8236000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>7.5377E-2</v>
       </c>
       <c r="B17">
-        <v>7.1339999999999997E-3</v>
+        <v>5.8328999999999999E-2</v>
       </c>
       <c r="C17">
-        <v>2.8566999999999999E-2</v>
+        <v>2.2599999999999999E-4</v>
       </c>
       <c r="D17">
-        <v>-0.152279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.15157499999999999</v>
+      </c>
+      <c r="E17">
+        <v>3.0939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>8.0402000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>7.7190000000000002E-3</v>
+        <v>5.9145000000000003E-2</v>
       </c>
       <c r="C18">
-        <v>3.2524999999999998E-2</v>
+        <v>2.61E-4</v>
       </c>
       <c r="D18">
-        <v>-0.162827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.16282199999999999</v>
+      </c>
+      <c r="E18">
+        <v>3.4587E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>8.5427000000000003E-2</v>
       </c>
       <c r="B19">
-        <v>7.1069999999999996E-3</v>
+        <v>6.1015E-2</v>
       </c>
       <c r="C19">
-        <v>3.6725000000000001E-2</v>
+        <v>2.9500000000000001E-4</v>
       </c>
       <c r="D19">
-        <v>-0.17297000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.17410500000000001</v>
+      </c>
+      <c r="E19">
+        <v>3.8406000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>9.0452000000000005E-2</v>
       </c>
       <c r="B20">
-        <v>7.6150000000000002E-3</v>
+        <v>6.0963000000000003E-2</v>
       </c>
       <c r="C20">
-        <v>4.1251000000000003E-2</v>
+        <v>3.3100000000000002E-4</v>
       </c>
       <c r="D20">
-        <v>-0.18289800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.182642</v>
+      </c>
+      <c r="E20">
+        <v>4.1456E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>9.5477000000000006E-2</v>
       </c>
       <c r="B21">
-        <v>7.7210000000000004E-3</v>
+        <v>6.1682000000000001E-2</v>
       </c>
       <c r="C21">
-        <v>4.5964999999999999E-2</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="D21">
-        <v>-0.19345300000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.19431599999999999</v>
+      </c>
+      <c r="E21">
+        <v>4.5909999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>0.100503</v>
       </c>
       <c r="B22">
-        <v>7.672E-3</v>
+        <v>6.4005999999999993E-2</v>
       </c>
       <c r="C22">
-        <v>5.0970000000000001E-2</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="D22">
-        <v>-0.20464099999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.204212</v>
+      </c>
+      <c r="E22">
+        <v>5.0089000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>0.105528</v>
       </c>
       <c r="B23">
-        <v>7.9979999999999999E-3</v>
+        <v>6.3027E-2</v>
       </c>
       <c r="C23">
-        <v>5.6271000000000002E-2</v>
+        <v>4.5199999999999998E-4</v>
       </c>
       <c r="D23">
-        <v>-0.21521299999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.215888</v>
+      </c>
+      <c r="E23">
+        <v>5.4727999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>0.110553</v>
       </c>
       <c r="B24">
-        <v>7.979E-3</v>
+        <v>6.4599000000000004E-2</v>
       </c>
       <c r="C24">
-        <v>6.1872000000000003E-2</v>
+        <v>5.0600000000000005E-4</v>
       </c>
       <c r="D24">
-        <v>-0.225575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.226716</v>
+      </c>
+      <c r="E24">
+        <v>5.9674999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>0.115578</v>
       </c>
       <c r="B25">
-        <v>7.8709999999999995E-3</v>
+        <v>6.5484000000000001E-2</v>
       </c>
       <c r="C25">
-        <v>6.7674999999999999E-2</v>
+        <v>5.62E-4</v>
       </c>
       <c r="D25">
-        <v>-0.23724799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.235458</v>
+      </c>
+      <c r="E25">
+        <v>6.3848000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>0.120603</v>
       </c>
       <c r="B26">
-        <v>8.2389999999999998E-3</v>
+        <v>6.5740000000000007E-2</v>
       </c>
       <c r="C26">
-        <v>7.3749999999999996E-2</v>
+        <v>5.8600000000000004E-4</v>
       </c>
       <c r="D26">
-        <v>-0.24802099999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.247561</v>
+      </c>
+      <c r="E26">
+        <v>6.9347000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>0.12562799999999999</v>
       </c>
       <c r="B27">
-        <v>8.4790000000000004E-3</v>
+        <v>6.6383999999999999E-2</v>
       </c>
       <c r="C27">
-        <v>8.0093999999999999E-2</v>
+        <v>6.5099999999999999E-4</v>
       </c>
       <c r="D27">
-        <v>-0.257546</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-0.25784099999999999</v>
+      </c>
+      <c r="E27">
+        <v>7.4734999999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>0.13065299999999999</v>
       </c>
       <c r="B28">
-        <v>8.5030000000000001E-3</v>
+        <v>6.7926E-2</v>
       </c>
       <c r="C28">
-        <v>8.6698999999999998E-2</v>
+        <v>7.3099999999999999E-4</v>
       </c>
       <c r="D28">
-        <v>-0.26910400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.26975300000000002</v>
+      </c>
+      <c r="E28">
+        <v>8.133E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>0.13567799999999999</v>
       </c>
       <c r="B29">
-        <v>8.4790000000000004E-3</v>
+        <v>6.8650000000000003E-2</v>
       </c>
       <c r="C29">
-        <v>9.3576000000000006E-2</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="D29">
-        <v>-0.28051999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.27954800000000002</v>
+      </c>
+      <c r="E29">
+        <v>8.6620000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>0.140704</v>
       </c>
       <c r="B30">
-        <v>8.7150000000000005E-3</v>
+        <v>6.9973999999999995E-2</v>
       </c>
       <c r="C30">
-        <v>0.100816</v>
+        <v>8.25E-4</v>
       </c>
       <c r="D30">
-        <v>-0.28964600000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.29123700000000002</v>
+      </c>
+      <c r="E30">
+        <v>9.3148999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>0.145729</v>
       </c>
       <c r="B31">
-        <v>9.5259999999999997E-3</v>
+        <v>7.0434999999999998E-2</v>
       </c>
       <c r="C31">
-        <v>0.108336</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="D31">
-        <v>-0.30226399999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.30135899999999999</v>
+      </c>
+      <c r="E31">
+        <v>9.9481E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>0.150754</v>
       </c>
       <c r="B32">
-        <v>8.8699999999999994E-3</v>
+        <v>7.1091000000000001E-2</v>
       </c>
       <c r="C32">
-        <v>0.115943</v>
+        <v>9.9200000000000004E-4</v>
       </c>
       <c r="D32">
-        <v>-0.312722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.31266899999999997</v>
+      </c>
+      <c r="E32">
+        <v>0.106492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>0.155779</v>
       </c>
       <c r="B33">
-        <v>8.8950000000000001E-3</v>
+        <v>7.1786000000000003E-2</v>
       </c>
       <c r="C33">
-        <v>0.12405099999999999</v>
+        <v>1.07E-3</v>
       </c>
       <c r="D33">
-        <v>-0.32465699999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.324125</v>
+      </c>
+      <c r="E33">
+        <v>0.11387899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>0.160804</v>
       </c>
       <c r="B34">
-        <v>8.7679999999999998E-3</v>
+        <v>7.4015999999999998E-2</v>
       </c>
       <c r="C34">
-        <v>0.132355</v>
+        <v>1.1640000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>-0.33621699999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.335231</v>
+      </c>
+      <c r="E34">
+        <v>0.12138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>0.165829</v>
       </c>
       <c r="B35">
-        <v>9.2090000000000002E-3</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="C35">
-        <v>0.14094499999999999</v>
+        <v>1.222E-3</v>
       </c>
       <c r="D35">
-        <v>-0.34779100000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.34600500000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.128609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>0.17085400000000001</v>
       </c>
       <c r="B36">
-        <v>9.6109999999999998E-3</v>
+        <v>7.6951000000000006E-2</v>
       </c>
       <c r="C36">
-        <v>0.149921</v>
+        <v>1.3190000000000001E-3</v>
       </c>
       <c r="D36">
-        <v>-0.35936499999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.36049399999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.13899500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>0.17587900000000001</v>
       </c>
       <c r="B37">
-        <v>9.2549999999999993E-3</v>
+        <v>7.7854000000000007E-2</v>
       </c>
       <c r="C37">
-        <v>0.15895000000000001</v>
+        <v>1.384E-3</v>
       </c>
       <c r="D37">
-        <v>-0.37014200000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.36971999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.14564099999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>0.18090500000000001</v>
       </c>
       <c r="B38">
-        <v>1.0682000000000001E-2</v>
+        <v>7.8806000000000001E-2</v>
       </c>
       <c r="C38">
-        <v>0.16849600000000001</v>
+        <v>1.5139999999999999E-3</v>
       </c>
       <c r="D38">
-        <v>-0.38234699999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.38236399999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.15545400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>0.18593000000000001</v>
       </c>
       <c r="B39">
-        <v>1.0545000000000001E-2</v>
+        <v>8.0168000000000003E-2</v>
       </c>
       <c r="C39">
-        <v>0.178145</v>
+        <v>1.609E-3</v>
       </c>
       <c r="D39">
-        <v>-0.39443099999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.39421699999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.164714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>0.19095500000000001</v>
       </c>
       <c r="B40">
-        <v>1.1353E-2</v>
+        <v>8.0934000000000006E-2</v>
       </c>
       <c r="C40">
-        <v>0.18817700000000001</v>
+        <v>1.6949999999999999E-3</v>
       </c>
       <c r="D40">
-        <v>-0.40604499999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.40665499999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.17466799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>0.19597999999999999</v>
       </c>
       <c r="B41">
-        <v>1.0600999999999999E-2</v>
+        <v>8.1727999999999995E-2</v>
       </c>
       <c r="C41">
-        <v>0.198542</v>
+        <v>1.7619999999999999E-3</v>
       </c>
       <c r="D41">
-        <v>-0.41933599999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.41933100000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.18501500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>0.20100499999999999</v>
       </c>
       <c r="B42">
-        <v>1.0607999999999999E-2</v>
+        <v>8.3463999999999997E-2</v>
       </c>
       <c r="C42">
-        <v>0.20933499999999999</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D42">
-        <v>-0.43166199999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.43025200000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.194521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>0.20602999999999999</v>
       </c>
       <c r="B43">
-        <v>1.0305999999999999E-2</v>
+        <v>8.7313000000000002E-2</v>
       </c>
       <c r="C43">
-        <v>0.21994900000000001</v>
+        <v>2.0760000000000002E-3</v>
       </c>
       <c r="D43">
-        <v>-0.44312699999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.44236900000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.20547099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>0.21105499999999999</v>
       </c>
       <c r="B44">
-        <v>1.184E-2</v>
+        <v>8.8120000000000004E-2</v>
       </c>
       <c r="C44">
-        <v>0.23102500000000001</v>
+        <v>2.1220000000000002E-3</v>
       </c>
       <c r="D44">
-        <v>-0.455627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.45587699999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.21735199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>0.21607999999999999</v>
       </c>
       <c r="B45">
-        <v>1.0477999999999999E-2</v>
+        <v>8.9652999999999997E-2</v>
       </c>
       <c r="C45">
-        <v>0.24272299999999999</v>
+        <v>2.2750000000000001E-3</v>
       </c>
       <c r="D45">
-        <v>-0.46873900000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.46631299999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.22719300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>0.221106</v>
       </c>
       <c r="B46">
-        <v>1.1391999999999999E-2</v>
+        <v>9.1619999999999993E-2</v>
       </c>
       <c r="C46">
-        <v>0.25479299999999999</v>
+        <v>2.3080000000000002E-3</v>
       </c>
       <c r="D46">
-        <v>-0.48252099999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.48129100000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.24108199999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>0.226131</v>
       </c>
       <c r="B47">
-        <v>1.1629E-2</v>
+        <v>9.3205999999999997E-2</v>
       </c>
       <c r="C47">
-        <v>0.26655899999999999</v>
+        <v>2.568E-3</v>
       </c>
       <c r="D47">
-        <v>-0.49385400000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.49384800000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.25392900000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>0.231156</v>
       </c>
       <c r="B48">
-        <v>1.1903E-2</v>
+        <v>9.5061000000000007E-2</v>
       </c>
       <c r="C48">
-        <v>0.27898200000000001</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="D48">
-        <v>-0.50712599999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.50490599999999997</v>
+      </c>
+      <c r="E48">
+        <v>0.264961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>0.236181</v>
       </c>
       <c r="B49">
-        <v>1.1953999999999999E-2</v>
+        <v>9.7603999999999996E-2</v>
       </c>
       <c r="C49">
-        <v>0.29156900000000002</v>
+        <v>2.8660000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>-0.52033600000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.51941099999999996</v>
+      </c>
+      <c r="E49">
+        <v>0.28006500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>0.241206</v>
       </c>
       <c r="B50">
-        <v>1.2071E-2</v>
+        <v>9.9820000000000006E-2</v>
       </c>
       <c r="C50">
-        <v>0.30450199999999999</v>
+        <v>3.0760000000000002E-3</v>
       </c>
       <c r="D50">
-        <v>-0.53347299999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.53318600000000005</v>
+      </c>
+      <c r="E50">
+        <v>0.29486000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>0.24623100000000001</v>
       </c>
       <c r="B51">
-        <v>1.1351E-2</v>
+        <v>0.10120899999999999</v>
       </c>
       <c r="C51">
-        <v>0.31783499999999998</v>
+        <v>3.2560000000000002E-3</v>
       </c>
       <c r="D51">
-        <v>-0.54740900000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.54561899999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.30844199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>0.25125599999999998</v>
       </c>
       <c r="B52">
-        <v>1.2751999999999999E-2</v>
+        <v>0.103543</v>
       </c>
       <c r="C52">
-        <v>0.33113999999999999</v>
+        <v>3.395E-3</v>
       </c>
       <c r="D52">
-        <v>-0.56117499999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.558975</v>
+      </c>
+      <c r="E52">
+        <v>0.32320900000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>0.25628099999999998</v>
       </c>
       <c r="B53">
-        <v>1.4258E-2</v>
+        <v>0.106174</v>
       </c>
       <c r="C53">
-        <v>0.345111</v>
+        <v>3.6020000000000002E-3</v>
       </c>
       <c r="D53">
-        <v>-0.57401500000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.573245</v>
+      </c>
+      <c r="E53">
+        <v>0.33957799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>0.26130700000000001</v>
       </c>
       <c r="B54">
-        <v>1.3887E-2</v>
+        <v>0.109282</v>
       </c>
       <c r="C54">
-        <v>0.35881800000000003</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="D54">
-        <v>-0.58738999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.58769400000000005</v>
+      </c>
+      <c r="E54">
+        <v>0.35645500000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>0.26633200000000001</v>
       </c>
       <c r="B55">
-        <v>1.4636E-2</v>
+        <v>0.11165700000000001</v>
       </c>
       <c r="C55">
-        <v>0.3735</v>
+        <v>3.999E-3</v>
       </c>
       <c r="D55">
-        <v>-0.60226999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.602302</v>
+      </c>
+      <c r="E55">
+        <v>0.37404100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>0.27135700000000001</v>
       </c>
       <c r="B56">
-        <v>1.4685999999999999E-2</v>
+        <v>0.115577</v>
       </c>
       <c r="C56">
-        <v>0.38841100000000001</v>
+        <v>4.1419999999999998E-3</v>
       </c>
       <c r="D56">
-        <v>-0.61876699999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.61857799999999996</v>
+      </c>
+      <c r="E56">
+        <v>0.39388899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>0.27638200000000002</v>
       </c>
       <c r="B57">
-        <v>1.4285000000000001E-2</v>
+        <v>0.11774800000000001</v>
       </c>
       <c r="C57">
-        <v>0.40303699999999998</v>
+        <v>4.3579999999999999E-3</v>
       </c>
       <c r="D57">
-        <v>-0.63261500000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.632822</v>
+      </c>
+      <c r="E57">
+        <v>0.41187299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>0.28140700000000002</v>
       </c>
       <c r="B58">
-        <v>1.3627999999999999E-2</v>
+        <v>0.120669</v>
       </c>
       <c r="C58">
-        <v>0.418321</v>
+        <v>4.6049999999999997E-3</v>
       </c>
       <c r="D58">
-        <v>-0.64682799999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.64794399999999996</v>
+      </c>
+      <c r="E58">
+        <v>0.43146099999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>0.28643200000000002</v>
       </c>
       <c r="B59">
-        <v>1.5698E-2</v>
+        <v>0.124052</v>
       </c>
       <c r="C59">
-        <v>0.43345600000000001</v>
+        <v>4.9290000000000002E-3</v>
       </c>
       <c r="D59">
-        <v>-0.66233799999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.66162799999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.449768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>0.29145700000000002</v>
       </c>
       <c r="B60">
-        <v>1.3434E-2</v>
+        <v>0.12765899999999999</v>
       </c>
       <c r="C60">
-        <v>0.449542</v>
+        <v>5.1229999999999999E-3</v>
       </c>
       <c r="D60">
-        <v>-0.67744700000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.67805199999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.47181499999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>0.29648200000000002</v>
       </c>
       <c r="B61">
-        <v>1.7564E-2</v>
+        <v>0.13305700000000001</v>
       </c>
       <c r="C61">
-        <v>0.465613</v>
+        <v>5.4489999999999999E-3</v>
       </c>
       <c r="D61">
-        <v>-0.69374400000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.69418000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.49428299999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>0.301508</v>
       </c>
       <c r="B62">
-        <v>1.5547999999999999E-2</v>
+        <v>0.13800999999999999</v>
       </c>
       <c r="C62">
-        <v>0.48165400000000003</v>
+        <v>5.8100000000000001E-3</v>
       </c>
       <c r="D62">
-        <v>-0.70977299999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.71186199999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.51953099999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>0.306533</v>
       </c>
       <c r="B63">
-        <v>2.0084999999999999E-2</v>
+        <v>0.139788</v>
       </c>
       <c r="C63">
-        <v>0.49773600000000001</v>
+        <v>5.9659999999999999E-3</v>
       </c>
       <c r="D63">
-        <v>-0.72665500000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.72517200000000004</v>
+      </c>
+      <c r="E63">
+        <v>0.538574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>0.311558</v>
       </c>
       <c r="B64">
-        <v>2.266E-2</v>
+        <v>0.14564199999999999</v>
       </c>
       <c r="C64">
-        <v>0.51405599999999996</v>
+        <v>6.378E-3</v>
       </c>
       <c r="D64">
-        <v>-0.73959699999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.74248000000000003</v>
+      </c>
+      <c r="E64">
+        <v>0.56441699999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>0.316583</v>
       </c>
       <c r="B65">
-        <v>1.6941000000000001E-2</v>
+        <v>0.149641</v>
       </c>
       <c r="C65">
-        <v>0.53135200000000005</v>
+        <v>6.7140000000000003E-3</v>
       </c>
       <c r="D65">
-        <v>-0.75876500000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.75931199999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.58995299999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>0.321608</v>
       </c>
       <c r="B66">
-        <v>2.1203E-2</v>
+        <v>0.155727</v>
       </c>
       <c r="C66">
-        <v>0.54821699999999995</v>
+        <v>7.012E-3</v>
       </c>
       <c r="D66">
-        <v>-0.77555300000000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.774281</v>
+      </c>
+      <c r="E66">
+        <v>0.61307100000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>0.32663300000000001</v>
       </c>
       <c r="B67">
-        <v>2.0114E-2</v>
+        <v>0.16327800000000001</v>
       </c>
       <c r="C67">
-        <v>0.565689</v>
+        <v>7.3709999999999999E-3</v>
       </c>
       <c r="D67">
-        <v>-0.79415100000000005</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.79423299999999997</v>
+      </c>
+      <c r="E67">
+        <v>0.64462399999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>0.33165800000000001</v>
       </c>
       <c r="B68">
-        <v>2.0820000000000002E-2</v>
+        <v>0.16922300000000001</v>
       </c>
       <c r="C68">
-        <v>0.58298399999999995</v>
+        <v>7.8200000000000006E-3</v>
       </c>
       <c r="D68">
-        <v>-0.81079199999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.81256700000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.674485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>0.33668300000000001</v>
       </c>
       <c r="B69">
-        <v>1.9772000000000001E-2</v>
+        <v>0.17529800000000001</v>
       </c>
       <c r="C69">
-        <v>0.59961399999999998</v>
+        <v>8.1349999999999999E-3</v>
       </c>
       <c r="D69">
-        <v>-0.82876700000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.830484</v>
+      </c>
+      <c r="E69">
+        <v>0.70405700000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>0.34170899999999998</v>
       </c>
       <c r="B70">
-        <v>2.3306E-2</v>
+        <v>0.18229500000000001</v>
       </c>
       <c r="C70">
-        <v>0.61758100000000005</v>
+        <v>8.5679999999999992E-3</v>
       </c>
       <c r="D70">
-        <v>-0.84957199999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.84848599999999996</v>
+      </c>
+      <c r="E70">
+        <v>0.73460400000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>0.34673399999999999</v>
       </c>
       <c r="B71">
-        <v>2.4506E-2</v>
+        <v>0.19395899999999999</v>
       </c>
       <c r="C71">
-        <v>0.63518799999999997</v>
+        <v>9.0069999999999994E-3</v>
       </c>
       <c r="D71">
-        <v>-0.86654200000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.86831700000000001</v>
+      </c>
+      <c r="E71">
+        <v>0.76895800000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>0.35175899999999999</v>
       </c>
       <c r="B72">
-        <v>2.4514000000000001E-2</v>
+        <v>0.20377000000000001</v>
       </c>
       <c r="C72">
-        <v>0.65287499999999998</v>
+        <v>9.6050000000000007E-3</v>
       </c>
       <c r="D72">
-        <v>-0.88707499999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.88949800000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.806732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>0.35678399999999999</v>
       </c>
       <c r="B73">
-        <v>2.2383E-2</v>
+        <v>0.212004</v>
       </c>
       <c r="C73">
-        <v>0.66944999999999999</v>
+        <v>1.0366E-2</v>
       </c>
       <c r="D73">
-        <v>-0.90590099999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.90784399999999998</v>
+      </c>
+      <c r="E73">
+        <v>0.84046699999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>0.36180899999999999</v>
       </c>
       <c r="B74">
-        <v>3.1315000000000003E-2</v>
+        <v>0.22897999999999999</v>
       </c>
       <c r="C74">
-        <v>0.68734799999999996</v>
+        <v>1.0999E-2</v>
       </c>
       <c r="D74">
-        <v>-0.92743100000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.93040900000000004</v>
+      </c>
+      <c r="E74">
+        <v>0.88246599999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>0.36683399999999999</v>
       </c>
       <c r="B75">
-        <v>2.6335000000000001E-2</v>
+        <v>0.23643400000000001</v>
       </c>
       <c r="C75">
-        <v>0.70340100000000005</v>
+        <v>1.1802999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>-0.94738599999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.95179199999999997</v>
+      </c>
+      <c r="E75">
+        <v>0.92344999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>0.371859</v>
       </c>
       <c r="B76">
-        <v>3.6427000000000001E-2</v>
+        <v>0.25381599999999999</v>
       </c>
       <c r="C76">
-        <v>0.721522</v>
+        <v>1.2775E-2</v>
       </c>
       <c r="D76">
-        <v>-0.96954499999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.97657499999999997</v>
+      </c>
+      <c r="E76">
+        <v>0.97217600000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>0.376884</v>
       </c>
       <c r="B77">
-        <v>3.3156999999999999E-2</v>
+        <v>0.27206999999999998</v>
       </c>
       <c r="C77">
-        <v>0.73888299999999996</v>
+        <v>1.3462999999999999E-2</v>
       </c>
       <c r="D77">
-        <v>-0.99544999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.99915500000000002</v>
+      </c>
+      <c r="E77">
+        <v>1.0172669999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>0.38191000000000003</v>
       </c>
       <c r="B78">
-        <v>4.2428E-2</v>
+        <v>0.29327999999999999</v>
       </c>
       <c r="C78">
-        <v>0.75470400000000004</v>
+        <v>1.4817E-2</v>
       </c>
       <c r="D78">
-        <v>-1.016375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-1.022864</v>
+      </c>
+      <c r="E78">
+        <v>1.0665690000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>0.38693499999999997</v>
       </c>
       <c r="B79">
-        <v>4.0035000000000001E-2</v>
+        <v>0.31213299999999999</v>
       </c>
       <c r="C79">
-        <v>0.77107999999999999</v>
+        <v>1.6206999999999999E-2</v>
       </c>
       <c r="D79">
-        <v>-1.042265</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-1.049938</v>
+      </c>
+      <c r="E79">
+        <v>1.124018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>0.39195999999999998</v>
       </c>
       <c r="B80">
-        <v>2.8826000000000001E-2</v>
+        <v>0.33904499999999999</v>
       </c>
       <c r="C80">
-        <v>0.78681100000000004</v>
+        <v>1.7821E-2</v>
       </c>
       <c r="D80">
-        <v>-1.062508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-1.0795950000000001</v>
+      </c>
+      <c r="E80">
+        <v>1.188725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>0.39698499999999998</v>
       </c>
       <c r="B81">
-        <v>2.5420000000000002E-2</v>
+        <v>0.37000499999999997</v>
       </c>
       <c r="C81">
-        <v>0.80104799999999998</v>
+        <v>1.9037999999999999E-2</v>
       </c>
       <c r="D81">
-        <v>-1.091121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-1.1108130000000001</v>
+      </c>
+      <c r="E81">
+        <v>1.258065</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>0.40200999999999998</v>
       </c>
       <c r="B82">
-        <v>4.9077999999999997E-2</v>
+        <v>0.40549299999999999</v>
       </c>
       <c r="C82">
-        <v>0.81683399999999995</v>
+        <v>2.1734E-2</v>
       </c>
       <c r="D82">
-        <v>-1.1141799999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-1.149152</v>
+      </c>
+      <c r="E82">
+        <v>1.347445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>0.40703499999999998</v>
       </c>
       <c r="B83">
-        <v>6.2029000000000001E-2</v>
+        <v>0.44554199999999999</v>
       </c>
       <c r="C83">
-        <v>0.82804900000000004</v>
+        <v>2.4133000000000002E-2</v>
       </c>
       <c r="D83">
-        <v>-1.145716</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-1.1830830000000001</v>
+      </c>
+      <c r="E83">
+        <v>1.4288179999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>0.41205999999999998</v>
       </c>
       <c r="B84">
-        <v>4.7128000000000003E-2</v>
+        <v>0.47517300000000001</v>
       </c>
       <c r="C84">
-        <v>0.84032700000000005</v>
+        <v>2.5711000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>-1.1681870000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-1.2175800000000001</v>
+      </c>
+      <c r="E84">
+        <v>1.512786</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>0.41708499999999998</v>
       </c>
       <c r="B85">
-        <v>6.2980999999999995E-2</v>
+        <v>0.51553400000000005</v>
       </c>
       <c r="C85">
-        <v>0.84830799999999995</v>
+        <v>2.8532999999999999E-2</v>
       </c>
       <c r="D85">
-        <v>-1.21339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-1.255233</v>
+      </c>
+      <c r="E85">
+        <v>1.6084130000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>0.42211100000000001</v>
       </c>
       <c r="B86">
-        <v>9.2662999999999995E-2</v>
+        <v>0.56003400000000003</v>
       </c>
       <c r="C86">
-        <v>0.85606499999999996</v>
+        <v>2.9114000000000001E-2</v>
       </c>
       <c r="D86">
-        <v>-1.245862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-1.2992840000000001</v>
+      </c>
+      <c r="E86">
+        <v>1.72082</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>0.42713600000000002</v>
       </c>
       <c r="B87">
-        <v>0.112966</v>
+        <v>0.60723400000000005</v>
       </c>
       <c r="C87">
-        <v>0.86363900000000005</v>
+        <v>3.0963000000000001E-2</v>
       </c>
       <c r="D87">
-        <v>-1.270575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-1.345048</v>
+      </c>
+      <c r="E87">
+        <v>1.843097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>0.43216100000000002</v>
       </c>
       <c r="B88">
-        <v>0.11325399999999999</v>
+        <v>0.645845</v>
       </c>
       <c r="C88">
-        <v>0.863487</v>
+        <v>3.0884999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>-1.3097110000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-1.3820749999999999</v>
+      </c>
+      <c r="E88">
+        <v>1.943206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>0.43718600000000002</v>
       </c>
       <c r="B89">
-        <v>0.18071200000000001</v>
+        <v>0.69177999999999995</v>
       </c>
       <c r="C89">
-        <v>0.86628899999999998</v>
+        <v>2.9472000000000002E-2</v>
       </c>
       <c r="D89">
-        <v>-1.3429070000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-1.428223</v>
+      </c>
+      <c r="E89">
+        <v>2.070662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>0.44221100000000002</v>
       </c>
       <c r="B90">
-        <v>0.49498799999999998</v>
+        <v>0.71967099999999995</v>
       </c>
       <c r="C90">
-        <v>0.83892299999999997</v>
+        <v>2.9009E-2</v>
       </c>
       <c r="D90">
-        <v>-1.4264399999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-1.4601189999999999</v>
+      </c>
+      <c r="E90">
+        <v>2.161616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>0.44723600000000002</v>
       </c>
       <c r="B91">
-        <v>0.68122400000000005</v>
+        <v>0.756081</v>
       </c>
       <c r="C91">
-        <v>0.814272</v>
+        <v>2.8166E-2</v>
       </c>
       <c r="D91">
-        <v>-1.4858279999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-1.5013339999999999</v>
+      </c>
+      <c r="E91">
+        <v>2.282168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>0.45226100000000002</v>
       </c>
       <c r="B92">
-        <v>0.75106399999999995</v>
+        <v>0.78230699999999997</v>
       </c>
       <c r="C92">
-        <v>0.79203400000000002</v>
+        <v>2.5919000000000001E-2</v>
       </c>
       <c r="D92">
-        <v>-1.5306489999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-1.5352479999999999</v>
+      </c>
+      <c r="E92">
+        <v>2.3823310000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>0.45728600000000003</v>
       </c>
       <c r="B93">
-        <v>0.79651099999999997</v>
+        <v>0.80962500000000004</v>
       </c>
       <c r="C93">
-        <v>0.77833200000000002</v>
+        <v>2.3380999999999999E-2</v>
       </c>
       <c r="D93">
-        <v>-1.5589500000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-1.5696380000000001</v>
+      </c>
+      <c r="E93">
+        <v>2.4861239999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>0.462312</v>
       </c>
       <c r="B94">
-        <v>0.83145400000000003</v>
+        <v>0.82977699999999999</v>
       </c>
       <c r="C94">
-        <v>0.75409099999999996</v>
+        <v>2.2334E-2</v>
       </c>
       <c r="D94">
-        <v>-1.5965100000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-1.59632</v>
+      </c>
+      <c r="E94">
+        <v>2.5691380000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>0.467337</v>
       </c>
       <c r="B95">
-        <v>0.84159399999999995</v>
+        <v>0.844279</v>
       </c>
       <c r="C95">
-        <v>0.74046699999999999</v>
+        <v>2.0771000000000001E-2</v>
       </c>
       <c r="D95">
-        <v>-1.618811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-1.6223879999999999</v>
+      </c>
+      <c r="E95">
+        <v>2.6511619999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>0.472362</v>
       </c>
       <c r="B96">
-        <v>0.863313</v>
+        <v>0.85985199999999995</v>
       </c>
       <c r="C96">
-        <v>0.71264000000000005</v>
+        <v>1.9702000000000001E-2</v>
       </c>
       <c r="D96">
-        <v>-1.6499630000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-1.644495</v>
+      </c>
+      <c r="E96">
+        <v>2.7220249999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>0.47738700000000001</v>
       </c>
       <c r="B97">
-        <v>0.870618</v>
+        <v>0.87214700000000001</v>
       </c>
       <c r="C97">
-        <v>0.70137499999999997</v>
+        <v>1.7981E-2</v>
       </c>
       <c r="D97">
-        <v>-1.666752</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-1.668339</v>
+      </c>
+      <c r="E97">
+        <v>2.7991350000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>0.48241200000000001</v>
       </c>
       <c r="B98">
-        <v>0.88267099999999998</v>
+        <v>0.88277000000000005</v>
       </c>
       <c r="C98">
-        <v>0.68714200000000003</v>
+        <v>1.7528999999999999E-2</v>
       </c>
       <c r="D98">
-        <v>-1.685845</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-1.686928</v>
+      </c>
+      <c r="E98">
+        <v>2.8607909999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>0.48743700000000001</v>
       </c>
       <c r="B99">
-        <v>0.88982499999999998</v>
+        <v>0.89183699999999999</v>
       </c>
       <c r="C99">
-        <v>0.66862699999999997</v>
+        <v>1.5958E-2</v>
       </c>
       <c r="D99">
-        <v>-1.7041649999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-1.705111</v>
+      </c>
+      <c r="E99">
+        <v>2.920836</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>0.49246200000000001</v>
       </c>
       <c r="B100">
-        <v>0.90212300000000001</v>
+        <v>0.90061400000000003</v>
       </c>
       <c r="C100">
-        <v>0.65010299999999999</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="D100">
-        <v>-1.723393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-1.72262</v>
+      </c>
+      <c r="E100">
+        <v>2.9800710000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>0.49748700000000001</v>
       </c>
       <c r="B101">
-        <v>0.90761199999999997</v>
+        <v>0.90779799999999999</v>
       </c>
       <c r="C101">
-        <v>0.63567899999999999</v>
+        <v>1.4621E-2</v>
       </c>
       <c r="D101">
-        <v>-1.737519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-1.737797</v>
+      </c>
+      <c r="E101">
+        <v>3.0317530000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>0.50251299999999999</v>
       </c>
       <c r="B102">
-        <v>0.91572699999999996</v>
+        <v>0.91486400000000001</v>
       </c>
       <c r="C102">
-        <v>0.61556200000000005</v>
+        <v>1.3547E-2</v>
       </c>
       <c r="D102">
-        <v>-1.7543599999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-1.7534270000000001</v>
+      </c>
+      <c r="E102">
+        <v>3.0852339999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>0.50753800000000004</v>
       </c>
       <c r="B103">
-        <v>0.92175200000000002</v>
+        <v>0.92030100000000004</v>
       </c>
       <c r="C103">
-        <v>0.59958999999999996</v>
+        <v>1.2914E-2</v>
       </c>
       <c r="D103">
-        <v>-1.767892</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>-1.766016</v>
+      </c>
+      <c r="E103">
+        <v>3.128838</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>0.51256299999999999</v>
       </c>
       <c r="B104">
-        <v>0.92654899999999996</v>
+        <v>0.92630999999999997</v>
       </c>
       <c r="C104">
-        <v>0.58441299999999996</v>
+        <v>1.2227999999999999E-2</v>
       </c>
       <c r="D104">
-        <v>-1.7802659999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>-1.7795270000000001</v>
+      </c>
+      <c r="E104">
+        <v>3.176024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>0.51758800000000005</v>
       </c>
       <c r="B105">
-        <v>0.93089100000000002</v>
+        <v>0.93067999999999995</v>
       </c>
       <c r="C105">
-        <v>0.56967500000000004</v>
+        <v>1.2036E-2</v>
       </c>
       <c r="D105">
-        <v>-1.7916179999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>-1.790648</v>
+      </c>
+      <c r="E105">
+        <v>3.2154069999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>0.52261299999999999</v>
       </c>
       <c r="B106">
-        <v>0.93507899999999999</v>
+        <v>0.93564999999999998</v>
       </c>
       <c r="C106">
-        <v>0.55866899999999997</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="D106">
-        <v>-1.8012170000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>-1.80257</v>
+      </c>
+      <c r="E106">
+        <v>3.2575050000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>0.52763800000000005</v>
       </c>
       <c r="B107">
-        <v>0.93893099999999996</v>
+        <v>0.93979199999999996</v>
       </c>
       <c r="C107">
-        <v>0.54283800000000004</v>
+        <v>1.0829999999999999E-2</v>
       </c>
       <c r="D107">
-        <v>-1.811966</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>-1.812994</v>
+      </c>
+      <c r="E107">
+        <v>3.2947259999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>0.532663</v>
       </c>
       <c r="B108">
-        <v>0.943967</v>
+        <v>0.94305000000000005</v>
       </c>
       <c r="C108">
-        <v>0.52593000000000001</v>
+        <v>1.0311000000000001E-2</v>
       </c>
       <c r="D108">
-        <v>-1.823237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>-1.8218920000000001</v>
+      </c>
+      <c r="E108">
+        <v>3.326559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>0.53768800000000005</v>
       </c>
       <c r="B109">
-        <v>0.94582200000000005</v>
+        <v>0.94705600000000001</v>
       </c>
       <c r="C109">
-        <v>0.51716200000000001</v>
+        <v>9.9159999999999995E-3</v>
       </c>
       <c r="D109">
-        <v>-1.830095</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>-1.831523</v>
+      </c>
+      <c r="E109">
+        <v>3.3613379999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>0.54271400000000003</v>
       </c>
       <c r="B110">
-        <v>0.95046600000000003</v>
+        <v>0.95024799999999998</v>
       </c>
       <c r="C110">
-        <v>0.49777700000000003</v>
+        <v>9.4230000000000008E-3</v>
       </c>
       <c r="D110">
-        <v>-1.8409530000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>-1.840822</v>
+      </c>
+      <c r="E110">
+        <v>3.3950239999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>0.54773899999999998</v>
       </c>
       <c r="B111">
-        <v>0.952955</v>
+        <v>0.95258500000000002</v>
       </c>
       <c r="C111">
-        <v>0.48757899999999998</v>
+        <v>9.2899999999999996E-3</v>
       </c>
       <c r="D111">
-        <v>-1.847931</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>-1.8473170000000001</v>
+      </c>
+      <c r="E111">
+        <v>3.418774</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>0.55276400000000003</v>
       </c>
       <c r="B112">
-        <v>0.95512300000000006</v>
+        <v>0.95543199999999995</v>
       </c>
       <c r="C112">
-        <v>0.47702800000000001</v>
+        <v>8.7089999999999997E-3</v>
       </c>
       <c r="D112">
-        <v>-1.854568</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>-1.8553139999999999</v>
+      </c>
+      <c r="E112">
+        <v>3.4478909999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>0.55778899999999998</v>
       </c>
       <c r="B113">
-        <v>0.95778300000000005</v>
+        <v>0.95833100000000004</v>
       </c>
       <c r="C113">
-        <v>0.46205499999999999</v>
+        <v>8.4919999999999995E-3</v>
       </c>
       <c r="D113">
-        <v>-1.8624540000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>-1.8635219999999999</v>
+      </c>
+      <c r="E113">
+        <v>3.478173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>0.56281400000000004</v>
       </c>
       <c r="B114">
-        <v>0.95999400000000001</v>
+        <v>0.95969800000000005</v>
       </c>
       <c r="C114">
-        <v>0.45287300000000003</v>
+        <v>8.3350000000000004E-3</v>
       </c>
       <c r="D114">
-        <v>-1.8683270000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>-1.8675250000000001</v>
+      </c>
+      <c r="E114">
+        <v>3.492912</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>0.56783899999999998</v>
       </c>
       <c r="B115">
-        <v>0.96223400000000003</v>
+        <v>0.96269099999999996</v>
       </c>
       <c r="C115">
-        <v>0.43766500000000003</v>
+        <v>7.8849999999999996E-3</v>
       </c>
       <c r="D115">
-        <v>-1.8756029999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>-1.876169</v>
+      </c>
+      <c r="E115">
+        <v>3.5249000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>0.57286400000000004</v>
       </c>
       <c r="B116">
-        <v>0.96489100000000005</v>
+        <v>0.96440199999999998</v>
       </c>
       <c r="C116">
-        <v>0.42546699999999998</v>
+        <v>7.3850000000000001E-3</v>
       </c>
       <c r="D116">
-        <v>-1.8820680000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>-1.8813880000000001</v>
+      </c>
+      <c r="E116">
+        <v>3.5441199999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>0.57788899999999999</v>
       </c>
       <c r="B117">
-        <v>0.96648800000000001</v>
+        <v>0.96652300000000002</v>
       </c>
       <c r="C117">
-        <v>0.41598000000000002</v>
+        <v>6.986E-3</v>
       </c>
       <c r="D117">
-        <v>-1.8870709999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>-1.8874230000000001</v>
+      </c>
+      <c r="E117">
+        <v>3.566551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>0.58291499999999996</v>
       </c>
       <c r="B118">
-        <v>0.96818199999999999</v>
+        <v>0.96843900000000005</v>
       </c>
       <c r="C118">
-        <v>0.404115</v>
+        <v>6.8060000000000004E-3</v>
       </c>
       <c r="D118">
-        <v>-1.8925609999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>-1.8933720000000001</v>
+      </c>
+      <c r="E118">
+        <v>3.5888629999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>0.58794000000000002</v>
       </c>
       <c r="B119">
-        <v>0.97003200000000001</v>
+        <v>0.97001800000000005</v>
       </c>
       <c r="C119">
-        <v>0.392453</v>
+        <v>6.6340000000000001E-3</v>
       </c>
       <c r="D119">
-        <v>-1.8979790000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>-1.8981840000000001</v>
+      </c>
+      <c r="E119">
+        <v>3.6069420000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>0.59296499999999996</v>
       </c>
       <c r="B120">
-        <v>0.97137700000000005</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="C120">
-        <v>0.38334800000000002</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="D120">
-        <v>-1.9023129999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>-1.9025479999999999</v>
+      </c>
+      <c r="E120">
+        <v>3.6233200000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>0.59799000000000002</v>
       </c>
       <c r="B121">
-        <v>0.97312100000000001</v>
+        <v>0.97306999999999999</v>
       </c>
       <c r="C121">
-        <v>0.37081700000000001</v>
+        <v>6.1130000000000004E-3</v>
       </c>
       <c r="D121">
-        <v>-1.907545</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>-1.9074500000000001</v>
+      </c>
+      <c r="E121">
+        <v>3.6417839999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>0.60301499999999997</v>
       </c>
       <c r="B122">
-        <v>0.97439100000000001</v>
+        <v>0.97426599999999997</v>
       </c>
       <c r="C122">
-        <v>0.362093</v>
+        <v>5.9049999999999997E-3</v>
       </c>
       <c r="D122">
-        <v>-1.91147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>-1.911025</v>
+      </c>
+      <c r="E122">
+        <v>3.6552639999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>0.60804000000000002</v>
       </c>
       <c r="B123">
-        <v>0.97563100000000003</v>
+        <v>0.97585500000000003</v>
       </c>
       <c r="C123">
-        <v>0.35238599999999998</v>
+        <v>5.79E-3</v>
       </c>
       <c r="D123">
-        <v>-1.9155759999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>-1.9159269999999999</v>
+      </c>
+      <c r="E123">
+        <v>3.6739069999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>0.61306499999999997</v>
       </c>
       <c r="B124">
-        <v>0.97664700000000004</v>
+        <v>0.97661600000000004</v>
       </c>
       <c r="C124">
-        <v>0.34577999999999998</v>
+        <v>5.8380000000000003E-3</v>
       </c>
       <c r="D124">
-        <v>-1.918755</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>-1.918561</v>
+      </c>
+      <c r="E124">
+        <v>3.683983</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>0.61809000000000003</v>
       </c>
       <c r="B125">
-        <v>0.97806499999999996</v>
+        <v>0.97812100000000002</v>
       </c>
       <c r="C125">
-        <v>0.33324799999999999</v>
+        <v>5.4390000000000003E-3</v>
       </c>
       <c r="D125">
-        <v>-1.923257</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>-1.923341</v>
+      </c>
+      <c r="E125">
+        <v>3.7020870000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>0.623116</v>
       </c>
       <c r="B126">
-        <v>0.97949399999999998</v>
+        <v>0.97911499999999996</v>
       </c>
       <c r="C126">
-        <v>0.32146599999999997</v>
+        <v>5.2570000000000004E-3</v>
       </c>
       <c r="D126">
-        <v>-1.9275580000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>-1.9265699999999999</v>
+      </c>
+      <c r="E126">
+        <v>3.7143809999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>0.62814099999999995</v>
       </c>
       <c r="B127">
-        <v>0.98036800000000002</v>
+        <v>0.98031400000000002</v>
       </c>
       <c r="C127">
-        <v>0.31413099999999999</v>
+        <v>4.875E-3</v>
       </c>
       <c r="D127">
-        <v>-1.930472</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>-1.9304520000000001</v>
+      </c>
+      <c r="E127">
+        <v>3.729114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>0.63316600000000001</v>
       </c>
       <c r="B128">
-        <v>0.98132799999999998</v>
+        <v>0.98107299999999997</v>
       </c>
       <c r="C128">
-        <v>0.30372300000000002</v>
+        <v>4.9379999999999997E-3</v>
       </c>
       <c r="D128">
-        <v>-1.9339299999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>-1.9331640000000001</v>
+      </c>
+      <c r="E128">
+        <v>3.7395870000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>0.63819099999999995</v>
       </c>
       <c r="B129">
-        <v>0.982402</v>
+        <v>0.98228599999999999</v>
       </c>
       <c r="C129">
-        <v>0.29401100000000002</v>
+        <v>4.6730000000000001E-3</v>
       </c>
       <c r="D129">
-        <v>-1.937311</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>-1.937095</v>
+      </c>
+      <c r="E129">
+        <v>3.7546330000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>0.64321600000000001</v>
       </c>
       <c r="B130">
-        <v>0.98316400000000004</v>
+        <v>0.98330399999999996</v>
       </c>
       <c r="C130">
-        <v>0.28697499999999998</v>
+        <v>4.4060000000000002E-3</v>
       </c>
       <c r="D130">
-        <v>-1.9398919999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>-1.9401550000000001</v>
+      </c>
+      <c r="E130">
+        <v>3.76633</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>0.64824099999999996</v>
       </c>
       <c r="B131">
-        <v>0.98360899999999996</v>
+        <v>0.98368</v>
       </c>
       <c r="C131">
-        <v>0.28427599999999997</v>
+        <v>4.3870000000000003E-3</v>
       </c>
       <c r="D131">
-        <v>-1.9414290000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>-1.9416389999999999</v>
+      </c>
+      <c r="E131">
+        <v>3.7720500000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>0.65326600000000001</v>
       </c>
       <c r="B132">
-        <v>0.98446100000000003</v>
+        <v>0.984595</v>
       </c>
       <c r="C132">
-        <v>0.276395</v>
+        <v>4.3080000000000002E-3</v>
       </c>
       <c r="D132">
-        <v>-1.9441139999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>-1.944564</v>
+      </c>
+      <c r="E132">
+        <v>3.7833489999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>0.65829099999999996</v>
       </c>
       <c r="B133">
-        <v>0.98523000000000005</v>
+        <v>0.985263</v>
       </c>
       <c r="C133">
-        <v>0.26721699999999998</v>
+        <v>3.9909999999999998E-3</v>
       </c>
       <c r="D133">
-        <v>-1.9468760000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>-1.946898</v>
+      </c>
+      <c r="E133">
+        <v>3.7922560000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>0.66331700000000005</v>
       </c>
       <c r="B134">
-        <v>0.98608499999999999</v>
+        <v>0.98610500000000001</v>
       </c>
       <c r="C134">
-        <v>0.25728699999999999</v>
+        <v>3.9329999999999999E-3</v>
       </c>
       <c r="D134">
-        <v>-1.949759</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>-1.949705</v>
+      </c>
+      <c r="E134">
+        <v>3.8031359999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>0.66834199999999999</v>
       </c>
       <c r="B135">
-        <v>0.98690100000000003</v>
+        <v>0.98677400000000004</v>
       </c>
       <c r="C135">
-        <v>0.248054</v>
+        <v>3.8070000000000001E-3</v>
       </c>
       <c r="D135">
-        <v>-1.9524490000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>-1.9518979999999999</v>
+      </c>
+      <c r="E135">
+        <v>3.8116120000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>0.67336700000000005</v>
       </c>
       <c r="B136">
-        <v>0.98739500000000002</v>
+        <v>0.98749100000000001</v>
       </c>
       <c r="C136">
-        <v>0.243008</v>
+        <v>3.5569999999999998E-3</v>
       </c>
       <c r="D136">
-        <v>-1.9541660000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>-1.9544060000000001</v>
+      </c>
+      <c r="E136">
+        <v>3.8212730000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>0.678392</v>
       </c>
       <c r="B137">
-        <v>0.98782199999999998</v>
+        <v>0.98797400000000002</v>
       </c>
       <c r="C137">
-        <v>0.23866399999999999</v>
+        <v>3.607E-3</v>
       </c>
       <c r="D137">
-        <v>-1.955705</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>-1.956064</v>
+      </c>
+      <c r="E137">
+        <v>3.8277540000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>0.68341700000000005</v>
       </c>
       <c r="B138">
-        <v>0.98852200000000001</v>
+        <v>0.988205</v>
       </c>
       <c r="C138">
-        <v>0.230603</v>
+        <v>3.496E-3</v>
       </c>
       <c r="D138">
-        <v>-1.9579789999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>-1.9569799999999999</v>
+      </c>
+      <c r="E138">
+        <v>3.831267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>0.688442</v>
       </c>
       <c r="B139">
-        <v>0.98891099999999998</v>
+        <v>0.98898900000000001</v>
       </c>
       <c r="C139">
-        <v>0.22584899999999999</v>
+        <v>3.3449999999999999E-3</v>
       </c>
       <c r="D139">
-        <v>-1.959449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>-1.959673</v>
+      </c>
+      <c r="E139">
+        <v>3.8417319999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>0.69346699999999994</v>
       </c>
       <c r="B140">
-        <v>0.98974600000000001</v>
+        <v>0.98931100000000005</v>
       </c>
       <c r="C140">
-        <v>0.214338</v>
+        <v>3.248E-3</v>
       </c>
       <c r="D140">
-        <v>-1.9622440000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>-1.960831</v>
+      </c>
+      <c r="E140">
+        <v>3.8462100000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>0.698492</v>
       </c>
       <c r="B141">
-        <v>0.99000100000000002</v>
+        <v>0.99005900000000002</v>
       </c>
       <c r="C141">
-        <v>0.211918</v>
+        <v>3.1210000000000001E-3</v>
       </c>
       <c r="D141">
-        <v>-1.963195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>-1.963436</v>
+      </c>
+      <c r="E141">
+        <v>3.85636</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>0.70351799999999998</v>
       </c>
       <c r="B142">
-        <v>0.99034599999999995</v>
+        <v>0.99046299999999998</v>
       </c>
       <c r="C142">
-        <v>0.20810799999999999</v>
+        <v>3.1129999999999999E-3</v>
       </c>
       <c r="D142">
-        <v>-1.9644010000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>-1.9649129999999999</v>
+      </c>
+      <c r="E142">
+        <v>3.862139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>0.70854300000000003</v>
       </c>
       <c r="B143">
-        <v>0.99100699999999997</v>
+        <v>0.99094599999999999</v>
       </c>
       <c r="C143">
-        <v>0.19764000000000001</v>
+        <v>2.8860000000000001E-3</v>
       </c>
       <c r="D143">
-        <v>-1.96675</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>-1.96652</v>
+      </c>
+      <c r="E143">
+        <v>3.8683519999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>0.71356799999999998</v>
       </c>
       <c r="B144">
-        <v>0.99126599999999998</v>
+        <v>0.99121199999999998</v>
       </c>
       <c r="C144">
-        <v>0.195379</v>
+        <v>2.8939999999999999E-3</v>
       </c>
       <c r="D144">
-        <v>-1.967638</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>-1.967436</v>
+      </c>
+      <c r="E144">
+        <v>3.8719410000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>0.71859300000000004</v>
       </c>
       <c r="B145">
-        <v>0.99172800000000005</v>
+        <v>0.99179700000000004</v>
       </c>
       <c r="C145">
-        <v>0.188721</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D145">
-        <v>-1.9692529999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>-1.96943</v>
+      </c>
+      <c r="E145">
+        <v>3.8797030000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>0.72361799999999998</v>
       </c>
       <c r="B146">
-        <v>0.99204199999999998</v>
+        <v>0.99216000000000004</v>
       </c>
       <c r="C146">
-        <v>0.184391</v>
+        <v>2.6090000000000002E-3</v>
       </c>
       <c r="D146">
-        <v>-1.970386</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>-1.970764</v>
+      </c>
+      <c r="E146">
+        <v>3.8849070000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>0.72864300000000004</v>
       </c>
       <c r="B147">
-        <v>0.99246599999999996</v>
+        <v>0.99247099999999999</v>
       </c>
       <c r="C147">
-        <v>0.177401</v>
+        <v>2.5920000000000001E-3</v>
       </c>
       <c r="D147">
-        <v>-1.9719409999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>-1.971919</v>
+      </c>
+      <c r="E147">
+        <v>3.88944</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>0.73366799999999999</v>
       </c>
       <c r="B148">
-        <v>0.99281799999999998</v>
+        <v>0.992703</v>
       </c>
       <c r="C148">
-        <v>0.17233499999999999</v>
+        <v>2.5249999999999999E-3</v>
       </c>
       <c r="D148">
-        <v>-1.9731639999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>-1.9727030000000001</v>
+      </c>
+      <c r="E148">
+        <v>3.892496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>0.73869300000000004</v>
       </c>
       <c r="B149">
-        <v>0.99318499999999998</v>
+        <v>0.99316300000000002</v>
       </c>
       <c r="C149">
-        <v>0.16597899999999999</v>
+        <v>2.4229999999999998E-3</v>
       </c>
       <c r="D149">
-        <v>-1.9745280000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>-1.974469</v>
+      </c>
+      <c r="E149">
+        <v>3.8994149999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>0.74371900000000002</v>
       </c>
       <c r="B150">
-        <v>0.99349799999999999</v>
+        <v>0.99338400000000004</v>
       </c>
       <c r="C150">
-        <v>0.16123299999999999</v>
+        <v>2.3259999999999999E-3</v>
       </c>
       <c r="D150">
-        <v>-1.9756260000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>-1.9752749999999999</v>
+      </c>
+      <c r="E150">
+        <v>3.902552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>0.74874399999999997</v>
       </c>
       <c r="B151">
-        <v>0.99377700000000002</v>
+        <v>0.99379700000000004</v>
       </c>
       <c r="C151">
-        <v>0.15671399999999999</v>
+        <v>2.1849999999999999E-3</v>
       </c>
       <c r="D151">
-        <v>-1.9766509999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>-1.976745</v>
+      </c>
+      <c r="E151">
+        <v>3.9083019999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>0.75376900000000002</v>
       </c>
       <c r="B152">
-        <v>0.99396499999999999</v>
+        <v>0.99402299999999999</v>
       </c>
       <c r="C152">
-        <v>0.15431800000000001</v>
+        <v>2.1810000000000002E-3</v>
       </c>
       <c r="D152">
-        <v>-1.977333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>-1.9775160000000001</v>
+      </c>
+      <c r="E152">
+        <v>3.9113359999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>0.75879399999999997</v>
       </c>
       <c r="B153">
-        <v>0.99418499999999999</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="C153">
-        <v>0.15137200000000001</v>
+        <v>2.0720000000000001E-3</v>
       </c>
       <c r="D153">
-        <v>-1.9780949999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>-1.9788859999999999</v>
+      </c>
+      <c r="E153">
+        <v>3.916709</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>0.76381900000000003</v>
       </c>
       <c r="B154">
-        <v>0.994529</v>
+        <v>0.99457200000000001</v>
       </c>
       <c r="C154">
-        <v>0.144313</v>
+        <v>2.0309999999999998E-3</v>
       </c>
       <c r="D154">
-        <v>-1.979401</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>-1.9794480000000001</v>
+      </c>
+      <c r="E154">
+        <v>3.9189120000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>0.76884399999999997</v>
       </c>
       <c r="B155">
-        <v>0.99483500000000002</v>
+        <v>0.99470700000000001</v>
       </c>
       <c r="C155">
-        <v>0.139045</v>
+        <v>1.951E-3</v>
       </c>
       <c r="D155">
-        <v>-1.9804569999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>-1.979984</v>
+      </c>
+      <c r="E155">
+        <v>3.920998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>0.77386900000000003</v>
       </c>
       <c r="B156">
-        <v>0.99503799999999998</v>
+        <v>0.99500999999999995</v>
       </c>
       <c r="C156">
-        <v>0.13548499999999999</v>
+        <v>1.9090000000000001E-3</v>
       </c>
       <c r="D156">
-        <v>-1.9812190000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>-1.981133</v>
+      </c>
+      <c r="E156">
+        <v>3.9255249999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>0.77889399999999998</v>
       </c>
       <c r="B157">
-        <v>0.99519800000000003</v>
+        <v>0.99531599999999998</v>
       </c>
       <c r="C157">
-        <v>0.13301399999999999</v>
+        <v>1.8289999999999999E-3</v>
       </c>
       <c r="D157">
-        <v>-1.981803</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>-1.982283</v>
+      </c>
+      <c r="E157">
+        <v>3.9300480000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>0.78391999999999995</v>
       </c>
       <c r="B158">
-        <v>0.99540899999999999</v>
+        <v>0.99537299999999995</v>
       </c>
       <c r="C158">
-        <v>0.129465</v>
+        <v>1.7849999999999999E-3</v>
       </c>
       <c r="D158">
-        <v>-1.9825550000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>-1.9824809999999999</v>
+      </c>
+      <c r="E158">
+        <v>3.9308130000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>0.78894500000000001</v>
       </c>
       <c r="B159">
-        <v>0.99568699999999999</v>
+        <v>0.99561299999999997</v>
       </c>
       <c r="C159">
-        <v>0.12360500000000001</v>
+        <v>1.6930000000000001E-3</v>
       </c>
       <c r="D159">
-        <v>-1.9835780000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>-1.9833890000000001</v>
+      </c>
+      <c r="E159">
+        <v>3.9343759999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>0.79396999999999995</v>
       </c>
       <c r="B160">
-        <v>0.99573900000000004</v>
+        <v>0.99584300000000003</v>
       </c>
       <c r="C160">
-        <v>0.122197</v>
+        <v>1.6490000000000001E-3</v>
       </c>
       <c r="D160">
-        <v>-1.9839089999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>-1.9842610000000001</v>
+      </c>
+      <c r="E160">
+        <v>3.9378150000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>0.79899500000000001</v>
       </c>
       <c r="B161">
-        <v>0.99607999999999997</v>
+        <v>0.99604700000000002</v>
       </c>
       <c r="C161">
-        <v>0.11572300000000001</v>
+        <v>1.658E-3</v>
       </c>
       <c r="D161">
-        <v>-1.9850380000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>-1.984947</v>
+      </c>
+      <c r="E161">
+        <v>3.940534</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>0.80401999999999996</v>
       </c>
       <c r="B162">
-        <v>0.99611400000000005</v>
+        <v>0.99609400000000003</v>
       </c>
       <c r="C162">
-        <v>0.115865</v>
+        <v>1.603E-3</v>
       </c>
       <c r="D162">
-        <v>-1.985193</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>-1.985131</v>
+      </c>
+      <c r="E162">
+        <v>3.9412419999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>0.80904500000000001</v>
       </c>
       <c r="B163">
-        <v>0.99629699999999999</v>
+        <v>0.996313</v>
       </c>
       <c r="C163">
-        <v>0.112221</v>
+        <v>1.554E-3</v>
       </c>
       <c r="D163">
-        <v>-1.985859</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>-1.9859500000000001</v>
+      </c>
+      <c r="E163">
+        <v>3.9444720000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>0.81406999999999996</v>
       </c>
       <c r="B164">
-        <v>0.99652600000000002</v>
+        <v>0.99645600000000001</v>
       </c>
       <c r="C164">
-        <v>0.10660500000000001</v>
+        <v>1.487E-3</v>
       </c>
       <c r="D164">
-        <v>-1.986734</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>-1.9864390000000001</v>
+      </c>
+      <c r="E164">
+        <v>3.9463889999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>0.81909500000000002</v>
       </c>
       <c r="B165">
-        <v>0.99657600000000002</v>
+        <v>0.99659500000000001</v>
       </c>
       <c r="C165">
-        <v>0.106785</v>
+        <v>1.4649999999999999E-3</v>
       </c>
       <c r="D165">
-        <v>-1.986893</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>-1.9870380000000001</v>
+      </c>
+      <c r="E165">
+        <v>3.9487549999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>0.82412099999999999</v>
       </c>
       <c r="B166">
-        <v>0.99674600000000002</v>
+        <v>0.99678800000000001</v>
       </c>
       <c r="C166">
-        <v>0.102634</v>
+        <v>1.384E-3</v>
       </c>
       <c r="D166">
-        <v>-1.9875499999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>-1.987708</v>
+      </c>
+      <c r="E166">
+        <v>3.95139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>0.82914600000000005</v>
       </c>
       <c r="B167">
-        <v>0.99693200000000004</v>
+        <v>0.99694400000000005</v>
       </c>
       <c r="C167">
-        <v>9.8288E-2</v>
+        <v>1.3270000000000001E-3</v>
       </c>
       <c r="D167">
-        <v>-1.9882390000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>-1.98827</v>
+      </c>
+      <c r="E167">
+        <v>3.953605</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>0.834171</v>
       </c>
       <c r="B168">
-        <v>0.99697499999999994</v>
+        <v>0.99702999999999997</v>
       </c>
       <c r="C168">
-        <v>9.7832000000000002E-2</v>
+        <v>1.348E-3</v>
       </c>
       <c r="D168">
-        <v>-1.9884219999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>-1.9886299999999999</v>
+      </c>
+      <c r="E168">
+        <v>3.9550350000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>0.83919600000000005</v>
       </c>
       <c r="B169">
-        <v>0.997228</v>
+        <v>0.99710900000000002</v>
       </c>
       <c r="C169">
-        <v>9.1381000000000004E-2</v>
+        <v>1.3159999999999999E-3</v>
       </c>
       <c r="D169">
-        <v>-1.989344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>-1.9889019999999999</v>
+      </c>
+      <c r="E169">
+        <v>3.9561030000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>0.844221</v>
       </c>
       <c r="B170">
-        <v>0.99728600000000001</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="C170">
-        <v>9.0339000000000003E-2</v>
+        <v>1.16E-3</v>
       </c>
       <c r="D170">
-        <v>-1.989582</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>-1.9899720000000001</v>
+      </c>
+      <c r="E170">
+        <v>3.9603139999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>0.84924599999999995</v>
       </c>
       <c r="B171">
-        <v>0.99741500000000005</v>
+        <v>0.99738000000000004</v>
       </c>
       <c r="C171">
-        <v>8.7687000000000001E-2</v>
+        <v>1.1739999999999999E-3</v>
       </c>
       <c r="D171">
-        <v>-1.9900340000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>-1.989959</v>
+      </c>
+      <c r="E171">
+        <v>3.960264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>0.854271</v>
       </c>
       <c r="B172">
-        <v>0.99753199999999997</v>
+        <v>0.99758100000000005</v>
       </c>
       <c r="C172">
-        <v>8.4357000000000001E-2</v>
+        <v>1.1349999999999999E-3</v>
       </c>
       <c r="D172">
-        <v>-1.990513</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>-1.990691</v>
+      </c>
+      <c r="E172">
+        <v>3.9631599999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>0.85929599999999995</v>
       </c>
       <c r="B173">
-        <v>0.99762600000000001</v>
+        <v>0.99763800000000002</v>
       </c>
       <c r="C173">
-        <v>8.2487000000000005E-2</v>
+        <v>1.147E-3</v>
       </c>
       <c r="D173">
-        <v>-1.9908459999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>-1.99092</v>
+      </c>
+      <c r="E173">
+        <v>3.9640740000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>0.86432200000000003</v>
       </c>
       <c r="B174">
-        <v>0.99771699999999996</v>
+        <v>0.99777400000000005</v>
       </c>
       <c r="C174">
-        <v>7.9977999999999994E-2</v>
+        <v>1.0740000000000001E-3</v>
       </c>
       <c r="D174">
-        <v>-1.991217</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>-1.991433</v>
+      </c>
+      <c r="E174">
+        <v>3.9660920000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>0.86934699999999998</v>
       </c>
       <c r="B175">
-        <v>0.99778500000000003</v>
+        <v>0.99780800000000003</v>
       </c>
       <c r="C175">
-        <v>7.8714999999999993E-2</v>
+        <v>1.062E-3</v>
       </c>
       <c r="D175">
-        <v>-1.991463</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>-1.9915579999999999</v>
+      </c>
+      <c r="E175">
+        <v>3.9665840000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>0.87437200000000004</v>
       </c>
       <c r="B176">
-        <v>0.99788900000000003</v>
+        <v>0.99795900000000004</v>
       </c>
       <c r="C176">
-        <v>7.5882000000000005E-2</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="D176">
-        <v>-1.991868</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>-1.992092</v>
+      </c>
+      <c r="E176">
+        <v>3.968693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>0.87939699999999998</v>
       </c>
       <c r="B177">
-        <v>0.99801899999999999</v>
+        <v>0.99795900000000004</v>
       </c>
       <c r="C177">
-        <v>7.2364999999999999E-2</v>
+        <v>9.9799999999999997E-4</v>
       </c>
       <c r="D177">
-        <v>-1.9923470000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>-1.9921</v>
+      </c>
+      <c r="E177">
+        <v>3.9687209999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>0.88442200000000004</v>
       </c>
       <c r="B178">
-        <v>0.99804999999999999</v>
+        <v>0.99810299999999996</v>
       </c>
       <c r="C178">
-        <v>7.2214E-2</v>
+        <v>9.2800000000000001E-4</v>
       </c>
       <c r="D178">
-        <v>-1.992456</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>-1.9926299999999999</v>
+      </c>
+      <c r="E178">
+        <v>3.9708100000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>0.88944699999999999</v>
       </c>
       <c r="B179">
-        <v>0.99814800000000004</v>
+        <v>0.99818399999999996</v>
       </c>
       <c r="C179">
-        <v>6.9585999999999995E-2</v>
+        <v>9.3700000000000001E-4</v>
       </c>
       <c r="D179">
-        <v>-1.9928189999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>-1.99298</v>
+      </c>
+      <c r="E179">
+        <v>3.9722050000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>0.89447200000000004</v>
       </c>
       <c r="B180">
-        <v>0.99828499999999998</v>
+        <v>0.99824199999999996</v>
       </c>
       <c r="C180">
-        <v>6.5215999999999996E-2</v>
+        <v>8.5800000000000004E-4</v>
       </c>
       <c r="D180">
-        <v>-1.9933479999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>-1.9932080000000001</v>
+      </c>
+      <c r="E180">
+        <v>3.9730919999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>0.89949699999999999</v>
       </c>
       <c r="B181">
-        <v>0.998309</v>
+        <v>0.99831700000000001</v>
       </c>
       <c r="C181">
-        <v>6.4920000000000005E-2</v>
+        <v>8.6200000000000003E-4</v>
       </c>
       <c r="D181">
-        <v>-1.993449</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>-1.993466</v>
+      </c>
+      <c r="E181">
+        <v>3.9741179999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>0.90452299999999997</v>
       </c>
       <c r="B182">
-        <v>0.99840099999999998</v>
+        <v>0.99834999999999996</v>
       </c>
       <c r="C182">
-        <v>6.2170000000000003E-2</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="D182">
-        <v>-1.9938</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>-1.9935970000000001</v>
+      </c>
+      <c r="E182">
+        <v>3.974637</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>0.90954800000000002</v>
       </c>
       <c r="B183">
-        <v>0.99847900000000001</v>
+        <v>0.99846900000000005</v>
       </c>
       <c r="C183">
-        <v>5.9737999999999999E-2</v>
+        <v>8.0699999999999999E-4</v>
       </c>
       <c r="D183">
-        <v>-1.9941070000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>-1.9940640000000001</v>
+      </c>
+      <c r="E183">
+        <v>3.9764870000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>0.91457299999999997</v>
       </c>
       <c r="B184">
-        <v>0.99848800000000004</v>
+        <v>0.99858499999999994</v>
       </c>
       <c r="C184">
-        <v>6.0225000000000001E-2</v>
+        <v>7.6400000000000003E-4</v>
       </c>
       <c r="D184">
-        <v>-1.994129</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>-1.9944999999999999</v>
+      </c>
+      <c r="E184">
+        <v>3.9782130000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>0.91959800000000003</v>
       </c>
       <c r="B185">
-        <v>0.99862300000000004</v>
+        <v>0.99857600000000002</v>
       </c>
       <c r="C185">
-        <v>5.5721E-2</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="D185">
-        <v>-1.994637</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>-1.9944299999999999</v>
+      </c>
+      <c r="E185">
+        <v>3.9779270000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>0.92462299999999997</v>
       </c>
       <c r="B186">
-        <v>0.99866200000000005</v>
+        <v>0.99867300000000003</v>
       </c>
       <c r="C186">
-        <v>5.4604E-2</v>
+        <v>7.0799999999999997E-4</v>
       </c>
       <c r="D186">
-        <v>-1.9947980000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>-1.994823</v>
+      </c>
+      <c r="E186">
+        <v>3.9794860000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>0.92964800000000003</v>
       </c>
       <c r="B187">
-        <v>0.99868100000000004</v>
+        <v>0.99869600000000003</v>
       </c>
       <c r="C187">
-        <v>5.4421999999999998E-2</v>
+        <v>7.1699999999999997E-4</v>
       </c>
       <c r="D187">
-        <v>-1.9948710000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>-1.994936</v>
+      </c>
+      <c r="E187">
+        <v>3.9799349999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>0.93467299999999998</v>
       </c>
       <c r="B188">
-        <v>0.99870800000000004</v>
+        <v>0.99872300000000003</v>
       </c>
       <c r="C188">
-        <v>5.4087000000000003E-2</v>
+        <v>6.9499999999999998E-4</v>
       </c>
       <c r="D188">
-        <v>-1.994966</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>-1.9950270000000001</v>
+      </c>
+      <c r="E188">
+        <v>3.9802900000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>0.93969800000000003</v>
       </c>
       <c r="B189">
-        <v>0.998803</v>
+        <v>0.99882499999999996</v>
       </c>
       <c r="C189">
-        <v>5.0550999999999999E-2</v>
+        <v>6.6200000000000005E-4</v>
       </c>
       <c r="D189">
-        <v>-1.9953419999999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>-1.995409</v>
+      </c>
+      <c r="E189">
+        <v>3.981808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>0.94472400000000001</v>
       </c>
       <c r="B190">
-        <v>0.99884200000000001</v>
+        <v>0.99878599999999995</v>
       </c>
       <c r="C190">
-        <v>4.9451000000000002E-2</v>
+        <v>6.7699999999999998E-4</v>
       </c>
       <c r="D190">
-        <v>-1.99549</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>-1.9952799999999999</v>
+      </c>
+      <c r="E190">
+        <v>3.981293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>0.94974899999999995</v>
       </c>
       <c r="B191">
-        <v>0.99887999999999999</v>
+        <v>0.99888900000000003</v>
       </c>
       <c r="C191">
-        <v>4.8585999999999997E-2</v>
+        <v>6.2799999999999998E-4</v>
       </c>
       <c r="D191">
-        <v>-1.995625</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>-1.9956590000000001</v>
+      </c>
+      <c r="E191">
+        <v>3.982796</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>0.95477400000000001</v>
       </c>
       <c r="B192">
-        <v>0.99894499999999997</v>
+        <v>0.99897000000000002</v>
       </c>
       <c r="C192">
-        <v>4.6351000000000003E-2</v>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="D192">
-        <v>-1.995873</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>-1.995984</v>
+      </c>
+      <c r="E192">
+        <v>3.984083</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>0.95979899999999996</v>
       </c>
       <c r="B193">
-        <v>0.99898600000000004</v>
+        <v>0.99902299999999999</v>
       </c>
       <c r="C193">
-        <v>4.4859000000000003E-2</v>
+        <v>5.5400000000000002E-4</v>
       </c>
       <c r="D193">
-        <v>-1.996043</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>-1.996184</v>
+      </c>
+      <c r="E193">
+        <v>3.9848720000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>0.96482400000000001</v>
       </c>
       <c r="B194">
-        <v>0.99902500000000005</v>
+        <v>0.99906200000000001</v>
       </c>
       <c r="C194">
-        <v>4.3501999999999999E-2</v>
+        <v>5.6899999999999995E-4</v>
       </c>
       <c r="D194">
-        <v>-1.9962</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>-1.9963409999999999</v>
+      </c>
+      <c r="E194">
+        <v>3.9854980000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>0.96984899999999996</v>
       </c>
       <c r="B195">
-        <v>0.99906799999999996</v>
+        <v>0.99907299999999999</v>
       </c>
       <c r="C195">
-        <v>4.2070000000000003E-2</v>
+        <v>5.5800000000000001E-4</v>
       </c>
       <c r="D195">
-        <v>-1.9963649999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>-1.9963979999999999</v>
+      </c>
+      <c r="E195">
+        <v>3.985725</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>0.97487400000000002</v>
       </c>
       <c r="B196">
-        <v>0.99911399999999995</v>
+        <v>0.99909700000000001</v>
       </c>
       <c r="C196">
-        <v>4.0687000000000001E-2</v>
+        <v>5.53E-4</v>
       </c>
       <c r="D196">
-        <v>-1.996529</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>-1.9964500000000001</v>
+      </c>
+      <c r="E196">
+        <v>3.9859290000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>0.97989899999999996</v>
       </c>
       <c r="B197">
-        <v>0.99913799999999997</v>
+        <v>0.99913300000000005</v>
       </c>
       <c r="C197">
-        <v>3.9794000000000003E-2</v>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="D197">
-        <v>-1.9966349999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>-1.9965919999999999</v>
+      </c>
+      <c r="E197">
+        <v>3.9864899999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>0.98492500000000005</v>
       </c>
       <c r="B198">
-        <v>0.999135</v>
+        <v>0.99916899999999997</v>
       </c>
       <c r="C198">
-        <v>4.0658E-2</v>
+        <v>5.0299999999999997E-4</v>
       </c>
       <c r="D198">
-        <v>-1.996605</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>-1.996745</v>
+      </c>
+      <c r="E198">
+        <v>3.9870960000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>0.98995</v>
       </c>
       <c r="B199">
-        <v>0.999224</v>
+        <v>0.99921400000000005</v>
       </c>
       <c r="C199">
-        <v>3.6721999999999998E-2</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="D199">
-        <v>-1.9969619999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>-1.9969030000000001</v>
+      </c>
+      <c r="E199">
+        <v>3.9877220000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>0.99497500000000005</v>
       </c>
       <c r="B200">
-        <v>0.999251</v>
+        <v>0.99920200000000003</v>
       </c>
       <c r="C200">
-        <v>3.5848999999999999E-2</v>
+        <v>4.95E-4</v>
       </c>
       <c r="D200">
-        <v>-1.9970650000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>-1.9968699999999999</v>
+      </c>
+      <c r="E200">
+        <v>3.9875910000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
-        <v>0.99929299999999999</v>
+        <v>0.99932600000000005</v>
       </c>
       <c r="C201">
-        <v>3.4057999999999998E-2</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="D201">
-        <v>-1.9972369999999999</v>
+        <v>-1.997344</v>
+      </c>
+      <c r="E201">
+        <v>3.9894660000000002</v>
       </c>
     </row>
   </sheetData>
